--- a/examples/USA OGD/electronics_stores/profile.xlsx
+++ b/examples/USA OGD/electronics_stores/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -471,11 +481,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -531,12 +541,18 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>3211</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>54587</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['ELECTRONICS STORE']</t>
         </is>
@@ -549,39 +565,39 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>3213</v>
       </c>
       <c r="E3" t="n">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3954081768</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1231417.55465587</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1273319</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>121888.713598816</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14856858502.77419</v>
       </c>
       <c r="K3" t="n">
-        <v>-1</v>
+        <v>800016</v>
       </c>
       <c r="L3" t="n">
-        <v>-1</v>
+        <v>1361562</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -605,12 +621,18 @@
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>22219</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>3211</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['1000529', '1000783', '1001511', '1001842', '1001934', '1001972', '1002805', '1003107', '1003178', '1003670', '1003786', '1003945', '1004048', '1005259', '1005376', '1005447', '1005549', '1006392', '1006405', '1007888', '1009306', '1011870', '1013716', '1014983', '1015746', '1016162', '1016909', '1017458', '1017582', '1018239', '1018368', '1019040', '1019519', '1020422', '1021179', '1021194', '1021693', '1021997', '1022273', '1022291', '1022314', '1022605', '1025791', '1026301', '1027141', '1028124', '1028342', '1028552', '1028679', '1029115', '1029202', '1031770', '1031945', '1032015', '1033091', '1033099', '1033251', '1033520', '1034074', '1035496', '1036592', '1036727', '1037538', '1037566', '1037570', '1037803', '1038130', '1038514', '1039548', '1039550', '1039552', '1039553', '1039554', '1039555', '1039556', '1039558', '1039559', '1039560', '1039562', '1039566', '1039569', '1039576', '1039577', '1039582', '1039585', '1039826', '1040044', '1040195', '1040340', '1040410', '1057569', '1057765', '1057766', '1058010', '1058131', '1058135', '1058276', '1058588', '1059418', '1059872', '1060430', '1060434', '1061487', '1061558', '1063798', '1063813', '1064216', '1064829', '1066037', '1066155', '1066198', '1067040', '1067041', '1067422', '1067544', '1067953', '1068936', '1069260', '1069664', '1070597', '1070822', '1070930', '1070932', '1070933', '1070938', '1070940', '1070943', '1070946', '1070948', '1070950', '1070952', '1070954', '1070955', '1071189', '1071358', '1071750', '1072485', '1072519', '1072977', '1073021', '1073059', '1073436', '1073871', '1073911', '1073992', '1074796', '1075199', '1075545', '1075697', '1075760', '1076116', '1076203', '1076226', '1076558', '1076838', '1076993', '1077623', '1077857', '1077899', '1078063', '1078397', '1080134', '1080567', '1080912', '1080980', '1081845', '1082945', '1083937', '1085181', '1085208', '1085243', '1085246', '1085525', '1085658', '1085863', '1085928', '1086670', '1086999', '1087466', '1087469', '1087780', '1089203', '1089554', '1090089', '1090863', '1090879', '1090889', '1090950', '1092566', '1093217', '1093547', '1093551', '1093724', '1094492', '1094620', '1094792', '1094796', '1094905', '1094921', '1094988', '1095015', '1095208', '1095465', '1095646', '1095652', '1096322', '1096556', '1096766', '1096847', '1097002', '1097031', '1097273', '1097409', '1097439', '1097482', '1097758', '1097886', '1098447', '1098718', '1098720', '1098893', '1099756', '1099761', '1099877', '1100201', '1100347', '1100367', '1100683', '1100833', '1101140', '1101271', '1101447', '1101854', '1102062', '1102254', '1102309', '1102476', '1102548', '1102760', '1103131', '1103263', '1103582', '1104182', '1104238', '1104527', '1104896', '1105476', '1105735', '1106148', '1106152', '1106377', '1106480', '1106498', '1106624', '1107934', '1109090', '1109743', '1109887', '1110028', '1111036', '1111909', '1112062', '1112132', '1113302', '1114081', '1114349', '1116081', '1116674', '1116888', '1117296', '1119874', '1120542', '1121271', '1122097', '1122891', '1123062', '1123511', '1123515', '1123875', '1124007', '1124535', '1124626', '1125513', '1125549', '1125650', '1125693', '1125853', '1126291', '1126348', '1126462', '1126676', '1126766', '1127106', '1127414', '1127420', '1127517', '1127819', '1127921', '1128042', '1128136', '1128278', '1128342', '1128380', '1128390', '1128419', '1128888', '1129214', '1129222', '1129240', '1129542', '1129543', '1129741', '1129974', '1129984', '1130004', '1130107', '1130168', '1130255', '1130464', '1130579', '1130669', '1130786', '1130809', '1131033', '1131312', '1131333', '1131694', '1131729', '1132063', '1132076', '1132345', '1132727', '1132831', '1133007', '1133690', '1133710', '1133835', '1134008', '1134105', '1134169', '1134265', '1134333', '1134601', '1134709', '1135073', '1135261', '1135992', '1136295', '1136853', '1137067', '1137797', '1138159', '1138336', '1138373', '1138767', '1140709', '1140726', '1140744', '1140745', '1141350', '1142178', '1142218', '1142246', '1142609', '1142805', '1143266', '1144957', '1145530', '1145641', '1146054', '1146170', '1146177', '1146324', '1146431', '1146569', '1146720', '1146726', '1147083', '1147555', '1148147', '1148545', '1148561', '1148671', '1149220', '1149283', '1149634', '1150245', '1150532', '1150663', '1151267', '1152198', '1152714', '1153490', '1153540', '1153645', '1153762', '1154134', '1154348', '1155116', '1155163', '1155513', '1155942', '1156013', '1156015', '1156054', '1156140', '1156859', '1157018', '1157052', '1157084', '1157187', '1157529', '1157575', '1157659', '1157665', '1157718', '1157884', '1158031', '1158197', '1158509', '1158612', '1158731', '1158839', '1159080', '1159252', '1159517', '1159880', '1159932', '1159934', '1159936', '1159948', '1160270', '1160460', '1160590', '1160597', '1160730', '1160795', '1161060', '1161185', '1161373', '1161377', '1161684', '1162066', '1162195', '1162336', '1162996', '1163586', '1164234', '1164284', '1164286', '1164293', '1164401', '1164788', '1164835', '1164951', '1164953', '1164956', '1165744', '1165754', '1167104', '1167175', '1167206', '1167534', '1167599', '1167756', '1168027', '1168031', '1168546', '1168850', '1168893', '1168943', '1169065', '1169424', '1170031', '1170062', '1170225', '1170813', '1170864', '1170880', '1170883', '1171291', '1171518', '1171653', '1171654', '1172614', '1172716', '1173361', '1173378', '1173423', '1173598', '1173624', '1173643', '1173740', '1173834', '1173976', '1174045', '1174245', '1174515', '1174653', '1174894', '1175159', '1175446', '1175741', '1175799', '1175819', '1175825', '1175961', '1175966', '1176067', '1176279', '1176663', '1177561', '1177673', '1178102', '1178320', '1178725', '1178762', '1179224', '1179882', '1180079', '1180082', '1180109', '1180611', '1180621', '1180823', '1180944', '1181720', '1181891', '1182328', '1182779', '1182828', '1183068', '1183420', '1183506', '1183672', '1183740', '1183841', '1183896', '1183937', '1183972', '1184152', '1184347', '1184444', '1184672', '1184674', '1184715', '1184775', '1184776', '1184950', '1184970', '1184972', '1185118', '1185367', '1185411', '1185602', '1185700', '1185803', '1185870', '1185875', '1185877', '1185878', '1185880', '1185884', '1185885', '1185898', '1185901', '1185907', '1185910', '1185911', '1186124', '1186126', '1186302', '1186437', '1186465', '1186715', '1187039', '1187171', '1187174', '1187176', '1187241', '1187290', '1187393', '1187424', '1187544', '1187576', '1187579', '1187953', '1187991', '1188177', '1188470', '1188632', '1188652', '1188728', '1188909', '1188960', '1188981', '1189108', '1189145', '1189188', '1189338', '1189368', '1189471', '1189786', '1189794', '1189915', '1189950', '1189995', '1190032', '1190034', '1190035', '1190134', '1190176', '1190225', '1190253', '1190257', '1190259', '1190261', '1190435', '1190444', '1190538', '1190568', '1190630', '1190769', '1190830', '1191085', '1191155', '1191479', '1191868', '1191871', '1191915', '1191947', '1192105', '1192479', '1192487', '1192488', '1192646', '1192797', '1192829', '1192865', '1193235', '1193396', '1193408', '1193723', '1193874', '1193887', '1193995', '1194051', '1194101', '1194720', '1194767', '1194887', '1194924', '1195133', '1195142', '1195304', '1195322', '1195549', '1195737', '1195751', '1195987', '1196264', '1196668', '1196670', '1196831', '1197087', '1197145', '1197201', '1197215', '1197256', '1197276', '1197408', '1198110', '1198301', '1198376', '1198989', '1199055', '1199216', '1199245', '1199605', '1199822', '1199937', '1200033', '1200064', '1200901', '1201997', '1201999', '1202111', '1202612', '1203045', '1203095', '1203404', '1203467', '1204170', '1204592', '1204816', '1204936', '1204964', '1204968', '1205034', '1205438', '1205691', '1205830', '1206228', '1206318', '1206654', '1206969', '1207116', '1207265', '1207575', '1207830', '1208136', '1208991', '1209075', '1209494', '1209589', '1209795', '1210348', '1210442', '1210537', '1210878', '1210898', '1211067', '1211434', '1211757', '1211863', '1212143', '1212169', '1212181', '1212211', '1212288', '1212679', '1212713', '1212843', '1212851', '1213152', '1213512', '1213533', '1213575', '1213734', '1213803', '1213891', '1213931', '1214001', '1214020', '1214116', '1214200', '1214212', '1214214', '1214240', '1214319', '1214646', '1214686', '1214772', '1214861', '1214875', '1214971', '1215165', '1215167', '1215199', '1215218', '1215398', '1215448', '1215554', '1215595', '1215710', '1215755', '1215906', '1216074', '1216076', '1216177', '1216289', '1217090', '1217115', '1217235', '1217280', '1217457', '1217555', '1217874', '1217880', '1217949', '1217959', '1217965', '1218047', '1218054', '1218223', '1218451', '1218517', '1218636', '1218728', '1218775', '1218807', '1219148', '1219364', '1219643', '1219736', '1219778', '1219912', '1219998', '1220026', '1220027', '1220028', '1220186', '1220599', '1220734', '1220851', '1220935', '1221013', '1221221', '1221654', '1221689', '1221876', '1222164', '1222362', '1222369', '1222451', '1222732', '1222857', '1222873', '1222909', '1223074', '1223075', '1223133', '1223493', '1223813', '1223863', '1223964', '1223965', '1223969', '1223970', '1223974', '1223977', '1223980', '1224548', '1224610', '1224893', '1224912', '1224926', '1224938', '1225081', '1225117', '1225179', '1225261', '1225308', '1225315', '1225416', '1225474', '1225871', '1225957', '1226156', '1226523', '1226555', '1226932', '1227076', '1227460', '1227596', '1227729', '1227777', '1227788', '1228203', '1228293', '1228776', '1228842', '1229042', '1229178', '1229257', '1229611', '1229709', '1229750', '1230042', '1230517', '1230867', '1231036', '1231169', '1231204', '1231305', '1231688', '1232026', '1232043', '1232358', '1232359', '1232362', '1232364', '1232370', '1232421', '1232433', '1232471', '1232609', '1232681', '1232742', '1232798', '1233102', '1233205', '1233631', '1233788', '1234239', '1234301', '1234512', '1234829', '1234831', '1234918', '1235525', '1235548', '1236558', '1236636', '1236943', '1237038', '1237152', '1237512', '1237612', '1237615', '1237622', '1237896', '1238077', '1238207', '1238242', '1238330', '1238717', '1238732', '1238811', '1239089', '1239823', '1239868', '1239881', '1240004', '1240035', '1240201', '1240841', '1240998', '1241025', '1241031', '1241170', '1241171', '1241172', '1241173', '1241174', '1241175', '1241176', '1241177', '1241178', '1241179', '1241180', '1241181', '1241182', '1241315', '1241317', '1241321', '1241322', '1241323', '1241325', '1241326', '1241327', '1241328', '1241329', '1241330', '1241331', '1241332', '1241333', '1241334', '1241335', '1241337', '1241338', '1241339', '1241340', '1241341', '1241342', '1241343', '1241344', '1241461', '1241473', '1241499', '1241635', '1241647', '1241669', '1241705', '1241734', '1241802', '1241803', '1241830', '1242011', '1242121', '1242145', '1242203', '1242331', '1242347', '1242419', '1242825', '1242833', '1243036', '1243155', '1243238', '1243383', '1243522', '1243530', '1243536', '1243610', '1243623', '1243690', '1243695', '1243704', '1243721', '1243726', '1243758', '1243791', '1243810', '1243817', '1243845', '1243902', '1243935', '1243953', '1243977', '1244097', '1244260', '1244534', '1244542', '1244543', '1244655', '1244665', '1244685', '1244733', '1244782', '1244793', '1244798', '1244801', '1244860', '1244892', '1244920', '1244946', '1244972', '1244991', '1244996', '1245187', '1245313', '1245492', '1245556', '1245583', '1245632', '1245633', '1245635', '1245702', '1245763', '1245770', '1245797', '1245893', '1245896', '1246008', '1246083', '1246137', '1246139', '1246148', '1246169', '1246205', '1246245', '1246271', '1246365', '1246465', '1246481', '1246485', '1246590', '1246611', '1246634', '1246645', '1246652', '1246732', '1246873', '1246907', '1246977', '1247051', '1247059', '1247123', '1247135', '1247154', '1247164', '1247167', '1247271', '1247332', '1247364', '1247365', '1247369', '1247377', '1247391', '1247419', '1247530', '1247537', '1247566', '1247617', '1247655', '1247727', '1247823', '1247900', '1248025', '1248112', '1248130', '1248218', '1248270', '1248272', '1248274', '1248285', '1248418', '1248429', '1248557', '1248560', '1248605', '1248660', '1248669', '1248680', '1249012', '1249040', '1249142', '1249188', '1249309', '1249455', '1249465', '1249666', '1249921', '1249977', '1250015', '1250106', '1250195', '1250218', '1250221', '1250223', '1250434', '1250488', '1250662', '1250753', '1250783', '1250969', '1251036', '1251365', '1251399', '1251499', '1251512', '1251513', '1251693', '1251726', '1251812', '1251814', '1251879', '1252186', '1252387', '1252429', '1252505', '1252641', '1252645', '1252673', '1252903', '1252937', '1253000', '1253017', '1253069', '1253244', '1253274', '1253342', '1253384', '1253437', '1253463', '1253541', '1253639', '1253672', '1253723', '1253814', '1253970', '1253980', '1254000', '1254040', '1254201', '1254235', '1254318', '1254338', '1254375', '1254376', '1254432', '1254574', '1254580', '1254624', '1254637', '1254639', '1254704', '1254912', '1254971', '1255306', '1255414', '1255494', '1255589', '1255594', '1255602', '1255787', '1255884', '1256157', '1256205', '1256675', '1256939', '1257219', '1257408', '1257561', '1257706', '1257747', '1258242', '1258276', '1258450', '1258451', '1258452', '1258453', '1258461', '1258472', '1258498', '1258508', '1258759', '1258769', '1258856', '1259042', '1259091', '1259136', '1259234', '1259276', '1259417', '1259476', '1259477', '1259478', '1259479', '1259480', '1259481', '1259482', '1259483', '1259484', '1259485', '1259486', '1259487', '1259540', '1259600', '1259702', '1259703', '1259704', '1259705', '1259706', '1259707', '1259708', '1259709', '1259711', '1259712', '1259713', '1259714', '1259715', '1259716', '1259718', '1259721', '1259726', '1259733', '1259737', '1259765', '1259772', '1259959', '1260131', '1260338', '1260522', '1260634', '1260710', '1260811', '1260850', '1260880', '1260882', '1260911', '1260930', '1260979', '1260997', '1261086', '1261324', '1261766', '1261809', '1261941', '1262244', '1262379', '1262445', '1262453', '1262463', '1262466', '1262685', '1262744', '1262851', '1263341', '1263405', '1263515', '1263908', '1264043', '1264296', '1264428', '1264435', '1264793', '1264838', '1265078', '1265527', '1265985', '1266004', '1266434', '1266499', '1266684', '1267219', '1267290', '1267412', '1267439', '1267469', '1267883', '1268033', '1268050', '1268225', '1268262', '1268361', '1268404', '1268587', '1268605', '1269060', '1269151', '1269281', '1269539', '1269745', '1269751', '1269761', '1269862', '1269866', '1270019', '1270150', '1270287', '1270522', '1270565', '1270765', '1270781', '1270791', '1270807', '1270981', '1270996', '1271021', '1271111', '1271123', '1271384', '1271513', '1271535', '1271576', '1271883', '1272202', '1272252', '1272622', '1272641', '1272727', '1272742', '1272822', '1273227', '1273263', '1273319', '1273537', '1273556', '1273569', '1273769', '1273876', '1273880', '1273973', '1274086', '1274221', '1274356', '1274432', '1274484', '1274525', '1274526', '1274579', '1274724', '1274789', '1274982', '1275157', '1275169', '1275389', '1275393', '1275500', '1275502', '1275557', '1275612', '1275754', '1275770', '1275775', '1275781', '1275818', '1275911', '1276032', '1276225', '1276248', '1276300', '1276340', '1276426', '1276517', '1276609', '1276628', '1276716', '1276757', '1276871', '1277189', '1277233', '1277235', '1277239', '1277280', '1277328', '1277546', '1277646', '1277867', '1277955', '1278021', '1278175', '1278176', '1278184', '1278202', '1278210', '1278220', '1278252', '1278355', '1278408', '1278851', '1278888', '1278919', '1279034', '1279073', '1279109', '1279135', '1279224', '1279244', '1279340', '1279435', '1279654', '1279805', '1279933', '1279966', '1280107', '1280221', '1280267', '1280294', '1280327', '1280345', '1280422', '1280524', '1280525', '1280653', '1280919', '1280980', '1280999', '1281000', '1281029', '1281147', '1281227', '1281282', '1281510', '1281539', '1281637', '1281817', '1281819', '1281848', '1281852', '1281855', '1281860', '1281863', '1281943', '1281950', '1282029', '1282076', '1282284', '1282464', '1282565', '1282583', '1282734', '1282748', '1282815', '1282982', '1283425', '1283485', '1283595', '1283596', '1283801', '1283802', '1283815', '1283879', '1283888', '1283912', '1284086', '1284096', '1284117', '1284182', '1284221', '1284232', '1284368', '1284391', '1284589', '1285174', '1285234', '1285242', '1285496', '1285505', '1285507', '1285703', '1285791', '1285812', '1286039', '1286349', '1286568', '1286569', '1286570', '1286612', '1286613', '1286614', '1286616', '1286709', '1286716', '1286882', '1287021', '1287136', '1287142', '1287156', '1287158', '1287186', '1287310', '1287357', '1287829', '1287845', '1287911', '1288170', '1288378', '1288443', '1288513', '1288572', '1288610', '1288645', '1288652', '1288654', '1288667', '1288668', '1288675', '1288680', '1288799', '1288948', '1289078', '1289096', '1289313', '1289390', '1289410', '1289518', '1289541', '1289560', '1289750', '1290066', '1290167', '1290196', '1290275', '1290323', '1290405', '1290440', '1290525', '1290529', '1290823', '1290858', '1290914', '1291004', '1291013', '1291025', '1291036', '1291101', '1291519', '1291584', '1291846', '1291863', '1292112', '1292233', '1292409', '1292523', '1292735', '1292757', '1292832', '1292925', '1293047', '1293117', '1293123', '1293126', '1293187', '1293309', '1293422', '1293594', '1293609', '1293620', '1294095', '1294102', '1294407', '1294541', '1294586', '1294594', '1294656', '1294713', '1294719', '1294720', '1295373', '1295376', '1295769', '1295812', '1296153', '1296222', '1296438', '1296442', '1296710', '1296714', '1296941', '1296954', '1297031', '1297094', '1297131', '1297288', '1297291', '1297962', '1298023', '1298029', '1298032', '1298039', '1298054', '1298158', '1298528', '1298837', '1298869', '1299030', '1299321', '1299332', '1299350', '1299353', '1299499', '1299544', '1299545', '1299624', '1299682', '1299799', '1299871', '1299876', '1299880', '1299881', '1299883', '1299884', '1299907', '1299908', '1299926', '1300203', '1300325', '1300508', '1300581', '1300585', '1300588', '1300590', '1300592', '1300647', '1300954', '1301146', '1301160', '1301194', '1301238', '1301266', '1301268', '1301274', '1301332', '1301337', '1301402', '1301429', '1301439', '1301455', '1301506', '1301512', '1301588', '1301598', '1301748', '1301834', '1301897', '1301939', '1302078', '1302237', '1302262', '1302317', '1302357', '1302418', '1302446', '1302573', '1302668', '1302797', '1302935', '1303001', '1303002', '1303060', '1303073', '1303074', '1303241', '1303250', '1303253', '1303254', '1303263', '1303266', '1303276', '1303280', '1303283', '1303284', '1303448', '1303488', '1303493', '1303496', '1303500', '1303539', '1303650', '1303758', '1303818', '1303996', '1303998', '1304021', '1304044', '1304047', '1304191', '1304212', '1304215', '1304264', '1304450', '1304461', '1304464', '1304467', '1304493', '1304509', '1304603', '1304617', '1304637', '1304655', '1304721', '1304788', '1304794', '1304815', '1304837', '1304841', '1304847', '1304848', '1304914', '1304959', '1305108', '1305136', '1305170', '1305260', '1305334', '1305358', '1305360', '1305363', '1305400', '1305401', '1305413', '1305415', '1305416', '1305417', '1305421', '1305422', '1305424', '1305623', '1305663', '1305773', '1305852', '1305891', '1305923', '1305971', '1306078', '1306206', '1306246', '1306247', '1306253', '1306340', '1306416', '1306559', '1306564', '1306584', '1306627', '1306648', '1306701', '1306752', '1306766', '1306846', '1306849', '1306852', '1306858', '1306885', '1306894', '1306901', '1306907', '1306911', '1306914', '1306923', '1306927', '1306932', '1306950', '1306994', '1306998', '1307005', '1307007', '1307012', '1307014', '1307026', '1307064', '1307067', '1307074', '1307082', '1307095', '1307138', '1307140', '1307146', '1307147', '1307148', '1307149', '1307182', '1307198', '1307199', '1307203', '1307214', '1307217', '1307240', '1307244', '1307321', '1307324', '1307354', '1307383', '1307491', '1307598', '1307602', '1307664', '1307672', '1307678', '1307742', '1307749', '1307753', '1307754', '1307755', '1307760', '1307766', '1307768', '1307769', '1307770', '1307779', '1307780', '1307781', '1307792', '1307798', '1307823', '1307830', '1307833', '1307857', '1307862', '1307876', '1307921', '1307942', '1307977', '1308023', '1308030', '1308032', '1308038', '1308041', '1308043', '1308044', '1308058', '1308060', '1308067', '1308074', '1308075', '1308084', '1308085', '1308086', '1308089', '1308090', '1308109', '1308116', '1308196', '1308198', '1308239', '1308244', '1308300', '1308301', '1308336', '1308402', '1308414', '1308416', '1308427', '1308429', '1308493', '1308494', '1308507', '1308528', '1308539', '1308555', '1308607', '1308624', '1308628', '1308671', '1308711', '1308733', '1308741', '1308748', '1308762', '1308775', '1308787', '1308799', '1308801', '1308805', '1308862', '1308869', '1308926', '1308948', '1308950', '1308954', '1308977', '1308997', '1309055', '1309101', '1309131', '1309132', '1309140', '1309146', '1309180', '1309184', '1309186', '1309209', '1309219', '1309292', '1309352', '1309361', '1309373', '1309380', '1309381', '1309383', '1309394', '1309396', '1309399', '1309416', '1309417', '1309419', '1309424', '1309480', '1309481', '1309494', '1309495', '1309501', '1309509', '1309514', '1309516', '1309520', '1309521', '1309527', '1309530', '1309538', '1309600', '1309630', '1309631', '1309642', '1309681', '1309773', '1309805', '1309810', '1309923', '1310007', '1310062', '1310077', '1310083', '1310206', '1310209', '1310237', '1310247', '1310250', '1310334', '1310390', '1310481', '1310512', '1310520', '1310533', '1310536', '1310556', '1310610', '1310654', '1310659', '1310664', '1310675', '1310920', '1310921', '1310985', '1311030', '1311038', '1311106', '1311133', '1311175', '1311244', '1311272', '1311280', '1311356', '1311359', '1311366', '1311409', '1311412', '1311414', '1311425', '1311432', '1311442', '1311449', '1311473', '1311518', '1311536', '1311548', '1311550', '1311554', '1311559', '1311580', '1311591', '1311593', '1311611', '1311652', '1311675', '1311833', '1311842', '1311905', '1311965', '1311968', '1311995', '1312001', '1312066', '1312076', '1312102', '1312164', '1312169', '1312212', '1312300', '1312311', '1312441', '1312478', '1312482', '1312503', '1312514', '1312652', '1312681', '1312704', '1312803', '1312811', '1312814', '1312835', '1312882', '1312883', '1312946', '1312947', '1312997', '1313002', '1313012', '1313125', '1313171', '1313174', '1313304', '1313318', '1313385', '1313387', '1313391', '1313430', '1313432', '1313453', '1313468', '1313489', '1313556', '1313582', '1313610', '1313671', '1313693', '1313710', '1313718', '1313917', '1314017', '1314165', '1314177', '1314181', '1314272', '1314287', '1314288', '1314291', '1314292', '1314364', '1314451', '1314461', '1314543', '1314546', '1314560', '1314731', '1314844', '1314948', '1314956', '1314997', '1315067', '1315187', '1315190', '1315191', '1315303', '1315311', '1315313', '1315401', '1315407', '1315495', '1315498', '1315679', '1315690', '1315814', '1315932', '1315940', '1315980', '1315999', '1316015', '1316073', '1316092', '1316094', '1316186', '1316194', '1316197', '1316199', '1316202', '1316210', '1316211', '1316214', '1316216', '1316313', '1316475', '1316477', '1316503', '1316655', '1316659', '1316875', '1316902', '1316935', '1316965', '1316978', '1316984', '1316996', '1317015', '1317077', '1317256', '1317257', '1317397', '1317463', '1317527', '1317561', '1317565', '1317569', '1317572', '1317576', '1317605', '1317619', '1317622', '1317724', '1317797', '1317820', '1317831', '1317869', '1317873', '1318144', '1318165', '1318180', '1318185', '1318206', '1318238', '1318243', '1318403', '1318519', '1318679', '1318682', '1318761', '1318770', '1318812', '1318828', '1318864', '1318926', '1318929', '1318937', '1318947', '1319040', '1319043', '1319046', '1319048', '1319375', '1319899', '1319961', '1320055', '1320364', '1320383', '1320429', '1320436', '1320446', '1320556', '1320749', '1320852', '1321304', '1321305', '1321307', '1321309', '1321314', '1321352', '1321562', '1321696', '1321706', '1321887', '1321890', '1322076', '1322083', '1322093', '1322232', '1322234', '1322269', '1322407', '1322510', '1322523', '1322529', '1322560', '1322599', '1322650', '1322811', '1322814', '1322938', '1323097', '1323101', '1323207', '1323214', '1323233', '1323387', '1323394', '1323412', '1323461', '1323632', '1323645', '1324064', '1324073', '1324379', '1324400', '1324404', '1324410', '1324456', '1324565', '1324600', '1324646', '1324814', '1324817', '1324836', '1324838', '1324944', '1324951', '1324982', '1325048', '1325207', '1325362', '1325365', '1325461', '1325491', '1325542', '1325815', '1325846', '1325927', '1325945', '1325994', '1326021', '1326054', '1326073', '1326121', '1326257', '1326333', '1326335', '1326381', '1326527', '1326673', '1326754', '1326756', '1326761', '1326766', '1326817', '1326954', '1326957', '1326961', '1327159', '1327202', '1327233', '1327234', '1327311', '1327321', '1327324', '1327338', '1327354', '1327420', '1327578', '1327652', '1327837', '1327840', '1327841', '1327864', '1327912', '1327951', '1327988', '1328129', '1328142', '1328147', '1328152', '1328192', '1328362', '1328380', '1328664', '1328698', '1328870', '1328938', '1328942', '1329090', '1329098', '1329121', '1329178', '1329216', '1329219', '1329318', '1329380', '1329389', '1329432', '1329435', '1329451', '1329496', '1329515', '1329636', '1329732', '1329791', '1329794', '1329797', '1330002', '1330012', '1330015', '1330017', '1330022', '1330043', '1330219', '1330221', '1330226', '1330228', '1330230', '1330562', '1330652', '1330686', '1330965', '1331066', '1331069', '1331113', '1331124', '1331189', '1331213', '1331350', '1331483', '1331489', '1331495', '1331499', '1331591', '1331818', '1331965', '1332337', '1332424', '1332476', '1332559', '1332749', '1332754', '1332945', '1332989', '1333055', '1333077', '1333104', '1333105', '1333426', '1333430', '1333522', '1333523', '1333549', '1333595', '1333597', '1333684', '1333689', '1333872', '1333886', '1333949', '1334078', '1334184', '1334347', '1334494', '1334596', '1334702', '1334720', '1334738', '1334751', '1334758', '1334762', '1334879', '1334926', '1335240', '1335246', '1335308', '1335569', '1335613', '1335673', '1335676', '1335680', '1335712', '1335798', '1335883', '1335922', '1335970', '1335997', '1336048', '1336072', '1336110', '1336149', '1336156', '1336215', '1336254', '1336261', '1336265', '1336359', '1336495', '1336498', '1336500', '1336553', '1336621', '1336715', '1336721', '1336738', '1336746', '1336749', '1336826', '1336850', '1336905', '1337025', '1337028', '1337069', '1337219', '1337239', '1337330', '1337413', '1337583', '1337675', '1337716', '1337808', '1337817', '1337918', '1338108', '1338128', '1338145', '1338146', '1338161', '1338166', '1338221', '1338229', '1338230', '1338307', '1338341', '1338390', '1338431', '1338511', '1338558', '1338629', '1338761', '1338862', '1338886', '1338893', '1338938', '1339063', '1339124', '1339155', '1339160', '1339192', '1339321', '1339352', '1339362', '1339449', '1339455', '1339550', '1339657', '1339661', '1339734', '1339750', '1339766', '1339779', '1339819', '1339915', '1340016', '1340020', '1340062', '1340065', '1340080', '1340112', '1340151', '1340170', '1340171', '1340223', '1340248', '1340273', '1340299', '1340400', '1340402', '1340403', '1340405', '1340406', '1340410', '1340414', '1340420', '1340421', '1340423', '1340424', '1340426', '1340427', '1340428', '1340429', '1340430', '1340433', '1340435', '1340438', '1340440', '1340441', '1340442', '1340443', '1340444', '1340447', '1340451', '1340455', '1340457', '1340459', '1340460', '1340461', '1340464', '1340465', '1340470', '1340472', '1340473', '1340475', '1340483', '1340494', '1340501', '1340510', '1340521', '1340525', '1340527', '1340529', '1340531', '1340535', '1340536', '1340537', '1340538', '1340540', '1340542', '1340543', '1340554', '1340560', '1340562', '1340573', '1340594', '1340634', '1340635', '1340636', '1340637', '1340638', '1340711', '1340734', '1340737', '1340738', '1340739', '1340740', '1340759', '1340846', '1340860', '1340869', '1340880', '1340913', '1340946', '1341051', '1341054', '1341058', '1341161', '1341174', '1341183', '1341190', '1341191', '1341356', '1341360', '1341362', '1341417', '1341427', '1341458', '1341481', '1341499', '1341615', '1341630', '1341641', '1341697', '1341717', '1341718', '1341719', '1341721', '1341723', '1341724', '1341726', '1341727', '1341728', '1341729', '1341730', '1341731', '1341733', '1341736', '1341741', '1341744', '1341745', '1341749', '1341751', '1341755', '1341758', '1341777', '1341833', '1341834', '1341835', '1341836', '1341837', '1341840', '1341841', '1341844', '1341847', '1341848', '1341850', '1341851', '1341852', '1341853', '1341863', '1341877', '1341879', '1341880', '1341929', '1341973', '1342020', '1342023', '1342065', '1342111', '1342141', '1342151', '1342153', '1342154', '1342156', '1342172', '1342175', '1342268', '1342285', '1342346', '1342347', '1342380', '1342456', '1342460', '1342473', '1342474', '1342475', '1342483', '1342491', '1342527', '1342554', '1342654', '1342685', '1342708', '1342882', '1342901', '1343009', '1343010', '1343039', '1343059', '1343113', '1343122', '1343184', '1343190', '1343200', '1343206', '1343216', '1343217', '1343219', '1343234', '1343239', '1343241', '1343276', '1343361', '1343390', '1343405', '1343406', '1343407', '1343408', '1343410', '1343412', '1343416', '1343417', '1343418', '1343419', '1343444', '1343446', '1343447', '1343449', '1343450', '1343509', '1343526', '1343590', '1343655', '1343733', '1343736', '1343768', '1343927', '1344018', '1344113', '1344141', '1344165', '1344335', '1344360', '1344361', '1344415', '1344543', '1344547', '1344629', '1344633', '1344719', '1344752', '1344753', '1344785', '1344862', '1344890', '1344902', '1344930', '1345033', '1345065', '1345098', '1345141', '1345147', '1345248', '1345257', '1345273', '1345358', '1345364', '1345371', '1345440', '1345551', '1345587', '1345588', '1345628', '1345748', '1345760', '1345785', '1345787', '1345789', '1345808', '1345855', '1345972', '1345973', '1345976', '1345985', '1346101', '1346191', '1346198', '1346205', '1346263', '1346350', '1346354', '1346465', '1346475', '1346555', '1346600', '1346624', '1346666', '1346674', '1346694', '1346709', '1346763', '1346768', '1346815', '1346831', '1346908', '1346969', '1346980', '1347038', '1347081', '1347096', '1347234', '1347311', '1347362', '1347417', '1347424', '1347533', '1347606', '1347613', '1347680', '1347695', '1347703', '1347704', '1347765', '1347803', '1347821', '1347866', '1347999', '1348015', '1348154', '1348158', '1348169', '1348182', '1348225', '1348291', '1348384', '1348561', '1348674', '1349146', '1349256', '1349363', '1349456', '1349479', '1349535', '1349589', '1349674', '1349686', '1349725', '1349734', '1350187', '1350189', '1350734', '1350802', '1350909', '1350954', '1350964', '1351016', '1351154', '1351193', '1351506', '1351551', '1351566', '1351592', '1351713', '1351752', '1351801', '1351820', '1351941', '1352011', '1352033', '1352066', '1352092', '1352216', '1352256', '1352259', '1352490', '1352517', '1352629', '1352638', '1352669', '1352705', '1352761', '1352767', '1352785', '1352867', '1352927', '1353005', '1353006', '1353056', '1353205', '1353210', '1353443', '1353446', '1353634', '1353649', '1353672', '1353773', '1353775', '1353783', '1353832', '1353882', '1353884', '1353886', '1353891', '1354061', '1354184', '1354187', '1354421', '1354455', '1354466', '1354471', '1354514', '1354572', '1354624', '1354649', '1354653', '1354695', '1354734', '1354884', '1354914', '1354943', '1355178', '1355218', '1355640', '1355654', '1355660', '1356102', '1356165', '1356376', '1356518', '1356833', '1357144', '1357150', '1357221', '1357345', '1357351', '1357461', '1357554', '1357642', '1357808', '1357842', '1357990', '1358010', '1358011', '1358199', '1358201', '1358372', '1358499', '1358636', '1358658', '1358750', '1358825', '1358923', '1358967', '1359063', '1359202', '1359206', '1359275', '1359339', '1359388', '1359429', '1359504', '1359550', '1359717', '1359764', '1359773', '1359864', '1359932', '1360098', '1360108', '1360158', '1360290', '1360397', '1360402', '1360420', '1360423', '1360460', '1360467', '1360566', '1360667', '1360681', '1360691', '1360738', '1360742', '1360745', '1360856', '1360928', '1361059', '1361121', '1361188', '1361295', '1361459', '1361562', '800016', '800055', '800057', '800156', '800284', '800315', '800405', '800408', '800430', '833556', '837932', '854899', '888898', '898335', '898340', '898591', '898615', '898657', '898658', '898665', '898873', '899192', '899520', '899690', '899789', '899790', '899791', '899792', '89</t>
         </is>
@@ -623,11 +645,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>116</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>72544</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>2518</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t xml:space="preserve">['# 1 GNQ WIRELESS INC.', '08 COMPUTER SERVICES INC', '0ENA, RAMIL B', '1 STAR WIRELESS CORP.', '1 STOP CAMERA &amp; ELECTRONIC CORP.', '103 DJ ELECTRONICS &amp; CAMERAS INC.', '104 WIRELESS INC', '110 TECHNOLOGIES INC.', '116 WIRELESS INC', '12 VOLT DOCTOR, INC', '123 COMMUNICATION INC.', '123 WIRELESS INC.', '1398 WIRELESS INC.', '13TH AVE WIRELESS INC.', '14 E MOUNT EDEN, INC.', '1404 WIRELESS CORP', '1413 WIRELESS INC', '1464 MYRTLE AVENUE MULTI SERVIVCE CORP.', '14TH STREET DIGITAL CORP.', '14TH STREET MOBILITY CORP', '14TH STREET TELECOM CORP.', '1547 BERGEN STREET LLC.', '1552 GIFTS CORP', '162 J &amp; J, INC', '165 WIRELESS INC', '1657 ELECTRONICS CORP', '167 COMPUTER CENTER CORP', '167 ST. CORP.', '1759 WORLDWIDE ELECTRONICS CORP', '17TH STREET PHOTO SUPPL INC', '18 CONSUMER ELECTRONICS &amp; PHOTO CORP', '188 WIRELESS INC', '188 WIRELESS INC.', '18TH AVE ELECTRONICS INC', '18TH AVE WIRELESS INC', '18TH AVE. WIRELESS INC', '18TH AVE. WIRELESS INC.', '18TH AVENUE BEEPERS, INC', '1987 ELECTRONICS INC', '1STOPTOSHOP.COM INC', '20/20 WIRELESS INC.', '21 STREET CELLULAR INC', '210 FAT ALBERT WAREHOUSE, INC.', '212 MOTORING NY, INC', '22ND CENTURY WIRELESS PLUS INC.', '230 WIRELESS INC.', '2918 XTREME WIRELESS INC.', '3-G NETWORK INC.', '315 DISCOUNT UNLIMITED INC.', '321 WIRELESS INC', '324 WIRELESS CORP', '32ND ST ELECTRONICS &amp; JEWELRY OUTLET INC', '32ND STREET WIRELESS, INC.', '33 STREET CAMERA LLC', '3407 JEROME CELLULAR TECH INC.', '34TH STREET WIRELESS, INC.', '36 WIRELESS ONE, LLC', '3621 HOUSE DEPOT, INC.', '36TH ENTERTAINMENT INC', '3703 WOW INC', '378 5TH PHOTO CORP.', '378 ELECTRONICS, INC', '38TH STREET WIRELESS, LTD', '396 WIRELESS CORP.', '396 WIRELESS INC.', '3E ENTERPRISE LLC', '3G INTERNATIONAL WIRELESS, INC.', '3H COMMUNICATIONS OF NEW YORK INC', '404 JAY STREET INC.', '45TH ST CAMERA AND LAPTOP CORP.', '4WIRES.COM INC.', '5 STAR PAGING &amp; JEWELRY LTD', '50TH STREET CAMERA, INC', '51 COMPUTERS LLC', '54 COMPUTER &amp; CAMERAS INC', '563 WIRELESS INC', '5724 WIRELESS INC.', '5A ENTERPRISES INC.', '7 CIRCLE GAMES INC.', '7 SKY COMMUNICATIONS INC', '7 STAR WIRELESS INC.', '701KMH INC', '717 GIFTS LLC', '718 WIRELESS INC', '74 WIRELESS INC.', '76 UNLIMITED WIRELESS_INC', '784 BROTHER STAR CORP', '786 WIRELESS WORLD INC', '79-19 RPM GRAN TURISMO CORP.', '790 EAST TREMONT AVENUE CORP', '79TH STREET ELECTRONICS INC', '7TH AVE COMPUTERS &amp; GIFTS INC', '7TH AVE ELECTRONICS &amp; LUGGAGE, INC.', '82 ELECTRONICS INC.', '82ND STREET ELECTRONICS INC', '86 WIRELESS INC', '8620 4TH AVE INC.', '88 COMMUNICATION INC.', '8TH AVE MINI MALL', '942 BROADWAY WIRELESS INC', '944 FLATBUSH AVENUE, LLC', '97A W FORDHAM RD INC', 'A &amp; E WIRELESS INC', 'A &amp; M BEST WIRELESS LLC', 'A &amp; M LLC', 'A &amp; M PHOTO WORLD LLC', 'A &amp; S DIGITAL WIRELESS INC.', 'A &amp; T MOBILE INC', 'A &amp; Z RETAILERS INC', 'A A RELIABLE TV SERVICE INC', 'A D R ELECTRONICS CENTER, INC', 'A FAMILY TEAM CORP', 'A H WIRELESS SERVICES INC', 'A I Y WIRELESS INC', 'A PLUS CAR STEREO AND ALARM, INC.', 'A TO Z AUTO SOUND CORP', 'A TO Z WIRELESS INC.', 'A&amp;S PHOTO INC', 'A.B.C. CAMERA INC', 'A3 WIRELESS INC', 'AA WIRELESS OF NY I CORP', 'AA WIRELESS OF NY I CORP.', 'AAP WIRELESS, CORP.', 'AARON, SHERWIN O', 'AB SYSTEM TECHNOLOGIES, INC.', 'ABC SATELLITE, INC', 'ABC WIRELESS NY, INC.', 'ABC WIRELLESS CENTER INC.', 'ABDELMALEK ELOUAZRI', "ABE'S RADIO INC", 'ABISSE, AMMR S.', 'ABSOLUTE COMMUNICATIONS GROUP LLC', 'AC &amp; JP COMMUNICATION CORP.', 'ACTEL WIRELESS, INC', 'ACTIVE ATOM, INC', 'AD WIRELESS INC.', 'ADAGIO NY, INC.', 'ADCOMP SYSTEMS INC', "ADELINA'S SERVICES, INC.", 'ADORAMA INC', 'ADT ENTERPRISES INC', 'ADVANCE SOLUTIONS OF NEW YORK INC.', 'ADVANCED COMMUNICATION SOLUTIONS, INC.', 'ADVANCED COMPUTER EXPERT INC.', 'ADVANCED SOLUTIONS GROUP INC', 'ADVANCED SOLUTIONS GROUP, INC', 'ADVANCED SURVEILLANCE DEVICES, INC.', 'AFZAL TRADING CORPORATION', 'AHMED, TANWEER', 'AIR LINK NY LLC', 'AIRTEL,  LLC', 'AJ GLOBAL SERVICES, INC', 'AJ WIRELESS &amp; MORE INC', "AJ'S ELECTRONICS INC", 'AKHTAR, WASEEM', "AL'S WIRELESS COMMUNICATIONS L.P", 'ALBERT WAREHOUSE &amp; SONS INC', 'ALBERTO ENVIO CORP', 'ALBERTO WIRELESS CORP.', 'ALEX MUSICAL INSTRUMENTS INC', 'ALFENET CONSULTING, INC', 'ALHASSANE, TOURE', 'ALI K MUTHANNA, SAID KASSIM &amp; AHMED ALAAKOORI', 'ALKAIFI, ANWAR M.', 'ALL BORO AUTO SOUND &amp; SECURITY, INC', 'ALL BROOKLYN AUTO SOUND &amp; SECURITY CORP.', 'ALL CELL WIRELESS INC', 'ALL CELLULAR NY LLC', 'ALL MOBILE INNOVATION CORP.', 'ALL NATIONS OFFICE MACHINES &amp; SUPPLIES INC', 'ALL NEW ELECTRONICS CORP.', 'ALL PAGE INC', 'ALL RANGE BEEPERS INC', 'ALLERTON CELLULAR, INC.', 'ALLSTAR 212 CORP', 'ALLWIRELESSUSA, INC', 'ALMIR RUDANOVIC', 'ALMONTE, RAMON B', 'ALONSO, RUBEN', 'ALPINE SOUND CORP', 'ALVARADO, ARIS L &amp; RODRIGUEZ, JUAN', 'ALVARADO, WILFRIDO', 'AM CELLULAR WHOLESALE INC', 'AM WIRELESS SERVICE INC.', 'AMANY, MARIE', 'AMAZING WIRELESS, LLC', 'AMBAR WIRELESS CORP.', 'AMBIORIX AUTO SOUND, INC', 'AMBK INCORPORATED', 'AMBM CORP', 'AMERICAN ADVANCED SYSTEM CORP.', 'AMERICAN COMMUNICATION CONNECTION INC', 'AMERICAN COMPUTER CONSULTANTS, INC.', 'AMERICAN LINSON SYSTEMS INC', 'AMERICAN MOBILE SOLUTIONS INC', 'AMERICAN SOFTWARE CORPORATION', 'AMERICAN TELECOMMUNICATIONS, INC.', 'AMERICOMP TECHNOLOGY, INC.', 'AMERITEL OF KEW GARDENS, INC', "AMIN'S COMMUNICATION CORP", 'AMIRCO INFINITE GROUP LTD', 'AMIT PERFUMES INC.', 'AMLIWALA CORPORATION', 'AMTOL RADIO COMMUNICATION SYSTEMS INC', 'ANDY WIRELESS INC', 'ANKIT WIRELESS INC', 'ANOTHER COMPUTER, INC.', 'ANS DIGITAL INC.', 'APPLE 6 AVE SERVICE CORP.', 'APPLE CAMERA INC', 'APPLE INC.', 'APPLIANCE CLEARANCE CENTER INC', 'APPLIANCE CONNECTION INC', 'APPLIANCE VALUE INC', 'ARECIBO INC', 'ARI A. URE', 'ARI WIRELESS INC.', 'ARIAS, HECTOR B', 'ARJAY TELECOMMUNICATIONS INC', 'ARJAY TELECOMMUNICATIONS, INC.', 'ARJAY WIRELESS, INC. OF PENNSYLVANIA', "ARMATO'S PHOTO SEVICES INC", 'ARZU-COLON, JUSTO', 'ASIAN WIRELESS INC.', 'ASLI SONA APPLIANCES INC', 'ASTORIA SUPER WIRELESS INC.', 'ASTORIA WIRELESS INC.', 'ATI OF 32ND STREET INC', 'ATI OF 32ND STREET INC.', 'ATI OF 32ND STREET, INC', 'ATLANTIC ACCESSORIES INC', 'ATLANTIC GENERAL TELECOMMUNICATIONS, INC.', 'ATLANTIC TELECOMMUNICATIONS CENTER INC.', 'AUDIO DEPOT INC', 'AUDIO INVASION SOUND &amp; SECURITY CORP', 'AUDIO KING INC', 'AUDIO TOWN INC', 'AUDIO VIDEO CENTER, INC', 'AUDIO-VIDEO DISCOUNTS, INC.', 'AUDIOVISION INC', 'AUTO CIRCUIT DOCTOR INC.', 'AUTO FASHION OF ATLANTIC AVENUE, INC.', 'AUTO SOUND &amp; SECURITY CORP', 'AUTO SOUNDS TOYS, INC', 'AUTOMOTIVE AUDIO &amp; ACCESSORIES, INC', 'AV CENTER INC', 'AVENUE U WIRELESS INC', 'AVI MULTISERVICE CORP.', 'AVILES, SANDRA M', 'AVILES, THELMA I', 'AW MOBILE HOLLIS', 'AW MOBILE INC', 'AXXESS WIRELESS INC.', 'AZEEM, SAHIBZADA WAQAR', 'AZURE WIRELESS INC.', 'B &amp; G CONNECTION INC.', 'B &amp; H TELECOMMUNICATIONS, INC', 'B &amp; H WIRELESS COMMUNICATION, INC', 'B &amp; R PHOTO &amp; WIRELESS INC', 'B H F, INC', 'B L MOBIL CORP', 'B R WIRELESS INC.', 'B T ELECTRONIC INC', 'B&amp;H FOTO &amp; ELECTRONIC CORP', "B'H WIRELESS OF N Y CORP", 'B-Z WIRELESS INC', 'B. ANRURAL MULTI-SERVICE, INC.', 'B.A.W. LLC', 'B.M. &amp; SONS, INC.', 'BA WIRELESS CORP', 'BA WIRELESS2 CORP', 'BABOUCARR, NDOW', 'BAE, SAMUEL', 'BAHLEEM ENTERPRISES INC', 'BAKARA COMMUNICATIONS, LLC', 'BALI WIRELESS, INC.', 'BANG &amp; OLUFSEN RETAIL EAST LLC', 'BANG &amp; OLUFSEN RETAIL EAST, LLC', 'BASH WIRELESS CORP.', 'BASIC SELL INC.', 'BASS LINE DESIGN CORP.', 'BAUTISTA, JORGE G.', "BAY PARKWAY BEEPER'S INC.", 'BAY PLAZA PHONES INC', 'BAY RIDGE WIRELESS CORP', 'BAYSIDE BEEPER &amp; CELLULAR INC', 'BC WIRELESS INC', 'BDF APPLIANCES INC', 'BEDFORD EXPEDITING SERVICES INC', 'BEEP 2000 OF AMERICA INC', 'BEEP 2000 OF JAY STREET, INC.', 'BEEPER WORLD 2000/TMC, INC', 'BEKITAL JEWELRY INC.', 'BELL NATION CORP.', 'BELL WIRELESS INC', 'BENGAL DISCOUNT STORE, INC', 'BENSON MOBILE INC', 'BENSON MOBILE INC.', 'BENSONHURST AUTO SOUND &amp; SECURITY INC', 'BERGER, VADIM', 'BEST BUSINESS GROUP INC', 'BEST BUSINESS GROUP, INC.', 'BEST BUY AUTOMOTIVE, INC', 'BEST BUY CO, INC.', 'BEST BUY MOBILE', 'BEST BUY MOBILE #1907', 'BEST BUY STORES LP', 'BEST BUY STORES, L.P', 'BEST BUY STORES, L.P.', 'BEST BUY STORES, LP', 'BEST CHOICE COMMUNICATION INC', 'BEST CONNECTIONS INC', 'BEST CONNECTIONS, INC', 'BEST HOUSEKEEPING INDUSTRIES INC', 'BEST KING OF FORDHAM CORP.', 'BEST MOBILE EIGHT INC', 'BEST MOBILE FIVE INC', 'BEST MOBILE FOUR INC', 'BEST MOBILE ONE INC', 'BEST MOBILE SEVEN INC', 'BEST MOBILE SIX INC.', 'BEST MOBILE TWO INC', 'BEST MOBILE WIRELESS CORP.', 'BEST SOUND &amp; SECURITY INC', 'BEST STOP 1ST WIRELESS, INC', 'BEST STOP MOBILE INC', 'BEST VALUE OF 14TH STREET INC', 'BEST VALUE WIRELESS, INC', 'BEST WHOLESALE WIRELESS INC', 'BEST WIRELESS IN USA CORP', 'BESTEK TECHNOLOGY INC', 'BESTRIDE TRADING INC.', 'BETANCES, LUIS M', 'BEVERLEY COMPUTERS INC.', 'BEWAYS JEWELRY AND GAMES CORP', 'BEYOND CELLULAR INC', 'BGPS SPY SHOP CORP.', 'BH MOBILE UNLIMITED INC', 'BHATIA DISCOUNT STORE INC', 'BHI WIRELESS INC', 'BHI WORLD ELECTRONICS INC', 'BHS COMMUNICATIONS, INC', 'BIG APPLE PERFUME INC', 'BIG MAN CELLULAR, INC', 'BIG Y ALARM &amp; SECURITY, INC', 'BIGPCDEALS, INC.', 'BILLION CITY, INC', 'BK WIRELESS, INC', 'BLUE SEAGULL, INC', 'BLUE SKY INC', 'BLUETECH INC', 'BLUETECH INC.', 'BM OF FLATBUSH INC.', 'BM OF FORDHAM INC', 'BM OF KNICKERBOCKER INC.', 'BMM SALES INC', 'BNH MOBILE INC', 'BOBELL CO. DIVISION OF MARCAND INC.', 'BOLD WIRELESS INC', "BONANZA'S BARGAINS INC.", 'BOOST MOBILE OF BURNSIDE INC', 'BOOST WIRELESS INC', 'BOROUGH PARK COMPUTER CENTER CORP', 'BOSTON AUTO SOUND AND DESIGN INC', 'BR WIRELESS 972, INC.', 'BRAZIL GIFT CORPORATION', 'BRIGHTON CELLULAR TECH INC.', 'BROADWAY 231 WIRELESS, INC.', 'BROADWAY BROOKLYN PROMOTIONS INC', 'BROADWAY DEALS &amp; ELECTRONICS, INC', 'BROADWAY GIFTS &amp; ART INC.', 'BROADWAY HOME IMPROVEMENT AND MANAGEMENT SERVICES', 'BROADWAY METRO WIRELESS,INC.', 'BROADWAY NYC WIRELESS INC', 'BROADWAY WIRELESS &amp; ELECTRONICS CORP', 'BROADWAY WIRELESS &amp; GAMES INC', 'BROADWAY WIRELESS CENTER CORP', 'BROADWAY WIRELESS CONNECTIONS INC', 'BRONCOLANE INC.', 'BRONX 3RD AVENUE GAME EXPRESS INC', 'BRONX AUDIO INC.', 'BRONX CELLULAR ELECTRONIC, INC.', 'BRONX LIVERY LEASING INC', 'BRONX METRO WIRELESS INC', 'BROOKLYN AIR CELL INC', 'BROOKLYN APPLIANCE INC.', 'BROOKLYN AUTO GLASS INC.', 'BROOKLYN BELL COMMUNICATIONS, INC.', 'BROTHERS APPLIANCE INC', 'BROWN, GLORIA M.', 'BRUNO, MAXIMO S.', 'BRUNO, SONY', 'BURKE WIRELESS &amp; ELECTRONIC GARDEN INC', 'BURKE WIRELESS &amp; ELECTRONIC GARDEN INC.', 'BURNSIDE CONVENIENCE AND MORE INC.', 'BURNSIDE METRO WIRELESS INC', 'BURNSIDE PHONES INC.', 'BUSINESS NETWORKING SOLUTIONS INC', 'BUSINESS ONE WIRELESS INC.', 'BUZZ ELECTRONICS INC', 'BX GAMESTATION INC', 'BX67, INC.', 'BYTE CITY COMPUTER INC.', 'C &amp; C COMMUNICATIONS LLC', 'C &amp; I APPLIANCES CORP', 'C C &amp; TR INC.', 'C E WHOLESALE EXPRESS INC', 'C J  ELECTRONICS INC', 'C J INTERNATIONAL GROUP INC.', 'C MOBILE OF NY INC', 'C-IDEA COMM, INC', 'C-RISE USA INC', 'C.E. WHOLESALE EXPRESS INC', 'C.E. WHOLESALE EXPRESS INC.', 'C.L.M. AUTO LAB INC', 'C3NY1 CORP.', 'CABRERA, HILDA', 'CACHO HOME CENTER INC.', 'CAESAR AUTO REPAIR, CORP.', 'CALDERON, LUIS F', 'CALDERON, MARIA C.', 'CALL ME WIRELESS, INC.', 'CALUMET PHOTOGRAPHIC INC', 'CAMERA LAND INC', 'CAMWEIS INC.', 'CANAL &amp; BROADWAY GENERAL MERCHANDISES, CORP', 'CANAL AUDIO LTD', 'CANAL ELECTRONIC ART, INC.', 'CANAL GENERAL MERCHANDISE INC', 'CANAL HI-FI INC', 'CANAL MUSIC AUDIO, INC.', 'CANNON ENTERPRISES &amp; ASSOCIATES INC', 'CAPELLAN, LESLIE A', 'CAPITAL AUDIO AND ELECTRONIC INC', 'CAPRICON ENTERPRISES INC.', 'CARLOS G. ALBARRACIN', 'CARLOS M SUERO', 'CARNEGIE DIGITAL COMPUTERS LLC', 'CARPENTER TAN, INC.', 'CARRASCO, JUAN M', 'CASTELLANO, NELSON R', 'CASTILLO, WILLIAM', 'CEL TEL INC.', 'CEL-NET COMMUNICATIONS, INC', 'CEL-NET COMMUNICATIONS, INC.', 'CELL &amp; GAME ETC II INC.', 'CELL &amp; GAME ETC, INC', 'CELL 2000 LIBERTY LLC', 'CELL AND CELLULAR INC', 'CELL AND CELLULAR INC.', 'CELL BELL USA, INC', 'CELL CITY COMMUNICATION, INC', 'CELL CITY OF EAST HARLEM INC', 'CELL CITY OF HARLEM INC.', 'CELL CITY, INC.', 'CELL DEPOT INC', 'CELL DOCTOR CORP', 'CELL NATION  OF JAMAICA 2 INC', 'CELL NATION AT 112 INC', 'CELL NATION INC', 'CELL NATION OF FAR ROCKAWAY INC.', 'CELL NATION OF GOTHAM INC', 'CELL NATION OF JAMAICA INC.', 'CELL NATION OF LIC INC', 'CELL NATION OF PARSON BLVD INC', 'CELL NATION OF RICHMOND HILL INC.', 'CELL NATION OF ROCKAWAY INC.', 'CELL NATION OF STEINWAY INC.', 'CELL NATION OF SUTPHIN BLVD INC.', 'CELL NATION PCS III INC', 'CELL NATION Q111 INC.', 'CELL NY WIRELESS,  INC.', 'CELL PHONE ON ISLAND INC', 'CELL PHONE SPOT LTD', 'CELL PRO CORP I', 'CELL TECH COMMUINCAIONS, INC.', 'CELL TECHNOLOGY OF ROSEDALE INC.', 'CELL TELL OF 86TH STREET INC.', 'CELL TIME CORP', 'CELL XPRESS 2009 INC.', 'CELL ZONE INC.', 'CELL ZONE OF NEW YORK CITY INC.', 'CELL-2000, INC', 'CELL-TRAL WIRELESS, INC.', 'CELL2000.US INC.', 'CELLCO PARTNERSHIP', 'CELLFONZ R US OF BAYSIDE, INC', 'CELLMAX WIRELESS INC.', 'CELLNATION OF FLUSHING WIRELESS INC', 'CELLNATION OF FLUSHING WIRELESS, INC', 'CELLNATION OF FLUSHING WIRELESS, INC.', 'CELLNATION OF FLUSHNING WIRELESS, INC.', 'CELLOUTIONS COMMUNICATIONS, LTD.', 'CELLSTOPWIRELESS CORP', 'CELLULAR 21 INC', 'CELLULAR ARENA II INC', 'CELLULAR ARENA INC.', 'CELLULAR CLARO CORP', 'CELLULAR COMMUNICATIONS OF NY INC', 'CELLULAR CONSULTANTS OF NASSAU ST. INC', 'CELLULAR DISCOUNT STORE INC.', 'CELLULAR EXPRESS STORES, INC.', 'CELLULAR JUNCCTION CORPORATION', 'CELLULAR NATION AT WOODSIDE INC.', 'CELLULAR OF NEW YORK CITY INC', 'CELLULAR PHONES DIRECT INC', 'CELLULAR PLUS ON ROOSEVELT INC', 'CELLULAR PLUS WIRELESS INC', 'CELLULAR RETAIL', 'CELLULAR RETAIL LLC', 'CELLULAR RETAIL, LLC', 'CELLULAR RETAIL, LLC.', 'CELLULAR SHOP INC', 'CELLULAR SHOP WIRELESS I, INC.', 'CELLULAR WITHUS, INC.', 'CELLULAR WORLD &amp; BEEPERS, INC', 'CELLZ-R US OF NEW YORK CORP', 'CERTIFIED ALARM DISTRIBUTORS, INC', 'CEX 14TH STREET NYC LLC', 'CEX ASTORIA LLC', 'CEX BROADWAY, LLC', 'CEX EIGHTH AVENUE NYC LLC', 'CEX WALL STREET, LLC', 'CHAMPION CAR &amp; LIMO SVC. INC.', 'CHAMPION MULTISERVICES INC', 'CHAMPION WIRELESS BEDFORD CORP.', 'CHAN, JUT MAN', 'CHANDER, JAGDISH', 'CHARKARY, NAJAT', 'CHAUDHRY, SHAUKAT', 'CHAVEZ, PATRICIA', 'CHELSEA PCS CORP.', 'CHERRY, PHILLIP', 'CHINATOWN COMMUNICATION INC.', 'CHINATOWN HI TECH INC.', 'CHINATOWN TV INC.', "CHLOE'S VIDEOS &amp; MORE, INC.", 'CHOI, JOO, SEOK', 'CHOICE PORTABLES INC.', 'CHONG, CHONG H', 'CHORONG COMPUTER &amp; GAME CORP.', 'CHUANG WEI TECHNOLOGY LLC', 'CHURCH LINE CORP', 'CIGUENA MULTISERVICES CORP.', 'CIPRIAN, SILVIO RAMON', 'CIRCLE TWO, INC', 'CIRCUIT CITY STORES INC', 'CIRCUIT CITY STORES, INC', 'CIRCUIT CITY STORES, INC.', 'CITI CELL, &amp; APPLIANCE INC.', 'CITY AUDIO INC', 'CITY CAMERA II INC.', 'CITY CHOICE WIRELESS 1 INC.', 'CITY CHOICE WIRELESS 2 INC.', 'CITY STORES INC', 'CITY WIRELESS INC.', 'CITYGEAR WIRELESS INC.', 'CITYGEAR WIRELESS, INC', 'CITYGEAR WIRELESS, INC.', 'COKE, DENNIS', 'COLON, LEONARD', 'COM PLUS ALPHA INC', 'COMBINATION WIRELESS CORP.', 'COMMERCIAL KIMAX INC', 'COMMUNICATION TO THE MAX INC', 'COMOSPHONIC SOUND, INC.', 'COMP DIRECT INC', 'COMP-U-PHOTO INC.', 'COMPACT COMPUTER SYSTEMS, INC.', 'COMPU-NET SOLUTION, INC', 'COMPUCELL 303 INC', 'COMPUCELL INC', 'COMPUCELL V, INC', 'COMPUNET ADVANCE CORPORATION', 'COMPUSETTINGS, INC.', 'COMPUSTAR AVE U INC.', 'COMPUTER &amp; PARTS UNLIMITED INC.', 'COMPUTER ADD-ONS, INC', 'COMPUTER CAMERA INC', 'COMPUTER IS GOOD, INC.', 'COMPUTER OUTLET AND TECH SOLUTIONS CORP', 'COMPUTER PLACE, INC.', 'COMPUTER PROFESSOR, INC', 'COMPUTER STREET, INC.', 'COMPUTER SYSTEMS PROVIDER, INC.', 'COMPUTER UNIVERSE LTD.', 'COMPUTER US, CORP.', 'COMPUTERS REPAIR SHOP INC.', 'COMPWORLD ELECTRONICS INC', 'CONCEPT 2000 INC.', 'CONCORD RADIO COMMUNICATIONS INC', 'COOL WIRELESS, INC', 'CORECELL TECH, INC', 'COSME, EDWIN', 'COSTE, MODESTO', 'CRAN, INC.', 'CREATIVE WIRELESS INC', 'CREATIVE XPRESSIONS EMBROIDERY LLC', 'CRESCENDO COMPUTERS TECHNOLOGY,  INC.', 'CROWN AUTO PARTS, INC.', 'CROWN ELECTRONICS AND APPLIANCES INC', 'CROWN HEIGHTS GAMEWORLD INC', 'CRUZ, JOSE A', 'CRYPTIC LLC', 'CTW APPLIANCE INC.', 'CUE VARIETY STORE INC', 'CUEVAS, BIENVENIDO', 'CUSTOM SOUND &amp; SECURITY SYSTEM LLC', 'CW ELECTRONICS, CORP.', 'CYBER COMPUTER REPAIR, INC.', 'CYBER PAGE COMMUNICATION NY INC', 'CYBER PAGE INC', 'D &amp; A ELECTRONICS INC', 'D &amp; B WIRELESS &amp; ELECTRONICS INC.', 'D &amp; D SOUND &amp; SECURITY INC', "D &amp; E'S VIDEO STORE INC", 'D &amp; H ELECTRONICS, INC', 'D &amp; H WIRELESS INC', 'D &amp; H WIRELESS INC.', 'D &amp; J WIRELESS &amp; TRAVEL, INC', 'D &amp; J WIRELESS ENTERPRISES INC', 'D &amp; M CELLULAR, INC', 'D &amp; M VARIETY CORP.', 'D &amp; Q COMPUTER, INC.', 'D C WIRELESS', 'D R SOUND INC', 'D. MOBIL CORPORATION', 'D. R. WIRELESS, INC.', 'DANIEL EXPRESS COMMUNICATIONS INC', 'DANNY XIE WIRELESS INC', "DANNY'S WIRELESS INC", 'DASWANI ENTERPRISES LTD', 'DATA VISION COMPUTER VIDEO INC', 'DAVID 23 AND ASSOCIATES INC', 'DAVID CELLULAR LLC', 'DAVIS LEE PHARMACY CORP', 'DDJ JEWELRY, INC.', 'DE MEO, ANDRE', 'DELANCEY CELLULAR INC', 'DEN-TRON INCORPORATED', 'DENEZHKO LLC', 'DESI DEEN INC', 'DESIGN DEPOT INC', 'DFG MARKETING INC.', 'DHAKA DISCOUNT INC', 'DIALLO, MAMOUDOU', 'DIALLO, THIERNO', 'DIAZ, MIGUEL', 'DIGI PLUS INC', 'DIGICELL QUEENS INC', 'DIGINET COMMUNICATIONS CORP', 'DIGITAL ANALOG MUSIC AND ELECTRONICS INC', 'DIGITAL DARKROOM &amp; PHOTOGRAPHY INC.', 'DIGITAL DEPOT OF NEW YORK, INC.', 'DIGITAL ELECTRONICS HOUSE, INC.', 'DIGITAL EXPRESS INTERNATIONAL ELECTRONICS, INC.', 'DIGITAL FASHION 2 INC.', 'DIGITAL LAND CORP', 'DIGITAL MOBILE TECHNOLOGIES, INC', 'DIGITAL ONE COMMUNICATIONS CORP.', 'DIGITAL ONE USA INC.', 'DIGITAL SOCIETY COMPUTER CENTER', 'DIGITAL SOURCE COMM, INC.', 'DIGITCOM TECHNOLOGIES INC', 'DIGITMINE INC', 'DIGITRON TECHNOLOGY, INC', "DINO'S AND JIMMY'S SPEED WORLD INC.", 'DIOKERE LLC', 'DISC-O-MART, INC', 'DISCORAMA MUSIC WORLD DISTRIBUTORS, INC', 'DISCOREAL MUSICAL CORP', 'DNA WIRELESS, INC.', 'DND CONSULTING INC.', 'DOLCE WIRELESS INC.', 'DONE RITE AUTO GLASS INC', 'DORNACI, INC.', 'DOUBLECLICK ELECTRONIC CENTER INC', 'DOWNTOWN CELLULAR INC', 'DOWNTOWN ELECTRONICS.COM INC', 'DOWNTOWN WIRELESS GROUP, INC', 'DOWNTOWN WIRELESS, INC.', 'DREAM ON CORP', 'DREAMLAND PLUS, INC.', 'DUAL MOBILE INC.', 'DUCH, LENG', "DUDDY'S ELECTRONICS &amp; APPLIANCE         CENTER INC", "DUKE'S ELECTRONICS CORP", 'DUKES, KEVIN', 'DWCI MANAGEMENT GROUP INC', 'DYANMIC CELLULAR OF HILL SIDE AV CORP.', 'DYCKMAN AUDIO VIDEO ELECTRONICS CORP', 'DYKOS SYSTEMS INC', 'DYNACEL CORP', 'DYNAMIC APPLIANCES INC', 'DYNAMIC CELLULAR OF BAYSHORE INC', 'DYNAMIC CELLULAR OF HILLSIDE AV CORP', 'DYNAMIC CELLULAR OF JAMAICA AVE INC', 'DYNAMIC CELLULAR OF LIBERTY AVENUE INC', 'DYNAMIC CORPORATE HOLDINGS, INC.', 'DYNAMIC TECHNOLOGY GROUP, INC.', 'DYRE WIRELESS MALL INC.', 'E &amp; B AUTO SOUND &amp; SECURITY INC', 'E &amp; R COMMUNICATIONS INC.', 'E &amp; S COMPUTER, INC.', 'E &amp; W ELECTRONICS, LLC', 'E B A WHOLESALE CORP', 'E GAMELAND.COM, INC.', 'E O WIRELESS FOUR INC', 'E TECH COMPUTER SERVICE CENTER INC.', 'E&amp;A WIRELESS II LLC', 'E-CALL WIRELESS INC.', 'E-GAMERS, INC', 'E-Z GAME INC.', 'E-Z PLUS TELECOM CORP.', 'E2 WIRELESS USA, COM INC', 'E5 COMMUNICATIONS, INC.', 'EAGOUB, ATA', 'EAST COAST CUSTOMS SOUND &amp; SECURITY INC', 'EAST COAST DIGITAL DISTRIBUTORS, INC.', 'EAST SIDE PHONES, INC.', 'EASTERN COMMUNICATION CORP.', 'EASTSIDE WIRELESS PLAZA INC', 'EASY 1 CELL OF NY CORP', 'EASY SKY COMMUNICATION INC.', 'EASY WIRELESS CONNECTION CORP.', 'EBENEZER WIRELESS CORP', 'EBONY TRADING, INC.', 'EC PROFESSIONAL VIDEO INC.', 'ECALL MOBILE INC', 'ECHO COMM INC.', 'ECHO ELECTRONICS AND APPLIANCES INC', 'ECHO ELECTRONICS AND APPLIANCES INC.', 'ECT CCTV INC', 'ECUAMARKET DISCOUNT CORP', 'EDF COMMUNICATIONS INC', 'EDGAR COMPUTER NETWORK SYSTEM CORP.', 'EDITTO INC', 'EFFICIENT COMPUTER TECHNOLOGY INC', 'EJ WIRELESS INC', 'EL MUNDO WIRELESS CORP', 'EL NUEVO CASTILLO DE ORO, CORP', 'EL SOL IMPORT &amp; EXPORT,INC.', 'EL TUNEL MUSICAL DISTRIBUTORS INC', 'ELBOMBASO ELECTRONICS, INC', 'ELECTRODOMESTICOS TAVERAS CORP', 'ELECTRONIC LAND INC', 'ELECTRONIC MALL, INC.', 'ELECTRONIC OUTLET OF FORDHAM ROAD INC', 'ELECTRONIC OUTLET OF FULTON STREET INC', 'ELECTRONIC PARK INC', 'ELECTRONICA IN QUEENS INC', 'ELECTRONICS DISCOUNTCENTER INC', 'ELECTRONICS KING, INC.', 'ELECTRONICS OF AMERICA INC', 'ELECTRONICS ON 8TH INC', 'ELECTRONICS PLUS INC', 'ELECTRONICS WAREHOUSE OUTLET, INC', 'ELEVEN SKY CORP', 'ELI TECH VARIETY INC', 'ELITE COMMUNICATIONS, INC', 'ELITE MOBILE COM, INC.', 'ELITE ONE HOUR PHOTO INC', 'ELY WIRELESS INC', 'EM CELLULAR ENTERPRISES, INC.', 'EMANUEL WIRELESS, INC', 'EMBROS INC.', 'EMPIRE DVD GAMES &amp; WIRELESS, INC.', 'EMPIRE STATE COMPUTER, INC', 'EMPIRE WIRELESS INC', 'EMPRESS STATIONERY, INC.', 'ENDLESS WIRELESS GROUP INC', 'ENG APPLIANCES CORP', 'ENTERTAINMENT BOUTIQUE,INC', 'ENVIOS MI TIERRA CORP', 'ENY GENERAL MERCHANDISE INC', 'EO WIRELESS 5H, INC', 'EO WIRELESS ONE INC', 'EP 88 COM, INC', 'EPC OUTLET INC', 'ERIC BEEPERS &amp; CELLULARS CORP.', 'ERIC GAMES CENTER, INC.', 'ESCALON 2 COMMUNICATIONS, CORP.', 'ESEALE, QUAMAR A', 'ESMERALDA JOYERIA INC', 'ESPINAL,  HIRAN', 'ESPINAL, RENSO', 'ESS VEE TELELINK USA INC.', 'ETECH ENTERPRISE, INC.', 'ETS REGAL INC', 'EUN SOOK LEE', 'EUROPA CAMERA &amp; COMPUTERS INC.', 'EVERLAST WIRELESS, INC.', 'EVOLUTION AUTO SOUND', 'EVOLUTION TECH ONE INC.', 'EW STUDIO INC', 'EWEB COMPUTING SOLUTIONS INC.', 'EXCEL ALARM &amp; SOUND INC', 'EXCELLENT AUTO CENTER CORP.', 'EXCELLENT SOUND &amp; SECURITY INC.', 'EXCLUSIVE CELL INC', 'EXCLUSIVE CELLULAR OF FORDHAM INC', 'EXCLUSIVE COMMUNICATION CORP', 'EXCLUSIVE OF 86TH STREET INC', 'EXCLUSIVE OF NASSAU STREET, INC.', 'EXCLUSIVE WIRELESS INC.', 'EXCLUSIVE, INC', 'EXECUTIVE CELLULAR PHONES INC', 'EXECUTIVE CELLULAR PHONES INC.', 'EXECUTIVE CELLULAR PHONES, INC.', 'EXPERT VAC. SERV. CENTER INC.', 'EXPERTS 1 HOUR PHOTO &amp; COMMUNICATION INC.', 'EXPRESS LINE WIRELESS INC', 'EXTREME CELLULAR INC', 'EZ TECH WIRELESS INC.', 'EZ WIRELESS COMMUNICATION, INC', 'EZ WIRELESS INC', 'EZC CELLULAR WHOLESALE INC', 'EZTEL, INC.', 'F &amp; B WIRELESS CORP', 'F &amp; K FULTON WIRELESS, INC.', 'F.A.B TECHNOLOGIES INC.', 'F.B.S.T INC.', 'F.M. WIRELESS GROUP, INC.', 'FAIR DEAL COMMUNICATIONS INC.', 'FAMILY DISCOUNT VIDEO GAME STORE, INC', 'FANCY 32 INC', 'FANTASMA RECORDS 2 INC', 'FANTASTIC COMPUTER CORP.', 'FAST CASH OF APOLLO PAWN SHOP, INC', 'FAST PACE WIRLESS, INC.', 'FAYZAK JEWELRY &amp; ELECTRONICS INC.', 'FELIZ, FELIPE', 'FENG SHENG DEPARTMENT STORES, INC.', 'FERA EXPRESS CORP.', 'FERMIN, VICTOR M', 'FHA OF NY INC', 'FIESTA MUSIC, INC.', 'FIGUEREO, XIOMARA', 'FIRST CELL PHONE, INC.', 'FIRST CELLCO INC', 'FIRST CLASS SHOP INC', 'FIVE BROTHERS AUDIO &amp; VIDEO ELECTRONICS INC', 'FIVE STAR ELECTRONICS &amp; APPLIANCES INC.', 'FLASH ACCESSORIES, CORP', 'FLAWLESS AUTO CREATIONS INC.', 'FLEX COMMUNICATION CORP', 'FLOPS LLC', 'FLORES, EDGAR', 'FLORES, SONIA', 'FLUSHING WIRELESS INC', 'FOCUS ELECTRONICS, INC.', 'FONE SHOP CORP.', 'FONES 2 GO, LLC', 'FONES 2 GO,LLC', 'FONES TO GO, LLC', 'FONTANA GALLERY INC', 'FOOD KINGDOM CORP', 'FOOT PLAZA, INC.', 'FORDHAM ELECTRONICS, INC', 'FORDHAM GAMEWORLD, INC', 'FORDHAM WIRELESS PLAZA, INC.', 'FOREST HILLS WIRELESS INC', 'FOREVER COMMUNICATION INC.', 'FORMULA 1 HAND CAR WASH INC', 'FOTO FONO, INC.', 'FOTO-CARE LTD', 'FOUNTAIN TELECOM INC', 'FOUR G PLUS WIRELESS CORP', 'FRANCOIS IMPORT, INC', 'FRATERNAL BUSINESS SERVICES INC', 'FREE G TELECOM INC.', 'FREECELL WHOLESALE &amp; RETAIL LTD', 'FREEDOM WIRELESS INC', 'FRESH MEADOWS CELLPHONES INC', 'FRESH POND COMPUTER INC.', 'FRESH POND RD. APPLIANCE INC', 'FRESH START WIRELESS INC.', 'FRIAS, JOHANNY I', 'FUJIANESE INC.', 'FULLER-MOSLEY,DENYELL A.', 'FULTON ELECTRONICS AND APPLIANCES INC', 'FULTON EXPRESS WIRELESS INC.', 'FULTON EXPRESS WIRELESS, INC.', 'FULTON FAMILY CORP.', 'FULTON PCS CORP', 'FULTON STREET WIRELESS INC', 'FULTON TELECOMMUNICATIONS INC.', 'FULTON WIRELESS, INC.', 'FUTURE BUY INC', 'FUTURE COMMUNICATION EXPRESS WIRELESS, CORP.', 'FUTUREXPO OF NEW YORK, INC.', 'G &amp; M SUPER SOUND ELECTRONICS INC', 'G &amp; P CELLULAR CENTER CORP', 'G &amp; R AUDIO ELECTRONICS INC', 'G AND D COMMUNICATION INC', 'G S COMMUNICATIONS USA INC', 'G. N. Q. WIRELESS INC', 'G4 ELECTRONICS, INC.', 'GADJETS WIRELESS CORP.', 'GALAXY INTERNATIONAL TRADING, INC', 'GALAXY TECHNOLOGY TRADING INC.', 'GALLERY HOMESTORE LLC', 'GAME CENTER OF USA INC.', 'GAME ENTERPRISE CORP', 'GAME PLAZA, INC.', 'GAME SHACK, INC', 'GAME STAR COMMUNICATION INC.', 'GAME TECH INC', 'GAME WORLD WIRELESS PLUS INC', 'GAMEBOX, INC.', 'GAMERS ZONE INC.', 'GAMERS ZONE, INC', 'GAMES R US II, INC', 'GAMES SPECTRUM, INC', 'GAMES STOP, INC', 'GAMES-CELLPHONES STOP CORP', 'GAMESIMS, INC.', 'GAMESRUS, INC.', 'GAMESTOP INC', 'GAMESTOP INC.', 'GAMESTOP, INC', 'GAMESTOP, INC.', 'GAMETRONIX INC', 'GANACOM WIRELESS CORP', 'GANESH TELECOM INC', 'GAO, JIE', 'GARCIA, ERICK', 'GARCIA, EVELYN', 'GARCIA, JOSE M', 'GARCIA, LORENZO F.', 'GARDA, ELY', 'GARIBALDI, EDDY V.', 'GB WORLD OF WIRELESS, INC.', 'GC WIRELESS INC', 'GENTLEMAN WIRELESS, INC', 'GERTRUDES JACKSON', 'GET CONNECTED INC.', 'GET CONNECTED OF USA INC', 'GET CONNECTED OF USA, LLC', 'GET ONE WIRELESS CORP', 'GGB OF US, INC', 'GGCL INC.', 'GHNAIM INTERNATIONAL TRADING, INC', 'GIBBONS, JABAR D.', 'GINETTI OPERATING CORP.', 'GIVNEY, MARGHERITA &amp; FLORES, NILSA', 'GL WIRELESS, INC.', 'GLOBAL CELLULAR TECH INC.', 'GLOBAL COMPUTERS &amp; ELECTRONICS INC', 'GLOBAL ELECTRONICS AND WIRELESS, INC', 'GLOBAL ENTERTAINMENT WORKS INC', 'GLOBAL GIFTS &amp; ELECTRONICS INC', 'GLOBAL GSM WHOLESALERS INC.', 'GLOBAL MONETARY NY LLC', 'GLOBAL TRADING CONCERN INC', 'GM WIRLESS, INC.', 'GMX COMPUTERS INC.', 'GO FOR IT WIRELESS INC', 'GO FOR IT WIRELESS INC.', 'GO TRAVEL &amp; COMMUNICATIONS INC.', 'GO WIRELESS OF NEVADA, INC.', 'GO WIRELESS PLUS INC', 'GOLD BY SIMON CORP.', 'GOLDEN FISH ENTERPRISES INC.', 'GOLDEN OCEAN INC', 'GOME TRADING INC', 'GONZALEZ, JOSE', 'GOOD COMMUNICATIONS INC', 'GOOD DISCOUNT CENTER INC.', 'GOODE, SHAMEKA B', 'GORTRON LLC', 'GOTELONE CORPORATION', 'GPZ COMPUTER SOLUTIONS &amp; SERVICE SUPPORT,LLC', 'GRAHAM AVE CELLULAR LLC', 'GRAMEEN TELECOM, INC.', 'GRAMEEN WIRELESS INC', 'GRAMIN WIRELESS INC.', 'GREEN LIGHT ENTERPRISES CORP', 'GREENAN BUSINESS PRODUCTS INC', 'GREENPOINT WIRELESS HOLDINGS CORP.', 'GREENTECH COMPUTER, INC', 'GRIMAN, REMONA', 'GSK WIRELESS INC.', 'GSM SAMSUNG CELLULAR, INC.', 'GSM WIRELESS INTERNATIONAL INC.', 'GSM WORLD OF FLATBUSH INC', 'GT COMMUNICATION CORP.', 'GUAN JIAN ZHENG &amp; QIN MING ZOU', 'GUARANTEED ALARM INC', 'GUARANTEED CELLUTIONS, INC', 'GUARANTEED CELLUTIONS, INC.', 'GUGUMAMA MOBILE INC', 'GUGUMAMA MOBILE, INC.', 'GURU ANAND EMPORIUM, INC.', 'GUTIERREZ, FELIPE A.', 'H &amp; A MULTISERVICES, INC', 'H &amp; S WIRELESS NY INC.', 'H&amp;A AUTO SOUND &amp; SECURITY LLC', 'H. E. ELECTRONICS, INC', 'HAFEEZ, MOHAMMAD A', 'HAI FA WIRELESS INC', 'HAMMACHER, SCHLEMMER &amp; CO., INC', 'HAMPTON TELECOM INC', 'HAMZA AQIB DELI &amp; GROCERY INC', 'HAN, BUM SUNG', 'HANDY WIRELESS INC', 'HAPPY ELECTRONIC, INC.', 'HAPPY HOME, LLC', 'HARLEM METRO PLAZA INC', 'HARMEET RAHI &amp; KNR WIRELESS, INC', 'HARMONY VIDEO &amp; ELECTRONICS INC', 'HARRICHARAN, LILAWATTIE', "HARRY'S DISCOUNTS &amp; APPLIANCES INC", 'HASSAN, ALI', 'HATIMI ELECTRONICS INC', 'HD COMPUTER &amp; CAMERA INC', 'HD DIGITAL CAMERA &amp; COMPUTERS INC', 'HD FUSION, LLC', 'HEAT COMMUNICATIONS INC.', 'HEAVEN DRAGON ELECTRONIC INC.', 'HENRIQUEZ, LUIS A', 'HI END ELECTRONICS CORP', 'HI VENUS WIRELESS, INC.', 'HI-PRECISION MUSIC &amp; SECURITY, INC.', 'HI-TECH 2000 INC', 'HI-TECH IT SOLUTIONS, INC.', 'HI-TECH WIRELESS GROUP II INC', 'HIFI ELECTRONICA CORP.', 'HIGH SPEED ELECTRONICS CORP', 'HIGH TECH WIRELESS COMMUNICATION CORP.', 'HIGH TECH WIRELESS INC', 'HIGH TECH WIRELESS WORLD CORP.', 'HIGH-LINE ELECTRONICS, INC', 'HILDEBRAND, MARC &amp; JAY', 'HIMALAYA WIRELESS, INC', 'HIP HOP WIRELESS INC.', 'HIPOINT WIRELESS AT FRESH POND, INC', 'HIPOINT WIRELESS AT KISSENA, INC.', 'HIPOINT WIRELESS AT RIDGEWOOD NY CORP', 'HIPOINT WIRELESS AT SUNNYSIDE, INC.', 'HIPOINT WIRELESS CORP', 'HLC TRADING INC.', 'HMH DISTRIBUTORS INC.', 'HNS COMMUNICATIONS, INC.', 'HO, KANG', 'HOFFMAN SOUND &amp; SECURITY LLC', 'HOLLYWOOD CUSTOMS, INC', 'HOLY LAND REALTY CO.LLC', 'HOME &amp; HOME MERCHANDISE CORP', 'HOME THEATRE WHOLESALE, INC', 'HOME TRADE ORGANIZATION CENTER LTD.', "HONIG'S APPLIANCE LLC", 'HONWA CORP.', 'HOT SPOT CELLULAR SERVICES INC.', 'HOT SPOTS AND ASSOCIATES LLC', 'HOTBEAT ELECTRONICS WHOLESALE, INC.', 'HOUSEWARE STORE, INC.', 'HOWLADAR, MOHAMMED A.', 'HU, XIN-YI', 'HUA HUNG ELECTRONIC, INC', 'HUH, KYUNG SOO', 'HULANGAMUWE, NISHSHNKA', 'HUSSAIN, AKRAM', 'HYLAN COMPUTER INC', 'HYRATECH COMPUTERS INC', 'HZ GROUP INC.', 'I &amp; R MULTISERVICES. CORP.', 'I &amp; S AUTO SOUND &amp; SECURITY INC', 'I &amp; Y EQUITY, INC', 'I - NET COMPUTER SOLUTIONS INC', 'I STAR WIRELESS CORP.', 'I Z WIRELESS INC', 'I.P.D INC.', 'IDE WIRELESS INC', 'ILAZAROV, ALBERT', 'ILLUSIONS AUTO ACCESSORIES, INC', 'ILLUSIONS COMMUNICATIONS INC', 'IMEGACELL, CORP', 'IMOBILE OF NY LLC', 'IMOBILE OF NY, LLC', 'IMOBILE OF NYC 1 INC', 'IMOBILE OF NYC 11 INC.', 'IMOBILE OF NYC 4 INC', 'IMOBILE OF NYC2 INC', 'IMOBILE OF NYC3 INC.', 'IMPORT SOUND TUNING INC.', 'IN LIVING STEREO LTD', 'IN THE CUBE INC', 'IN THE CUT INC.', 'IN-XS WAREHOUSE OF NY, INC.', 'INFINITE WIRELESS COMMUNICATIONS LLC', 'INFINITE WIRELESS COMMUNICATIONS, LLC', 'INFINITI AUTOSOUND &amp; SECURITY INC', 'INFINITI COMMUNICATIONS INC', 'INFINITI COMMUNICATIONS OF BROOKLYN HEIGHTS INC', 'INFINITI PLUS, INC', 'INFINITY AUTO BOUTIQUE, LTD.', 'INFINITY WIRELESS WORLD 2, INC', 'INFO WIRELESS INC.', 'INFOMEDIA CONSULTING CORP.', 'INFOTECHNY, INC.', 'INKTORY INC', 'INNOVATION BY AUTO SPORT, INC', 'INNOVATIVE AUDIO VIDEO SHOWROOMS, INC', 'INNOVATIVE AUTO SOUND &amp; SECURITY INC', 'INTEL GLOBAL INC.', 'INTELCOM, LLC.', 'INTELITECH ZONE INC.', 'INTERNATIONAL CAMERA &amp; ELEC.ZONE INC.', 'INTERNATIONAL TWO-WAY RADIO, INC.', 'INTERPATH COMPUTERS &amp; ELECTRONICS OUTLET, INC', 'INTERSTATE AUDIO    DISTRIBUTORS INC', 'INTOUCH WIRELESS CORP', 'IOBYTES SYSTEMS INC', 'ISLAM, MD NURUL', 'ISLAM, MD S.', 'ISLAM, MOHAMMED N', 'ISLAND CELLULAR GROUP LTD', 'IT MAX SOLUTIONS, INC.', 'ITC COMPUTER GROUP INC', 'ITNY GLOBAL LLC', 'J &amp; B WIRELESS &amp; JEWELRY INC', 'J &amp; D TELECOM INC.', 'J &amp; F MOBILE INC', 'J &amp; H COMPUTERS AND COMMUNICATION LLC', 'J &amp; H WIRELESS INC.', 'J &amp; J COMPUTER EXPERT INC', 'J &amp; K (NY) WIRELESS INC', 'J &amp; L MOBILE GROUP INC.', 'J &amp; M COMMUNICATIONS INC', 'J &amp; M COMPUTER INC', 'J &amp; P MOBILE GROUP INC', 'J &amp; Q WIRELESS INC.', 'J &amp; R ELECTRONICS INC', 'J &amp; R ELECTRONICS, INC', 'J &amp; R LINK INC', 'J &amp; R T V &amp; AIR CONDITIONING SERVICE&amp; SALES INC', 'J &amp; T MOBILE (I) INC', 'J &amp; T MOBILE INC', 'J K TELECOM LLC', 'J P CELLULAR INC', 'J S SUTTON &amp; SON', 'J T WIRELESS ENTERPRISE INC', 'J&amp;C APPLIANCE &amp; ELECTRONICS INC.', 'J&amp;H ELECTRONICS INC', 'J&amp;J WIRELESS CENTRAL, INC', 'J&amp;R ELECTRONICS INC', 'J&amp;R ELECTRONICS INC.', 'J.C. JAY COMPUTER, INC.', 'J.L. WIRELESS LLC', 'J.Z. SOUND &amp; SECURITY, INC', "JACK'S COMPUTER SERVICE CENTER INC.", "JACK'S PLACE 1, INC.", 'JACKO WIRELESS INC', 'JACKSON HEIGHTS ELECTRONICS INC.', 'JACKY VARIETY CENTER, INC', 'JACOBS JR, ANDREW A', 'JAGDEEP GLOBAL PRODUCTS, INC.', 'JAGDEEP WIRELESS INC.', 'JAMAICA CELLULAR, INC', 'JAMWIRE COMMUNICATIONS, INC.', 'JASMINE WIRELESS INC.', 'JAUREGUI, JENIFER', 'JAY. N.A. CORP.', 'JBC ASTORIA SOUNDS CORP', 'JC WIRELESS AND COMPUTERS, INC.', 'JCA WIRELESS CORP.', 'JCKZ WIRELESS INC', 'JCPC CORP', 'JCT MOBILE LLC', 'JD &amp; FAMILY, LLC', 'JE &amp; D JEWELRY, INC.', 'JEAN E CORP.', 'JEANDI CORP.', 'JEC ENTERPRISES INC.', 'JEFFELI INC', 'JEFFELI INC.', 'JENDRYKA, WLADYSLAWA', "JENNY'S FASHION INC", 'JERICO COMMUNICATION &amp; WIRELESS III INC.', 'JEROME ELECTRONICS INC', 'JESURUM, MIGUEL', 'JHA DISCOUNT CENTER INC.', 'JI HONG TRADING INC', 'JI HONG TRADING, INC.', 'JIMENEZ, NEY', 'JIMENEZ, VICTOR', 'JJ UNIVERSAL COMPUTER CORP', 'JJC NEW ERA TECHNOLOGY INC.', 'JJI COMMUNICATION CORP.', 'JJRR CORP', 'JLM COMMUNICATION NY CORP', 'JO-CELL DIGITAL WORLD, INC.', 'JOE MULTI SERVICES CORP', 'JOEUN ELECTRONICS INC', 'JON DAN COMMUNICATIONS INC', 'JONY EXPRESS LIMO,INC', 'JOSEPH AUTO SONIDO INC', 'JOULY PALACE, INC.', 'JOURNEY DISTRIBUTORS INC', 'JOY ELECTRONICS &amp; APPLIANCES INC.', 'JOYERIA ESPINAL INC.', 'JOYLAND LLC', 'JR SUPER STORE, INC.', 'JS COMPUTER SERVICE CORP.', 'JS WIRELESS ENTERPRISE INC.', 'JUKEBOX 26, CORP.', 'JUN, CHONG HYUK', 'JUNCTION CELLULAR 95 CORP', 'JUNCTION WIRELESS LTD', 'JUST MOBILE INC', 'JUST PHONE INC', 'JV AUTO SOUND INC.', 'JY TECHNOLOGIES INC', 'JZ COMPUTER INC', 'K &amp; K MULTI-SERVICES CORP', 'K &amp; Y COMMUNICATION INC', 'K &amp; Y COMMUNICATION, INC', 'K &amp; Y COMMUNICATION, INC.', 'K AND T PHOTO AND ELECTRONICS INC', 'K WIRELESS, INC.', 'K.P. PRO VIDEO, INC.', 'K1 AUTO SOUND &amp; SECURITY INC', 'KAM &amp; AN TRADING CO., INC.', 'KANE, AMADOU S', 'KANE, BETRICE E.', 'KAUFMAN, DAVID', 'KAUSAR, RUBINA', 'KEN SEWING MACHINES INC.', "KENNY'S BEST CHOICE CELLULAR &amp; BEEPER CONNECTION INC", 'KHAN ELECTRONICS, INC', 'KHAN, SHAHADAT', 'KIM KYUNG AH', "KIM'S ELECTRONICS </t>
         </is>
@@ -701,11 +729,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -757,12 +785,18 @@
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
+        <v>2188</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>16144</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>668</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['# 1911', '# 478', '# 482', '# 599', '#02463', '#02469', '#02499', '#02504', '#1028', '#2854', '#555', '.', '125 MEGA STORE', '1661 WIRELESS &amp; ELECTRONIC', '1800FIX.COM', '1ST STOP WIRELESS', '207 DIGITAL ELECTRONICS', '2187', '233 CREATIVE AUTO SOUND &amp; SECURITY', '2482', '2COM WIRELESS', '3676 BROTHER WIRELES', '3703 WOW INC', '378 ELECTRONICS', '42ND STREET PHOTO', '47TH DIGITAL', '47TH GALLERY', '51 COMPUTERS &amp; ELECTRONICS', '54 WIRELESS', '55TH DIGITAL', '5TH AVE ELECTRONICS', "7 K'S GIFT SHOP", '86 COMPUTER', '8TH AVE. ELECTRONIC &amp; APPLIANCE', '8TH AVENUUE GIFT STORE', 'A &amp; B HOUSEWARE', 'A &amp; Z JEWELRY AND ELECTRONIC', 'A A RELIABLE TV', 'A K STATIONARY &amp; NEWSSTAND', 'A T &amp; T', 'A T &amp; T MOBILITY', 'A-ONE ELECTRONICS &amp; CELL PHONE.', 'A.B.C. CAMERA INC', 'A2Z WIRELESS', 'ABC ELECTRONICS', 'ACE COMMUNICATIONS', 'ADVANCE ELECTRONIC CENTER', 'AH GIFT SHOP', 'AIR WAVE WIRELESS', 'AIRSTREAM WIRELESS', 'AK WIRELESS', 'ALBERT RECORDS COMPANY', 'ALF SOUND &amp; VIDEO TEQ CO', 'ALL NATIONS COMMUNICATION &amp; ELECTRONICS', 'ALL NATIONS OFFICE MACHINES &amp; SUPPLIES', 'ALTTAX', 'AMERITEL', 'AMERITEL T-MOBILE', 'ANY COMPUTER EQUIPMENT', 'APPLE BEEPER', 'APPLIANCE CONNECTION SERVICE', 'APPLIANCES &amp; ELECTRONIC CENTER', 'ARECIBO SOUNDS', 'ARI UNIVERSAL', 'ARIAS MUSIC', 'ARIES COMMUNICTIONS', 'ARJAY WIRELESS', 'AROUND THE CLOCK', 'ARSDELF', 'ASTORIA WIRELESS', 'AT &amp; T MOBILITY', 'AT &amp; T WIRELESS SERVICE', 'AT&amp; T MOBILITY', 'AT&amp;T MOBILITY', 'AT&amp;T WIRELESS', 'ATLANTIC COMMUNICATION CENTER', 'AUDIO SHACK', 'AUDIO VIDEO SALON', 'AUTO ADORNOS CAR MUSIC', 'AUTO TECH', 'AVT MUSIC', 'AW MOBILE OF BELLEROSE', 'AW MOBILE OF WOODHAVEN', 'B &amp; H PHOTO VIDEO', 'B-Z JOHN COMPUTER &amp; ELECTRONICS', 'B.G.N. WEST AFRICA SERVICES', 'BABA GIFT', 'BABY AND BEYOND', 'BANG &amp; OLUFEN SOHO', 'BANG &amp; OLUFSEN BROADWAY', 'BANG &amp; OLUFSEN COLUMBUS AVENUE', 'BANGLA LINK WIRELESS COMMUNICATION', "BARRETT'S COMPUTER WAREHOUSE", 'BAY RIDGE METROPCS', 'BEEP AMERICA', 'BEEPER WORLD', 'BEST BEEP CELLULAR COMMUNICATIONS NETWORK', 'BEST BUY MOBILE #2100', 'BEST BUY STORE #1891', 'BEST BUY STORES LP #1172', 'BEST BUY STORES, L.P. #1886', 'BIG DADDY', 'BLUE STAR CONVENIENCE &amp; DONUT', 'BOOM BOOM CAR INTERIOR', 'BOOM BOOM ELECT', 'BOOM VARIETY GIFT SHOP', 'BOOST MOBILE', 'BOSTON ROAD BEEPER EXPRESS', 'BROADWAY CAMERA &amp; ELECTRONICS', 'BROADWAY DISCOUNT PLAZA', 'BROADWAY INTERNET AND WIRELESS', 'BROADWAY TELE COMMUNICATION', 'BROOKLYN GAMES AND ELECTRONICS', 'BROWNSVILLE ELECTRONICS', 'BUDDY WIRELESS', 'BUS STOP WIRELESS AND DVD', 'C-MOBILE OF NY', 'C.N. AUTO SOUND &amp; SECURITY', 'CACHE SOUNDS &amp; SECURITY', 'CALL ME WIRELESS', 'CANAL ELECTRONIC WAREHOUSE', 'CANAL S &amp; G ELECTRONICS', 'CARIB MARKET NET', 'CELL 2000', 'CELL CITY', 'CELL NATION', 'CELL O MANIA', 'CELL SPOT', 'CELL ZONE', 'CELL-2000', 'CELLULAR ARENA', 'CELLULAR CHANNEL', 'CELLULAR CHANNEL PLUS', 'CELLULAR CIRCLE', 'CELLULAR PLUS', 'CELLULAR WORLD', 'CENTRAL CELLULAR', 'CHAUDHRY  ELECTRONICS', 'CHURCH LINE', 'CHUTNEYHUT', 'CIELTECH COMMUNICATIONS', 'CIRCUIT CITY', 'CIRCUIT CITY #3679', 'CIRCUIT CITY #3686', 'CIRCUIT CITY #3697', 'CIRCUITY CITY', 'CLICK COMPUTER WIRELESS', 'COLOMBIA CAR STEREOS', 'COMP-U-MAX', 'COMPTOOLS COMPUTER', 'COMPU CITY CO.', 'COMPUSTAR', 'COMPUTER CAMERA', 'COMPUTER DOCTOR', 'COMPUTER OUTLET', 'COMPUTER SMART SHOP', 'COMUSTRAR', 'CONNECTION WIRELESS &amp; ELECTRONIC', 'COOL WIRELESS &amp; PHOTO SOLUTIONS', 'COOL? YEAH  WIRELESS', "COSME'S ELECTRONICS", "COSTE'S AUTO SOUND", 'COURTS CARIBBEAN', 'COUSIN JAY COMPUTERS &amp; ELECTRONICS LIQUIDATOR', 'CROWN HEIGHTS CELL GAMES &amp; BEYOND', 'D. J. MULTI SERVICE', 'D.R. MOBILE', 'DATAFLOW COMMUNICATIONS', "DAVID'S AUTO SOUND &amp; ALARM INSTALLATION", 'DEKALB SOUND &amp; SYSTEMS CO', 'DELTA ELECTRONICS', 'DESHI WIRELESS', 'DHARP CONNECTIONS USA', 'DIGITAL DEPOT', 'DIGITAL ON SIXTH', 'DIGITAL ONE', 'DIGITAL WIRELESS', 'DIGITAL WORLD OF NY', 'DIRECT CONNECT', 'DISCORAMA', 'DO NY COMPUTERS', 'DOREN CAR STEREO AND ALARMS', 'DR. GAME &amp; WIRELESS', 'EB GAMES', 'EL BARRIO VIDEO WIRELESS', 'ELECTRCOM', 'ELECTRONIC REPAIR CENTER', 'ELECTRONICA', 'ELECTRONICS CELL PHONE', 'ELECTRONICS-R-US', 'EMBASSY ELECTRONICS', 'EMPIRE PAGING', 'ESSENCE COMPUTER', 'EXCLUSIVE OF NASSAU ST', 'EXCLUSIVE WIRELESS INC', 'EXTREME AUTO SOUND', 'F-M WIRELESS', 'F.A.B COMMUNICATIONS', 'F.R. COMPUTER SYSTEMS', 'FANTASY ACCESSORIES', 'FAST SOLUTIONS', 'FELIX AUTO SYSTEMS', 'FELO #1 AUTOSOUND ORIGINAL', 'FIVE BROTHERS APPLIANCE', 'FORDHAM ELECTRONICS AND APPLIANCE CENTER', 'FORMER CELL PHONE &amp; COMPUTER REPAIRS CENTER', 'FORTUNE WIRELESS OF HARLEM', 'FRIENDLY VIDEO RECORD CENTER', 'FRIENDLY WIRELESS', 'FUSION WIRELESS', 'FUTUREXPO OF NEW YORK', 'G &amp; R AUDIO ELECTRONICS', 'G-UNIQUE', 'GALAXY AUTO SOUND', 'GAME CHAMP', 'GAME CITY', 'GAME CITY 11', 'GAME DEPOT', 'GAME GALAXY', 'GAME PLACE', 'GAME PLAZA', 'GAME STAR WIRELESS', 'GAME STOP', 'GAMESTOP', 'GAMESTOP # 3738', 'GAMESTOP # 5832', 'GAMESTOP # 5971', 'GAMESTOP # 6426', 'GAMESTOP #1036', 'GAMESTOP #2359', 'GAMESTOP #2850', 'GAMESTOP #2943', 'GAMESTOP #3827', 'GAMESTOP #3891', 'GAMESTOP #5927', 'GAMESTOP #6146', 'GAMESTOP #6291', 'GAMESTOP #6425', 'GAMESTOP 1012', 'GAMESTOP 1044', 'GAMESTOP 1045', 'GAMESTOP 1324', 'GAMESTOP 2360', 'GAMESTOP 6266', 'GAMESTOP 6276', 'GAMESTOP 6443', 'GAMESTOP 6522', 'GAMESTOP 6562', 'GAMESTOP 6569', 'GAMESTOP 667', 'GAMESTOP 804', 'GAMESTOP# 3658', 'GAMETRONIX', 'GANISH JI COMMUNICATION', 'GAO JIE PHONE CARD', 'GEO CELL', 'GET CONNECTED', 'GJ WIRELESS', 'GJ WIRELESS / VERIZON WIRELESS', 'GLOBAL WIRELESS', 'GOLDEN BOUGH PHOTO', 'GRAND ELECTRONIC APPLIANCE AND OFFICE SUPPLIES', 'GREEN CITY TRAVEL AND CO', 'GREENPOINT METROPCS', 'GUERIYA ENTERPRISE', 'GUNHILL VIDEO &amp; ELECTRONICS', 'H AND B DIGITAL', 'H&amp; A ELECTRONICS', 'HAPPY MOBILE PHONE', 'HARLEM CALLING', 'HARLEM INT PHONE CENTER', 'HARLEM PRIDE ELECTRONICS', 'HARRICO CHURCH PHARMACY', 'HEAVYWEIGHT COMMUNICATIONS', 'HERO AUTO SOUND AND SECURITY', 'HI END', 'HI-TECH ELECTRONICS', 'HIGH POWER COMMUNICATION', 'HIGH SPEED AUTO SOUND', 'HIGHBRIDGE INTERNET CAFE', 'HIPOINT WIRELESS', 'HITEC COMPUTERS', 'HO LUCKY ELECTRONIC COMPANY', 'HOBBY COMMUNICATION', 'HORIZON WIRELESS', 'HOT DEALS COMMUNICATION AND REPAIR/WARRANTY', 'HRG GAMES', 'HUA LI CHEN', 'HYRA COMMUNICATION', 'IFIX', 'IN TOUCH WIRELESS', 'INFINITI COMMUNICATIONS', 'INFINITY AUTO BOUTIQUE, LTD.', 'INTERNATIONAL COMMUNICATIONS', 'IPON WIRELESS', 'ISLAMIC BOOKS &amp; TAPES', 'ISLAND SOUND', 'J &amp; R EXPRESS', 'J &amp; R MUSIC WORD', 'J &amp; R MUSIC WORLD', 'J A DIGITAL EXPRESS', 'J B AUTO REPAIR', 'J S SUTTON &amp; SON', 'J&amp;R MUSIC WORLD', 'JANE GIFT SHOP', 'JC ELECTRONICS', "JEFF BLOCH'S AMP &amp; GUITAR WELLNESS CENTER", 'JEFFELI INC.', 'JEREMY JIANG', 'JESUS AUTO SECURITY', 'JJC TECHNOLOGY', 'JK GLOBAL EXIM', 'K &amp; L TECHNOLOGIES', 'K &amp; M TRIBECA', "K'S WIRELESS", 'K. O. COMMUNICATION SERVICES', 'KAUFMAN ELECTRONICS &amp; SHIPPING CO', 'KEENAN WIRELESS &amp; ACESSORIES', 'KEEP N TOUCH', 'KEYFOOD SUPERMARKET', 'KING EXPRESS', 'KKC ELECTRONICS', 'KOMTECH', 'KRISHNA BAZAAR', 'KS MOBILE', 'LA MUSICA RECORD &amp; PLUS', 'LATIF ELECTRONICS', 'LIBERTY COMMUNICATIONS', 'LIBERTY COMPUTER &amp; WIRELESS', 'LIMITLESS WIRELESS', 'LINK SYS', 'LM WIRELESS', 'LOS CHICUELOS VIDEOS AND GAME STORE', 'LUCKY WIRELESS', 'M &amp; D AUTO REPAIR', 'MAGICSINGMALL.COM', 'MAIN DRAG MUSIC BUSHWICK SUPPLY', 'MAJOR LEAGUE WIRELESS', 'MANUEL TWO WAYS COMMUNICATIONS &amp; ELECTRONICS', "MARGARITA'S VIDEO GAMES &amp; ELECTRONICS", 'MARINE PARK COMPUTERS/ ITNY.', 'MARTECH COMPUTERS', 'MASTER AUTO SOUND', 'MAVERICK COMIC', "MAXIMO'S BRUNO AUTO SOUND", 'MAXIMUM SOUND AND SECURITY', 'MB UNIVERSAL TRADING', 'MCDATON COMPUTECH COMPANY', 'MECCA WIRELESS', 'MERCEDES PENA VIDEO', 'METRO PCS', 'METRO PCS AUTHORIZED DEALER', 'METRO WIRELESS', 'METROPCS', 'METROPCS AUTHORIZED DEALER', 'METROPOLITAN WIRELESS', 'MI TIERRA WIRELESS &amp; INTERNET CENTER', 'MICROSYS COMPUTER INC', 'MIDWOOD MOBILE', "MIKE'S MAC SHOP", 'MILLENNIUM COMMUNICATIONS', "MIRIAM'S TERITEL COMMUNICATION", 'MOBILE CITY', 'MOBILE COMM', 'MOBILE GIFTS', 'MOBILE PARADISE', 'MOBILE TECH', 'MOBILE TRENDZ', 'MOBILE TRON', 'MOBILE ZONE', 'MOBILEX CONNECTIONS INC.', "MONA'S WIRELESS SUPPLY", 'MR ELECTRONICS', 'MY PHONE', "MY'S ELECTRONCI STORE", 'MYCELLULARNY', 'N.J ELECTRONICS', 'N/A', 'NARGIS PLAZA', 'NEIGHBORHOOD GIFT &amp; WIRELESS', 'NEO SWIFT ELECTRONICS', 'NES ELITE COMMUNICATIONS CORP', 'NEW CASTLE HILL PHOTO', 'NEW EXCELLENT AUDIO CENTER', "NEW LOUIE'S APPLIANCE", 'NEW UNITED MOBILE CORP.', "NEY'S AUTO SOUND", 'NU-CASTLE JEWELERS', 'NUEVO MUNDO WIRELESS', 'NY CAMERA', 'NY ELECTRONICS', 'ONE STOP LEATHER &amp; CELLULAR PHONES', 'ONE STOP PERSONALIZATIONS', 'ORION WIRELESS', 'P C RICHARD &amp; SON', 'P. C. RICHARD &amp; SON', 'PAGING ZONE', 'PARAMOUNT ELECTRONICS', 'PARK SLOPE COMPUTERS', 'PC DUDES', 'PC-HELP', 'PCS STORE', 'PENDING-BROADWAY COMPUTER &amp; VIDEO', "PEOPLE'S BARGAIN", 'PERFECT SHIPPING PLUS', 'PERFUME STATION', 'PHOTO FACTION', 'PHOTO HABITAT', 'PICOCIRCUITS', 'PLANET CELLULAR', "POP'S WIRELESS", 'POPS COMMUNICATIONS GRAND STREET', 'POWERHOUSE ELECTRONICS', 'PRESTIGE MULTIMEDIA K.N.', 'PRICELESS WIRELESS', 'PRODUCT CENTER', 'PROLINE CAR STEREO', 'PROLINE HOME THEATER', 'PROLINE TOTAL ENTERTAINMENT', 'QING DE ZHENG PHONE CARD', 'QQ COMPUTER', 'QS COMPUTER ELECTRONICS', 'QUALITY LAB PHOTO', 'QUEENS AUTOTRONICS', 'QUICK BUY ELECTRONIC AND COMPUTER REPAIR', 'QUICK WIRELESS', 'QUINTEX WIRELESS', 'QUINTEX WIRELESS LLC', 'QUINTEX WIRELESS LLC.', 'QUISQUEYA AUTO SONIDO', 'QUISQUEYA MULTISERVICE', 'R &amp; E COMPUTER REPAIR, ETC', 'R B 30 MINUTES DIGITAL PHOTO', 'RADIO SHACK', 'RADIO SHACK #01-2602', 'RADIO SHACK #01-2604', 'RADIO SHACK #01-2710', 'RADIO SHACK #01-2808', 'RADIO SHACK #01-2821', 'RADIO SHACK #01-2861', 'RADIO SHACK #01-2862', 'RADIO SHACK #01-2868', 'RADIO SHACK #2608', 'RADIO SHACK #2609', 'RADIO SHACK #2632', 'RADIO SHACK #2640', 'RADIO SHACK #2661', 'RADIO SHACK #2665', 'RADIO SHACK #2667', 'RADIO SHACK #2678', 'RADIO SHACK #2680', 'RADIO SHACK #2683', 'RADIO SHACK #2684', 'RADIO SHACK #2686', 'RADIO SHACK #2746', 'RADIO SHACK #2749', 'RADIO SHACK #2752', 'RADIO SHACK #2756', 'RADIO SHACK #2763', 'RADIO SHACK #2773', 'RADIO SHACK #2781', 'RADIO SHACK #2814', 'RADIO SHACK #2818', 'RADIO SHACK #2827', 'RADIO SHACK #2828', 'RADIO SHACK #2829', 'RADIO SHACK #2835', 'RADIO SHACK #2838', 'RADIO SHACK #O1-2816', 'RADIO SHACK #OL-2611', 'RADIO SHACK 01-2859(KIOSK)', 'RADIO SHACK 2760', 'RADIO SHACK CMPTR CTR#2660', 'RADIO SHACK EXPRESS  #5504', 'RADIO SHACK EXPRESS #5512', 'RADIOSHACK', 'RADIOSHACK #01-2615', 'RADIOSHACK #01-2643', 'RADIOSHACK #01-2711', 'RADIOSHACK #01-2744', 'RADIOSHACK #01-2750', 'RADIOSHACK #01-2757', 'RADIOSHACK #01-2780', 'RADIOSHACK #01-2824', 'RADIOSHACK #01-2857', 'RADIOSHACK #01-2858', 'RADIOSHACK #01-2866', 'RADIOSHACK #01-2867', 'RADIOSHACK #01-2871', 'RADIOSHACK #01-2875', 'RADIOSHACK #01-2876', 'RADIOSHACK #01-2879', 'RADIOSHACK #01-2881', 'RADIOSHACK #01-2883', 'RADIOSHACK #01-2886', 'RADIOSHACK #2687', 'RADIOSHACK #2837', 'RADIOSHACK #2850', 'RADIOSHACK #2874', 'RADIOSHACK STORE #01-2691', 'RADIOSHACK STORE #01-2873', 'RAVE PCS 119 DELANCEY STREET', 'RCS COMPUTER EXPERIENCE', 'READY TO GO MJ WIRELESS', 'RENAISSANCE T-SHIRTS &amp; SWEATSHIRTS', 'RENT A CENTER  #02431', 'RENT A CENTER # 02411', 'RENT-A-CENTER', 'RENT-A-CENTER #02418', 'RENT-A-CENTER (#02505)', 'RENT-A-CENTER INC', 'RENT-A-CENTER INC #01911', 'RENT-A-CENTER INC #02458', 'RENT-A-CENTER, INC', 'RENT-A-CENTER, INC # 00170', 'RENT-A-CENTER, INC # 01885', 'RENT-A-CENTER, INC. # 01886', 'RENT-A-CENTER, INC. # 01891', 'RIDGE COMPUTER SERVICES', 'RIDGEWOOD WIRELESS', 'RJ PHOTO VIDEO &amp; CELL PHONE', 'RK METRO MANAGEMENT CORP', 'ROGERS CARS ALARM AND SOUND SYSTEMS', 'ROGERS DATA SYSTEM MULTI SERVICES', "ROLANDO'S TV &amp; ELECTRONICS", "ROY'S COMPUTERS", 'RSOLUTIONS2U', 'RUFI MUSIC STORE', 'S &amp; L APPLIANCE CO', 'S &amp; W APPLIANCE &amp; ELECTRONICS', 'S O NICE PHOTO', 'S&amp;A CELLULAR PHONES &amp; ACCESORIES PLUS', 'S.A. MULTI SERVICE', "SAM'S 1 HOUR PHOTO &amp; GIFT", 'SAMSONIC TRADING CO', 'SANFORD WIRELESS', 'SANO HALAL FOOD &amp; FOOD PRODUCTD', 'SAY IT ALL', "SCHUMACHER'S", 'SEP COMPUTER CONSULTANT', 'SHERIDAN RECORD SHOP', 'SK MOBILE', 'SKYLIGHT PAGING', 'SMART KIDS DISCOUNT STORE', 'SMART MACHINES', 'SMARTALK', 'SMARTECH COMPUTERS', 'SMARTTALK WIRELESS', 'SONA CARDS &amp; GIFTS', 'SOUNDSATION', 'SPECTRUM COMMUNICATIONS', 'SPENCER STATIONERY CENTER', 'SPRINT', 'SPRINT XPRESS SUPERSTORE', 'STAR WIRELESS', 'STARTEC WIRELESS', 'STAY CONNECTED', 'STEREO EXPRESS', 'STOP N GO WIRELESS', 'STOP ONE WIRELESS ELECTRONICS', 'STORE #02464', 'STORE #02604', 'STORE #02632', 'STORE #835', 'STORE# 1908', 'SUBWAY GAME', 'SUN GIFT &amp; KWON', 'SUN THRIFT SHOP', 'SURE BOY ENTERPRISES', 'SYSUT COMPUTERS', 'T &amp; M AUTO GLASS &amp; ELECTRONICS', 'T MOBILE', 'T-MOBILE', 'T-MOBLE', 'TA PC REPAIR', 'TECHNICAL DIFFICULTIES', 'TELSTAR COMMUNICATIONS', 'TEPTEE TRADING COMPANY', 'THE CRAZY PC', 'THE GAMERZ DEN', 'THE HOT SPOT', 'THE IMAGING WORLD', 'THE INTERCOM + STORE', 'THE MANZANA REAL', 'THE NEW LOUIS APPLIANCES', 'THE NEW NEXT MILLENNIUM', 'THE O.Z.= OUTER ZONE', 'THE PHONE CENTER', 'THE PREFERRED WIRELESS STORE', 'TMZ WIRELESS', "TODAY'S MOBILE INC", 'TOP DIGITAL APPLIANCES', 'TOP GOLD', 'TOP IN TOWN', 'TOP IN TOWN WIRELESS', 'TRAX ON BROADWAY', 'TURNER', 'TV &amp; COMPUTER GUYZ', 'ULTIMA SOUND ANDN SECURITY', 'UNCER BEEP AMERICA', 'UNCLE STEVE CAR STEREO', 'UNITED TELECOM USA', 'UNIVERSITY GOLD-GAMES &amp; ELECTRONICS EXCHANGE', 'UNIVERSITY JEWELRY EXCHANGE', 'UNLIMITED MOTOR SPORTS', 'UNO COMMUNICATION CENTER', 'UPGRADE', 'VALZEE 99C PLUS', 'VEGAS ELECTRONICS', 'VERIZON', 'VERIZON PREMIUM RETAILER', 'VERIZON WIRELESS', 'VERIZON, WIRELESS', 'VICTORY GAMES &amp; ELECTRONICS', 'VIDEO CAMERA CITY', 'VIDEO GAMES MILLENNIUM 2000', 'VIDEO SHINE', 'VIDEO WAVES', 'VIDEOGAMECENTRAL.COM', 'VINTAGE WIRELESS', 'VIVA GAME &amp; PHONE', 'VTI COMPUTER COMPANY', 'W X SHOP', 'WAKEFIELD CANDY', 'WARREN WORLD', 'WATSON PC REPAIR AND SALES', 'WEBSTER SECOND HAND SHOP', "WILAL'S AUTO SOUND", 'WIRELESS @ LEX MEAT DELI GROCERY', 'WIRELESS ADVISOR', 'WIRELESS CAFE', 'WIRELESS CENTRE', 'WIRELESS CHAMPS', 'WIRELESS CHOICE', 'WIRELESS CHOICE.', 'WIRELESS DIRECT', 'WIRELESS ELECTRONICS CITY', 'WIRELESS FOREVER', 'WIRELESS ICON', 'WIRELESS OF L I', 'WIRELESS ONE COMMUNICATION', 'WIRELESS OUTLET', 'WIRELESS PALACE', 'WIRELESS PEOPLE', 'WIRELESS STORE (T MOBILE)', 'WIRELESS TECH', 'WIRELESS TO GO', 'WIRELESS WAREHOUSE', 'WIRELESS WORLD', 'WIRELESSONE', 'WL COMPUTER', 'WOLF TECH SYSTEM', 'WOODSIDE WIRELESS PHONESTORE', 'WORLD ELECTRONICS', 'WORLD ELECTRONICS AND CAMERA', 'WORLD TALK WIRELESS', 'WORLDWIDE COMMUNICATION CENTER.', 'WPI VERIZON WIRELESS', 'WTC WIRELESS GROUP', 'XTEL WIRELESS CORP.', 'XTREAM WIRELESS', 'Y.L. VARIETY &amp; GIFTS COMPANY', 'YECHIEL ABRAMSON', 'YOO SUNG ELECTRONICS', 'Z.COM WIRELESS', 'ZCOM WIRELESS', 'ZENITH WIRELESS #1', 'ZOOM WIRELESS']</t>
         </is>
@@ -775,11 +809,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -831,16 +865,22 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>200</t>
         </is>
       </c>
       <c r="T6" t="n">
+        <v>15</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>12587</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>2327</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '100-23', '1003', '1007', '101', '101-08', '101-103', '101-20', '1010', '1011', '1013', '1014', '1015', '1016', '1017', '1018', '1019', '101A', '102', '102-02', '102-18', '102-34', '102-40', '1022', '1023', '1027', '1027-1031', '102B', '103', '103-01', '103-08', '103-13', '103-18', '103-52', '103-54', '1030', '1031', '1032', '1033', '1034', '1039', '104', '104-02', '104-05', '104-10', '104-37', '1046', '1047', '1049', '105', '105-08', '105-11', '105-17', '1050', '1051', '1054', '1056', '1057', '1059', '106', '106-13', '1061', '1065', '1069', '107', '107-04', '107-06', '107-12', '107-16', '107-24', '107-27', '107-31', '1077', '1078', '107A', '108', '108-44', '108-53', '1086', '109', '109-02', '109-62', '1095', '1099', '109C', '11', '11-03A', '110', '1100', '1101', '1102', '1103', '1104', '11076', '111', '111-01', '111-04', '111-07', '111-13', '1110', '1113', '1115', '1118', '112', '112-01', '112-05', '112-07', '112-11', '112-20', '1121', '1123', '1125', '113', '113-03', '113-04', '113-13', '113-14', '113-20', '113-25', '1130', '11302', '1130C', '1132', '1134', '114', '114-04', '114-06', '114-10', '114-14', '114-57', '1142', '1144', '1144 B', '1149A', '115', '115-05', '115-19', '1150', '116', '116-20', '116-21', '116-28', '116-30', '1160', '1161', '1163', '1164', '1165', '1169', '117', '117-01', '117-25', '117-31', '1171', '1173', '1175', '1177B', '1178', '1179B', '117C', '118', '118-01', '118-02', '118-05', '118-13', '118-20', '1180', '1180B', '1184', '1185', '1186', '119', '119-01', '119-07', '119-12', '119-15', '119-18', '119-19', '1191', '1197 B', '1199', '12', '120', '120-18', '120-20', '1201', '1202', '1204', '1205', '1208', '1209', '121', '121-02', '121-14', '1210', '1211', '1212', '1212A', '1213 A', '1216', '122', '122-13', '122-16', '1220', '1221', '1222', '1224', '1225', '1226', '1227', '1228', '1230', '1232', '1234', '124', '124-07', '1242', '1245', '1249', '125', '1251', '1252', '1255', '1257', '126', '126-07', '1260', '12609', '1265', '1266', '127-05', '127-08', '1270', '1271', '1273', '1274', '1276', '128', '128-02', '1280', '1282', '1285', '1286', '1287', '129', '129-02', '1293-1311', '1295', '13', '13-16', '13-May', '13-Nov', '130', '130-16', '1300', '1301', '1306', '1307', '131-01', '131-07', '131-16', '131-20', '131-29', '131-88F', '13101', '1312', '1312-1318', '1313', '1314', '1317', '132', '132-07', '132-09A', '132-13 A', '13207', '1322', '1323', '1326', '133', '133-12', '133-26', '133-36', '133-45', '133-46', '133-51', '1330', '1332B', '1333', '1338', '134', '134-01', '134-02', '134-07', '134-11', '134-24', '134-40', '1340A', '1344', '1345', '1346', '1347', '1348', '135', '135-01', '135-02', '135-12', '135-18', '135-20', '135-21', '135-22', '135-23', '135-24', '135-25', '135-26', '135-27', '135-28', '135-45', '135-52', '1350', '13503A', '1351', '13518', '1357', '1358', '135C', '136-03', '136-04', '136-10', '136-16', '136-21', '136-27', '136-37', '136-43', '136-51', '136-57', '136-61', '136-76', '136-77', '136-80', '136-82', '1360', '1365A', '1367', '13685', '1369', '137', '137-06', '1375', '137B', '138', '138-10', '138-40A', '1381', '1382', '1385', '1386', '1388', '139', '1390', '1393', '1395', '1396', '14', '14-19', '14-37', '14-55', '14-79', '140', '1402', '1403', '1404-06', '1404A', '1405', '1407', '1409', '141-40', '1410', '1412', '1413', '1414', '142', '1420', '1421', '1422', '1425', '1426', '1427A', '1429', '143-16', '1430', '1431', '144', '144-03', '144-07', '144-09', '144-12', '144-16', '144-24', '144-36A', '144-65', '1440', '1441', '1443', '1447', '1449', '145', '1450', '1450A', '1452', '1453', '146', '146-15', '1460', '1461', '1464', '1466', '147', '147-07', '147-48', '1471', '1473', '1474', '1477', '148', '148-26', '1486', '1488', '149-12', '1491', '1492', '1493-95', '1494', '1495', '149A', '15', '15-33', '150', '150-47A', '150-55C', '1501', '1504', '1505', '1509', '151', '1513', '1515', '1517', '1520', '1522', '1524', '153', '153-14', '153-33C', '153-85', '1530', '1535', '1536', '154', '1540', '1541', '1541B', '1543', '1544', '1546', '155', '1550', '1551', '1552', '1553', '1553-1559', '1556', '156', '156-16', '156-40', '1561', '1566', '1569', '157', '157-14', '157-161', '1572', '1573', '1575', '1577', '1579', '1579B', '158', '158-06', '158-19', '1580', '15805', '1581B', '15825', '1584', '1585', '1586', '159-03', '159-05', '159-20', '159-25', '1591', '1595', '16', '16-39', '16-91', '160', '160-01', '160-10', '160-11', '160-17', '1602B', '1605', '1607', '1608', '161', '161-03', '161-11', '161-19', '1610', '1610 B', '1611', '1612', '1615', '1616', '1617', '1618', '1619', '161A', '161B', '162', '162-01', '162-02', '162-08', '162-10', '162-14', '1620', '1621', '1622', '1623', '163', '163-10', '163-13', '163-15', '163-17', '163-18', '163-23', '163-28', '1630', '1631', '1632', '16328', '16346', '1638-40', '164', '164-02', '164-04', '164-11', '164-12', '164-17', '164-18', '1640', '1642', '1645', '1647', '165', '165-01', '165-10', '165-12', '165-16', '165-50', '1657', '166', '166-11', '166-29', '166-39', '1661', '1668', '1669', '167', '167-13', '1673', '1675', '1676', '1677', '168-04', '168-05', '168-47', '1681', '1683', '1683-1685', '169', '169-16', '1693', '1697', '1698', '169A', '17', '170', '170-08', '170-20', '1700', '1701', '1703', '1704', '1705', '1707', '1708', '1709', '171', '1710', '172', '1721', '1726', '1727', '1733', '1738', '1738A', '174', '1743', '1745', '1747', '175', '175-44', '175-51', '1752', '1753', '1754', '1756', '1759', '176-51', '176-60', '1760', '1766', '1767', '177', '177-01', '1772', '1775', '1777', '178', '178-01', '1787', '179', '179-09', '179-12', '1796', '1798', '1799', '18', '18-15', '180', '180-18', '180-182', '1801', '1805', '1807', '181', '181-02', '1810', '1811', '1815', '1818', '182-30', '1823 A', '1823A', '1824', '1825', '1825A', '183', '183-02', '1839', '184-12', '1845', '185', '185-22', '1852', '1859', '186', '1861', '1865', '1867', '187-12', '1870', '188', '188-12', '188-23', '1880', '1882', '1883', '1886', '1888', '189', '189-01', '189-11', '19', '190', '191-11', '1910', '1913', '1915', '1916', '1918', '192', '192-18', '1923', '1930', '1932', '1934', '1935', '1938', '1939', '1941A', '1949', '195-19', '1957', '196', '196 A', '1960', '1965', '1967', '1970', '1978', '1981', '1984', '1989', '199', '1990', '1998', '2', '20', '200', '200-11', '2000', '2001', '2006', '201', '2012', '2013', '2015', '2021', '2023', '2024', '2035', '2035B', '204-18', '2040', '2041', '2048', '205', '205-02A', '205-03', '205-20', '205-209', '205-47', '2058', '2059A', '206', '206-01', '2061', '2063', '2066', '207', '2076', '208-24', '2083', '209', '209-34', '2096', '2098', '21', '210', '210-25', '2103', '2106A', '211', '211-41', '212-55', '2121', '2122', '2128', '2129', '212B', '213', '2132', '2134', '2136', '2137-A', '214', '2141', '2143', '21439', '2147', '214C', '215', '215-03', '215-12', '215-35', '2150', '2152', '2152A', '21545', '2155', '2157', '2158', '2162', '2163A', '2167', '2168', '217', '217-06', '2170', '2171', '2172', '2174', '2176', '218', '2180', '2181', '2185', '219', '219-02', '219-15A', '219-43', '2193', '2194', '2195', '2196', '22', '22-32', '22-39', '22-48', '22-Jan', '220', '220-36', '2200B', '2202', '2205', '2206', '221', '221-04A', '222', '2220', '2222', '2224', '2226-28', '2227', '223', '2230', '2232', '2233', '2236', '223A', '2246', '2248', '2249', '225', '2253', '2254', '2259', '226', '2260', '2261B', '2263', '2268', '227', '2271', '2274', '2276', '2277', '228', '229', '2296', '23', '23-19', '23-70', '230', '2300', '231-01', '231-46', '2311', '2312', '2314', '2316', '232', '2322', '2323', '233', '234', '2345', '235', '2359', '236-01', '2360-2372', '2361', '2364', '237', '2372', '2375', '2379', '2381', '2386', '2387', '239', '2394', '2395', '2399', '23A', '24', '24-29', '24-Jul', '240', '2400', '2401', '2409', '2414', '2416', '242', '2429', '2430', '2432', '244', '2440', '2445', '245', '2450', '246', '2460', '2461', '2463', '247', '247-22', '2470A', '2476', '2478', '2479', '248', '2481', '2485', '2486', '2488', '2489', '24920', '2498', '25', '25-75', '25-Mar', '250', '2500', '2501-2511', '2501-2525', '2502', '2504', '2505', '2509', '251', '251-01', '251-18', '251-21', '2510', '2514', '2515', '2519', '252-17', '252-20', '2528', '253', '253-01', '253-06', '253-14', '253-25', '253A', '254', '2540', '2545', '255', '255-11', '2555A', '256-01', '256-07', '256-17', '2561', '2563', '2578', '258', '2590', '259B', '26', '2600', '2602', '2605', '261', '261A', '2626', '263', '26318', '2636', '264', '265', '2655', '266', '2667', '267', '268', '2680', '2687', '269', '2691', '2697', '27', '27-18', '27-33', '27-Feb', '270', '2700', '2708', '271', '271-12', '2712', '2723', '2726', '2727', '273', '2734', '2744', '275', '2750', '2758', '276', '2764', '2765', '2768', '276A', '277', '278', '2788', '279', '2791', '2795', '28', '28-30', '28-54', '28-60', '280', '2802', '2803', '281', '2811', '2812', '2817', '2818', '2822', '2831', '2833', '2834', '2839', '284', '2840', '285', '2853', '2855', '2856', '286', '2861', '2863', '2865', '287B', '2882', '2882C', '2882D', '2883', '2887', '289', '2891', '2892', '29', '29-15', '29-17', '29-23', '29-27', '2901', '2917', '2918-B', '293', '2935', '294', '2940', '2945', '2955', '2958', '297', '298', '299', '3', '3-Jan', '30', '30-15', '30-22', '30-27', '30-28', '30-30', '30-31', '30-46', '30-47', '30-60', '30-61', '30-67', '30-69', '30-Jul', '30-Jun', '30-Mar', '300', '3006', '3013', '3015', '3016', '3017-21', '302', '3022', '3029', '303', '3033', '3035', '304', '3047', '305', '306', '3069', '307', '3070A', '3073', '308', '309', '3092', '3097', '31', '31 A', '31-06', '31-13', '31-21', '31-25', '31-52', '31-54', '31-58', '31-78', '31-85', '31-92', '31-May', '310', '3103', '3107', '3108', '311', '312', '3133', '314', '3145', '315', '3155', '316', '317', '3183', '3185', '3189', '319', '31A', '32', '32-02', '32-10', '32-21', '32-41', '32-61', '32-63', '32-64', '32-70', '32-75', '320', '3203', '3204', '321', '3215', '322', '323', '324', '326', '3263', '328', '3286', '3290', '33', '33-19', '33-38', '330', '330-340', '3300', '3302', '331', '3311', '332', '333', '3333', '334', '3346', '334A', '335', '3358', '336', '3360', '3365', '337', '3373', '3376B', '338', '3385', '339', '34', '34-08', '34-09', '34-15', '34-16', '34-31', '34-51 A', '34-53', '34-88', '340', '3406', '3407', '3410', '342', '3421', '3427', '3430', '3439', '344', '3443', '345', '3450', '3452', '3455', '346', '3461', '3462', '3468', '3469', '3471', '3475', '3478', '348', '348-350', '3485', '349', '3492', '3496', '35', '35-00', '35-01', '35-08', '35-15', '35-18', '35-20', '35-44', '35-55 A', '35-59', '350', '3500', '3507', '3508', '3516', '3529', '353', '3530', '3533', '3537', '354', '3540', '3541', '3544', '3544-46', '3545', '3547', '3548', '3555', '356', '3569', '3574', '358', '3587', '36', '36-09', '36-38', '36-42', '360', '361', '362', '3621', '3633', '3642', '3646A', '3649', '365', '3651', '366', '367', '3671', '3672-74', '3676', '368', '369', '3696', '37', '37-02', '37-05', '37-06', '37-07', '37-08', '37-11', '37-12', '37-13', '37-21', '37-26', '37-27', '37-29', '37-31', '37-36', '37-38', '37-42', '37-46', '37-47', '37-48', '37-50', '37-56A', '37-58', '37-65', '37-66', '37-69', '37-70', '370', '3702', '3703', '3706', '3707', '371', '3715', '372', '3727B', '3735C', '374', '3744', '375', '3752', '3760', '3766', '377', '3774', '3779', '378', '3780', '3785B', '38', '38-01', '38-07', '38-08', '38-15', '38-19', '38-31', '3806', '3807', '381', '3820', '383', '3832B', '384', '3840', '3845', '385', '3855', '386', '3865', '387', '3872', '3885', '389', '3897', '3898', '39', '39-07', '39-09', '39-12', '39-24', '39-48B', '39-59', '390', '3905', '3906', '3908', '3910', '3914', '3923', '3924', '3925', '3927', '3939', '395', '396', '397', '3971', '3975', '3977', '398', '398-400', '3981A', '3988', '3989', '4', '40', '40-02A', '40-03', '40-05', '40-12', '40-28', '40-33', '40-34', '400', '4001', '4009', '401', '4010', '4016', '402', '4020', '4021', '4022', '403', '4033', '4036', '404', '4040', '404A', '406', '4062', '408', '4086', '4089', '409', '4095', '41', '41-10A', '41-13', '41-28', '41-35', '41-37', '41-40', '41-43', '41-46', '41-53', '4113', '4115', '4127', '413A', '4153', '416', '4164', '417', '418', '4185', '4186', '4191', '4193', '4194', '4198', '42', '42-18', '42-28', '42-73', '42-99', '420', '422', '4225B', '4229', '423', '4236', '424', '425', '4251', '426', '4260', '427', '43', '43-03', '43-09', '43-10', '43-18', '430', '4300', '4305', '4306', '431', '4318', '4319-4321', '4320', '435', '4352', '436', '4387', '439', '4394', '44', '44-01', '44-35A', '440', '4403', '441', '4415', '4416', '4423', '4424', '443', '444', '445', '45-02', '45-04', '45-16', '45-18', '45-19', '450', '4501', '4502', '4502-4504', '4509-4523', '451', '4511', '4514', '4517', '452', '4522', '453', '456', '457', '458', '459', '46', '46-01', '46-02', '46-24', '46-31', '460', '4603', '4614', '4615', '462', '4624', '463', '465', '469', '47', '47-01', '47-12', '47-21', '470', '4702', '4707', '471', '4712', '472', '472B', '4748', '475', '476', '477', '479', '48', '4802', '4805', '4807', '481', '4813', '4816', '4818', '482', '484', '485', '487', '488', '49', '49-04', '490', '4906', '491', '4915', '4917', '493', '494', '495', '498', '4982', '5', '50', '50-01', '50-02', '500', '5002', '5009', '501', '5019', '502', '502-12', '5024', '503', '507', '508', '509', '51-06B', '51-08', '51-10', '510', '510-512', '5100', '5101', '5102', '5105', '510A', '511', '5115', '5119', '512', '5120', '5130', '514', '515', '516', '516A', '517', '518', '519', '5191', '52', '52-64', '5202', '5208', '521', '5215', '522', '5222', '5225', '523', '524', '5243', '5252', '526', '527', '528', '529', '53', '53-05', '530-532', '5302', '5304', '5305', '5308', '531', '532', '5324', '533', '534', '535', '536', '5383', '5389', '539', '54', '54-02', '54-13', '54-20', '54-58', '540', '5401', '5404', '5406', '541', '5416', '542', '5424', '543', '546', '547', '548', '55', '55-08', '55-25', '55-28', '55-43', '55-48', '55-59', '550', '5502', '5505', '5507', '5510', '5511', '5515', '5517', '5520', '5529', '553', '5536', '555', '556', '5561', '557', '5585', '56', '56-06', '56-09', '56-10', '56-43', '56-44', '5602', '5606', '561', '5613', '5621', '5625', '563', '566', '5680', '569', '57', '57-20', '57-23', '57-27', '57-31', '57-36', '57-49', '570', '5701', '5703', '5706', '570A', '5713', '5716', '5722', '5724', '575', '576', '578', '579', '58', '58-12', '58-46', '580', '5809', '581', '5813', '5814', '5818', '5821', '5824', '583A', '585A', '588-590', '589', '59', '59-07', '59-08', '59-09', '59-41', '590', '5903', '5904', '5905', '5914', '592', '5920', '595', '596', '597', '6', '6-Apr', '60', '60-15', '60-31', '60-40', '60-68', '60-92', '6003', '601', '6011', '6012', '602', '603', '607', '608', '609', '61', '61-36', '61-38', '61-44', '610', '6101', '6103', '6104', '6111', '612', '6135', '614', '617', '618', '618-620', '619', '62', '62-01', '62-04', '62-12', '62-15', '62-19', '620', '6209', '6216', '622', '625', '626', '627', '63', '63-25', '63-50', '6302', '6305', '6306', '6313', '6320', '634', '63A', '64', '64-01', '64-13', '641-645', '6411', '6413', '6417', '641A', '648', '65', '65-30', '650', '651', '6510', '6516', '6520', '653', '654', '655', '658', '659', '66', '66-10', '66-11', '66-17', '66-22', '66-26', '66-31', '66-68', '66-76', '66-97', '660', '6610', '6617', '6626', '664', '665', '67', '67-01', '67-05', '67-13', '671', '6713', '6719', '6723', '6729', '6750', '677', '68', '68-18', '68-19', '68-22', '6803', '681', '6812', '6817', '682', '685C', '687', '688', '689', '69', '69-02', '69-04', '69-18', '69-27', '69-43', '6905', '6908', '691', '6915', '6919', '692', '6930', '694', '696', '698-B', '699', '7', '7-Mar', '70', '70-01', '70-08', '70-09', '70-10', '70-15', '70-33', '70-34', '70-62', '700', '7001', '7008', '701', '702', '7021', '7030', '7033', '706', '707', '708', '71', '71-06', '71-14', '71-54', '710', '711', '712', '7128A', '714', '715', '716', '717', '719A', '719B', '71B', '72', '72-04A', '72-24', '72-30', '7207', '7208', '722', '723', '7232', '726', '729', '73', '73-02', '73-08', '73-16A', '73-17', '73-22', '730', '7312', '732', '733', '734', '735', '738', '74', '74-13A', '74-18', '74-21', '740', '7411', '742', '743', '745', '747', '749', '75', '75-06', '75-10', '75-17', '75-20B', '75-25', '75-44', '75-45', '750', '750-752', '751', '7513', '7514', '7525', '753', '755', '756', '757', '76', '76-05', '76-09', '76-10', '76-14', '760', '7601', '762', '7622', '764', '766', '767', '769', '77-02', '77-20', '771', '7716', '7718', '7720', '7725', '773', '775', '776', '777', '78', '78-14', '78-19', '78-23', '780', '781', '7810', '7814', '782', '783', '784', '785', '786', '78A', '79', '79-01', '79-12', '79-19', '79-20', '79-21', '79-26', '79-28', '79-37', '79-41', '79-55', '79-63', '790', '7926', '793', '796', '797', '8', '80', '80-06', '80-12', '80-13', '80-23', '80-88', '8000', '8002B', '8007', '802', '807', '81', '81-08', '81-14', '81-20', '81-22', '81-69A', '810', '8118', '8119', '8146', '817', '818', '819', '82', '82-02', '82-03', '82-05', '82-10', '82-13', '82-19', '82-25', '82-49', '820', '8217', '8221', '824', '828', '83-01', '83-11', '83-12', '83-26', '83-44', '830', '831', '8325', '835', '836', '838', '839', '84-02', '84-18', '84-38', '840', '841', '8416', '8418', '843', '844', '845', '847', '85', '85-02', '85-04', '85-07A', '85-24', '850', '8505A', '8507A', '8510', '852', '8520', '8524', '859', '86', '86-01', '86-10', '86-18', '86-32A', '86-40', '860', '8604', '861', '8620', '8624', '863', '8635', '864', '8640', '866', '866 A', '869', '87', '87-07', '87-09', '87-10B', '87-18', '87-20', '87-48', '87-64', '87-76', '87-79', '87-86', '87-87', '8701', '872', '873', '874', '8742', '875', '879', '88', '88-01', '88-04', '88-17', '88-20', '88-90', '880', '8804', '8815', '883', '884', '89', '89-02', '89-05', '89-23', '89-25', '89-27', '89-55', '892', '893', '896', '8973', '898', '9', '9-Jan', '9-May', '90', '90-07', '90-13', '90-15', '90-17', '90-24', '90-30', '90-45', '90-52', '90-81', '90-83', '90-92', '9008', '901', '9021', '906', '907', '9081', '909', '91', '91-10', '91-11', '91-18', '91-19', '91-30', '91-31', '91-41', '912', '914', '915A', '918', '919-921', '92', '92-11', '92-12', '92-29', '92-63', '9225', '925', '927', '928', '92A', '93', '93-05', '93-09', '93-12', '93-15', '93-18', '93-99', '9312', '9319', '932', '9321', '933', '933A', '934', '935', '936', '937', '939', '94-01', '94-02B', '94-05', '94-12', '94-14', '94-17', '940', '9403', '9408', '942', '943B', '944', '945', '946', '947', '948', '949', '95', '95-02', '95-02C', '95-12', '95-17', '95-19', '95-23', '95-44', '95-48A', '95-54', '951', '953', '954', '9557', '956', '95C', '96-02', '96-05', '96-07', '96-09', '96-14', '96-15G', '96-21', '96-33', '96-35', '96-50', '96-98', '965', '967A', '97', '97-05', '97-17', '97-20', '970', '9701', '971', '9718', '972', '9730', '976', '97A', '98-05', '98-09A', '98-10', '980', '9806', '981', '985', '989', '99', '992', '993B', '994', '996', '999']</t>
         </is>
@@ -853,11 +893,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -913,12 +953,18 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>210</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>42895</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>697</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['1 AVENUE', '10 AVENUE', '101 AVENUE', '103 STREET', '108 STREET', '10TH AVE', '11 AVENUE', '113 STREET', '12TH ROAD', '13 AVENUE', '13TH AVE', '14 AVENUE', '148 STREET', '15 AVENUE', '15 STREET', '150 STREET', '153 AVENUE', '154 STREET', '16 AVENUE', '162 STREET', '165 STREET', '168 STREET', '168TH ST', '18 AVENUE', '188 STREET', '190 STREET', '1ST AVE', '2 AVENUE', '20 AVENUE', '21 ST', '21 STREET', '21ST STREET', '23 AVENUE', '230 STREET', '26 AVENUE', '2ND AVENUE', '3 AVENUE', '30 AVENUE', '31 AVENUE', '31 STREET', '35 AVENUE', '36 AVENUE', '36 STREET', '36TH AVE', '37 AVENUE', '37 ROAD', '37TH AVENUE', '37TH ROAD', '38 STREET', '39 AVENUE', '39 STREET', '39TH AVE', '3RD AVE', '3RD AVENUE', '4 AVENUE', '40 ROAD', '40TH AVENUE', '40TH ROAD', '41 AVENUE', '41 ROAD', '41ST AVENUE', '41ST STREET', '45 AVENUE', '45 STREET', '48 AVENUE', '48 STREET', '48TH AVE', '49 STREET', '4TH AVENUE', '5 AVE', '5 AVENUE', '51 STREET', '54 STREET', '55 STREET', '57 AVENUE', '59TH AVENUE', '5TH AVE', '5TH AVENUE', '6 AVENUE', '60 STREET', '61 STREET', '63 DRIVE', '65 STREET', '68 STREET', '69 STREET', '6TH AVE', '7 AVENUE', '7 AVENUE SOUTH', '70 STREET', '71 AVENUE', '71ST AVENUE', '73 STREET', '74 STREET', '75 STREET', '77 STREET', '77TH ST', '7TH AVENUE', '8 AVENUE', '82 ND STREET', '82 STREET', '82ND STREET', '84 DRIVE', '86 ST', '86 STREET', '86TH ST', '87 STREET', '8TH  AVENUE', '8TH AVE', '8TH AVENUE', '8TH STREET', '9 AVE', '9 AVENUE', '9 STREET', '91 STREET', '91TH ST', '94 STREET', '96 STREET', '9TH AVE', '9TH ST', 'ADAM CLAYTON POWELL BOULEVARD', 'ADAM CLAYTON POWELL JR BLVD', 'AKRON ST', 'ALBION AVENUE', 'ALLEN STREET', 'ALLERTON AVE', 'ALLERTON AVENUE', 'AMBOY ROAD', 'AMSTERDAM  AVENUE', 'AMSTERDAM AVENUE', 'AMTRAK PENN STATION', 'ARCHER AVENUE', 'ARTHUR AVENUE', 'ASTORIA BOULEVARD', 'ATLANTIC AVENUE', 'AUDUBON AVENUE', 'AUSTIN STREET', 'AVE J', 'AVE OF THE AMERICAS', 'AVENUE A', 'AVENUE B', 'AVENUE D', 'AVENUE J', 'AVENUE M', 'AVENUE N', 'AVENUE OF AMERICAS', 'AVENUE OF THE AMERICAS', 'AVENUE P', 'AVENUE U', 'AVENUE X', 'AVENUE Z', 'AVERY AVENUE', 'B CROSSBAY BOULEVARD', 'BAINBRIDGE AVENUE', 'BARRETT AVENUE', 'BARTOW AVENUE', 'BATH AVE', 'BATH AVENUE', 'BAXTER AVENUE', 'BAY   31 STREET', 'BAY 25TH ST', 'BAY 25TH STREET', 'BAY PARKWAY', 'BAY PKWY', 'BAY PLAZA', 'BAY STREET', 'BAYARD STREET', 'BAYCHESTER AVENUE', 'BEACH   20 STREET', 'BEACH   21 STREET', 'BEACH  116 STREET', 'BEACH  129 STREET', 'BEACH CHANNEL DRIVE', 'BEAVER STREET', 'BEDFORD AVENUE', 'BEEKMAN STREET', 'BELL BOULEVARD', 'BLEECKER STREET', 'BOSTON POST ROAD', 'BOSTON ROAD', 'BOWERY', 'BOWERY STREET', 'BRADDOCK AVENUE', 'BRIGHTON    4 STREET', 'BRIGHTON    5 STREET', 'BRIGHTON BEACH AVENUE', 'BRITTON AVENUE', 'BROAD STREET', 'BROADWAY', 'BRONX BOULEVARD', 'BRONX RIVER AVENUE', 'BRONXDALE AVENUE', 'BROOK AVENUE', 'BROOME STREET', 'BRUCKNER BOULEVARD', 'BURKE AVENUE', 'BURNSIDE AVENUE', 'CANAL', 'CANAL STREET', 'CASTLE HILL AVE', 'CASTLE HILL AVENUE', 'CASTLETON AVENUE', 'CATHERINE STREET', 'CENTRE STREET', 'CHAMBERS STREET', 'CHATHAM SQUARE', 'CHRYSTIE STREET', 'CHURCH AVE', 'CHURCH AVENUE', 'CHURCH STREET', 'CLARKSON AVENUE', 'CLEVELAND STREET', 'CLINTON STREET', 'CLOVE ROAD', 'CO-OP CITY BOULEVARD', 'COLLEGE POINT BOULEVARD', 'COLUMBUS AVENUE', 'CONEY ISLAND', 'CONEY ISLAND AVENUE', 'CONKLIN AVENUE', 'CONTINENTAL AVENUE', 'COOPER AVENUE', 'CORTELYOU ROAD', 'COURT ST', 'COURT STREET', 'COURTLANDT AVENUE', 'CRESCENT STREET', 'CRESTON AVENUE', 'CROSBY AVENUE', 'CROSS BAY BLVD', 'CROSS BAY BOULEVARD', 'CROSS ISLAND PARKWAY', 'CROSSBAY BOULEVARD', 'CROTONA AVENUE', 'CYPRESS AVENUE', 'DAHILL ROAD', 'DAVIDSON AVENUE', 'DEKALB AVENUE', 'DELANCEY STREET', 'DELANCY STREET', 'DITMARS BOULEVARD', 'DITMAS AVENUE', 'DIVISION STREET', 'DRIGGS AVENUE', 'DUANE STREET', 'DYCKMAN STREET', 'DYRE AVENUE', 'E 149TH ST', 'E 174TH ST', 'E 184TH ST', 'E 2ND ST', 'E BROADWAY', 'E FORDHAM RD', 'E FORDHAM ROAD', 'E GREAVES LANE', 'E MOUNT EDEN AVE', 'EAST    1 STREET', 'EAST    2 STREET', 'EAST    9 STREET', 'EAST   10 STREET', 'EAST   14 STREET', 'EAST   16 STREET', 'EAST   17 STREET', 'EAST   23 STREET', 'EAST   33 STREET', 'EAST   34 STREET', 'EAST   37 STREET', 'EAST   42 STREET', 'EAST   46 STREET', 'EAST   49 STREET', 'EAST   51 STREET', 'EAST   53 STREET', 'EAST   55 STREET', 'EAST   57 STREET', 'EAST   58 STREET', 'EAST   66 STREET', 'EAST   72 STREET', 'EAST   77 STREET', 'EAST   86 STREET', 'EAST   89 STREET', 'EAST   98 STREET', 'EAST   99 STREET', 'EAST  107 STREET', 'EAST  110 STREET', 'EAST  116 STREET', 'EAST  117 STREET', 'EAST  125 STREET', 'EAST  137 STREET', 'EAST  138 STREET', 'EAST  148 STREET', 'EAST  149 STREET', 'EAST  161 STREET', 'EAST  163 STREET', 'EAST  165 STREET', 'EAST  167 STREET', 'EAST  169 STREET', 'EAST  170 STREET', 'EAST  174 STREET', 'EAST  175 STREET', 'EAST  180 STREET', 'EAST  187 STREET', 'EAST  188 STREET', 'EAST  198 STREET', 'EAST  204 STREET', 'EAST  233 STREET', 'EAST 116 STREET', 'EAST 117 STREET', 'EAST 125 STREET', 'EAST 149 STREET', 'EAST 167 STREET', 'EAST 204 STREET', 'EAST 42 STREET', 'EAST 42ND STREET', 'EAST 46 STREET', 'EAST 4TH STREET', 'EAST 8TH STREET', 'EAST AVENUE', 'EAST BEDFORD PARK BLVD', 'EAST BEDFORD PARK BOULEVARD', 'EAST BROADWAY', 'EAST BURNSIDE AVENUE', 'EAST FORDHAM ROAD', 'EAST GUN HILL ROAD', 'EAST GUNHILL ROAD', 'EAST KINGSBRIDGE ROAD', 'EAST MOSHOLU PARKWAY', 'EAST MOUNT EDEN AVENUE', 'EAST NEW YORK AVENUE', 'EAST TREMONT AVE', 'EAST TREMONT AVENUE', 'EASTCHESTER ROAD', 'EASTERN PARKWAY', 'EASTERN PKWY', 'EDWARD L GRANT HIGHWAY', 'EIGHTH AVENUE', 'ELDRIDGE STREET', 'ELIOT AVENUE', 'ELIZABETH STREET', 'ELTON AVENUE', 'EMMONS AVENUE', 'EMPIRE BOULEVARD', 'ESSEX STREET', 'EXTERIOR ST', 'EXTERIOR STREET', 'FARMERS BOULEVARD', 'FARRINTON STREET', 'FASHION AVE', 'FASHION AVENUE', 'FEATHERBED LANE', 'FIFTH AVENUE', 'FIRST AVENUE', 'FLATBUSH AVE', 'FLATBUSH AVENUE', 'FLATBUSH AVENUNE', 'FLATLANDS AVENUE', 'FLUSHING AVENUE', 'FORDHAM ROAD', 'FOREST AVENUE', 'FORSYTH STREET', 'FORT HAMILTON PARKWAY', 'FRANCIS LEWIS BOULEVARD', 'FRANKLIN AVENUE', 'FREDERICK DOUGLAS BOULEVARD', 'FREDRICK DOUGLASS BLVD', 'FREDRICK DOUGLASS BOULEVARD', 'FRESH POND ROAD', 'FRONT STREET', 'FT HAMILTON PARKWAY', 'FULTON MALL', 'FULTON STREET', 'GATES AVENUE', 'GATEWAY CENTER BOULEVARD', 'GATEWAY DRIVE', 'GERARD AVENUE', 'GRAHAM AVENUE', 'GRAND AVE', 'GRAND AVENUE', 'GRAND AVNEUE', 'GRAND CONCOURSE', 'GRAND STREET', 'GREEN ACRES MALL', 'GREENE STREET', 'GREENPOINT AVENUE', 'GREENWICH STREET', 'GUY R BREWER BLVD', 'GUY R BREWER BOULEVARD', 'HALL STREET', 'HENDRIX STREET', 'HENRY STREET', 'HESTER STREET', 'HILLSIDE AVE', 'HILLSIDE AVENUE', 'HOFFMAN STREET', 'HOLLIS AVENUE', 'HORACE HARDING BLVD', 'HORACE HARDING EXPRESSWA', 'HORACE HARDING EXPRESSWAY', 'HORIZON PLAZA', 'HOYT STREET', 'HUGH GRANT CIRCLE', 'HUNTS POINT AVENUE', 'HYLAN BOULEVARD', 'INWOOD AVENUE', 'JACKSON AVENUE', 'JAMAICA AVE', 'JAMAICA AVENUE', 'JAY ST', 'JAY STREET', 'JEROME AVE', 'JEROME AVENUE', 'JOHN STREET', 'JOHNSON AVENUE', 'JUNCTION BLVD', 'JUNCTION BOULEVARD', 'KATONAH AVENUE', 'KEW GARDENS ROAD', 'KINGS HIGHWAY', 'KINGS PLAZA', 'KINGS PLAZA MALL', 'KINGSTON AVE', 'KINGSTON AVENUE', 'KISSENA BLVD', 'KISSENA BOULEVARD', 'KNICKERBOCKER AVE', 'KNICKERBOCKER AVENUE', 'LAFAYETTE STREET', 'LEAVITT STREET', 'LEE AVE', 'LEE AVENUE', 'LEFFERTS BLVD', 'LEFFERTS BOULEVARD', 'LEGION STREET', 'LENOX AVENUE', 'LEXINGTON AVE', 'LEXINGTON AVENUE', 'LIBERTY AVE', 'LIBERTY AVENUE', 'LINCOLN AVENUE', 'LINDEN BOULEVARD', 'LINDEN PLACE', 'LIVINGSTON STREET', 'LONGWOOD AVENUE', 'LORING AVENUE', 'LYDIG AVENUE', 'MACOMBS ROAD', 'MADISON AVENUE', 'MADISON ST', 'MADISON STREET', 'MAIDEN LANE', 'MAIN ST', 'MAIN STREET', 'MANHATTAN AVENUE', 'MARATHON PARKWAY', 'MARTIN LUTHER KING BOULEVARD', 'MCDONALD AVENUE', 'MCGUINNESS BOULEVARD', 'MELROSE AVENUE', 'MERMAID AVE', 'MERMAID AVENUE', 'MERRICK BLVD', 'MERRICK BOULEVARD', 'MESEROLE AVENUE', 'MESEROLE STREET', 'METROPOLITAN AVE', 'METROPOLITAN AVENUE', 'MIDDLETOWN ROAD', 'MONTAGUE STREET', 'MONTROSE AVENUE', 'MORGAN AVENUE', 'MORRIS AVENUE', 'MORRIS PARK AVE', 'MORRIS PARK AVENUE', 'MOTHER GASTON BOULEVARD', 'MOTT AVENUE', 'MOTT STREET', 'MYRTLE AVE', 'MYRTLE AVENUE', 'NAGLE AVENUE', 'NASSAU', 'NASSAU AVENUE', 'NASSAU STREET', 'NATIONAL STREET', 'NEPTUNE AVENUE', 'NEVINS STREET', 'NEW DORP LANE', 'NEW DORP PLAZA', 'NEW UTRECHT AVENUE', 'NEWKIRK AVENUE', 'NEWKIRK PLAZA', 'NINTH AVENUE', 'NORTH    6 STREET', 'NORTHERN BLVD', 'NORTHERN BOULEVARD', 'NOSTRAND AVE', 'NOSTRAND AVENUE', 'OCEAN AVENUE', 'OGDEN AVENUE', 'ORCHARD STREET', 'PAGE AVE', 'PAGE AVENUE', 'PARK AVENUE', 'PARK AVENUE SOUTH', 'PARK PLACE', 'PARK ROW', 'PARKSIDE AVENUE', 'PARSONS BLVD', 'PARSONS BOULEVARD', 'PENN PLAZA', 'PENNSYLVANIA AVENUE', 'PITKIN AVENUE', 'PORT RICHMOND AVENUE', 'POST AVENUE', 'PRINCE STREET', 'PROSPECT AVE', 'PROSPECT AVENUE', 'PROSPECT PARK WEST', 'PUTNAM AVENUE', 'QUEENS BLVD', 'QUEENS BOULEVARD', 'QUEENS MALL CENTER', 'QUEENS PLAZA SOUTH', 'QUENTIN ROAD', 'RALPH AVE', 'RALPH AVENUE', 'REMSEN AVENUE', 'RICHMOND AVE', 'RICHMOND AVENUE', 'RIVER AVENUE', 'RIVINGTON STREET', 'ROCKAWAY AVENUE', 'ROCKAWAY BEACH BOULEVARD', 'ROCKAWAY BLVD', 'ROCKAWAY BOULEVARD', 'ROCKAWAY PARKWAY', 'ROCKAWAY PKWY', 'ROCKEFELLER PLAZA', 'ROEBLING STREET', 'ROGERS AVENUE', 'ROOSEVELT AVE', 'ROOSEVELT AVENUE', 'ROSS STREET', 'RUTLAND ROAD', 'SAINT NICHLOAS AVENUE', 'SAINT NICHOLAS AVENUE', 'SARATOGA AVENUE', 'SEAVIEW AVENUE', 'SECOND AVENUE', 'SENECA AVE', 'SENECA AVENUE', 'SEVENTH AVENUE', 'SHEEPSHEAD BAY ROAD', 'SHERMAN AVENUE', 'SIXTH AVENUE', 'SMITH STREET', 'SOUTH CONDUIT AVENUE', 'SOUTH STREET', 'SOUTHERN BLVD', 'SOUTHERN BOULEVARD', 'SPRING STREET', 'SPRINGFIELD BOULEVARD', 'ST MARKS PLACE', 'ST NICHOLAS AVE', 'ST NICHOLAS AVENUE', 'STEINWAY ST', 'STEINWAY STREET', 'STILLWELL AVENUE', 'STRANTTON STREET', 'STRATTON STREET', 'STRAUSS STREET', 'SUMPTER STREET', 'SURF AVENUE', 'SUTPHIN BLVD', 'SUTPHIN BOULEVARD', 'SUTTER AVENUE', 'TARGEE STREET', 'TATRO ST', 'THATFORD AVENUE', 'THIRD AVE', 'THIRD AVENUE', 'TIMES SQUARE', 'TOMPKINS AVENUE', 'TRINITY PL', 'TRINITY PLACE', 'TURNBULL AVENUE', 'UNION SQUARE EAST', 'UNION SQUARE WEST', 'UNION STREET', 'UNION TURNPIKE', 'UNIVERSITY AVENUE', 'UNIVERSITY PLACE', 'UTICA AVENUE', 'VAN WICK EXPRESSWAY', 'VAN WYCK EXPRESSWAY', 'VANDERBILT AVENUE', 'VARICK STREET', 'VESEY STREET', 'VETERANS ROAD W', 'VETERANS ROAD WEST', 'VICTORY BLVD', 'VICTORY BOULEVARD', 'VOORHIES AVENUE', 'W 116TH ST', 'W 125TH ST', 'W 207TH ST', 'W 40TH ST', 'W 42ND ST', 'W 6TH ST', 'W. KINGSBRIDGE ROAD', 'WALKER STREET', 'WALL STREET', 'WALLABOUT STREET', 'WASHINGTON AVENUE', 'WATER STREET', 'WATSON AVENUE', 'WEBSTER AVENUE', 'WEST    4 STREET', 'WEST   14 STREET', 'WEST   17 STREET', 'WEST   18 STREET', 'WEST   20 STREET', 'WEST   22 STREET', 'WEST   22ND STREET', 'WEST   23 STREET', 'WEST   26 STREET', 'WEST   27 STREET', 'WEST   28 STREET', 'WEST   29 STREET', 'WEST   30 STREET', 'WEST   31 STREET', 'WEST   32 STREET', 'WEST   33 STREET', 'WEST   34 STREET', 'WEST   35 STREET', 'WEST   37 STREET', 'WEST   38 STREET', 'WEST   39 STREET', 'WEST   40 STREET', 'WEST   42 STREET', 'WEST   44 STREET', 'WEST   45 STREET', 'WEST   46 STREET', 'WEST   48 STREET', 'WEST   49 STREET', 'WEST   50 STREET', 'WEST   51 STREET', 'WEST   57 STREET', 'WEST   71 STREET', 'WEST   72 STREET', 'WEST   86 STREET', 'WEST   91 STREET', 'WEST   96 STREET', 'WEST  116 STREET', 'WEST  125 STREET', 'WEST  165 STREET', 'WEST  173 STREET', 'WEST  179 STREET', 'WEST  181 STREET', 'WEST  183 STREET', 'WEST  190 STREET', 'WEST  207 STREET', 'WEST  211 STREET', 'WEST  225 STREET', 'WEST  231 STREET', 'WEST  236 STREET', 'WEST 125 STREET', 'WEST 167 STREET', 'WEST 181 STREET', 'WEST 207TH STREET', 'WEST 29 STREET', 'WEST 32 STREET', 'WEST 34 STREET', 'WEST 34TH STREET', 'WEST 45TH STREET', 'WEST 8 STREET', 'WEST BROADWAY', 'WEST BURNSIDE AVEMUE', 'WEST BURNSIDE AVENUE', 'WEST FORDHAM ROAD', 'WEST KINGSBRIDGE ROAD', 'WESTCHESTER AVE', 'WESTCHESTER AVENUE', 'WESTCHESTER SQUARE', 'WHITE PLAINS RD', 'WHITE PLAINS ROAD', 'WHITESTONE EXPRESSWAY', 'WILLIAMSBRIDGE ROAD', 'WILLIS AVENUE', 'WILLOUGHBY STREET', 'WILSON AVENUE', 'WILSON STREET', 'WOODBINE STREET', 'WOODHAVEN BOULEVARD', 'WOODSIDE AVENUE', 'WYCKOFF AVENUE', 'WYTHE AVENUE', 'YELLOWSTONE BOULEVARD', 'YORK AVENUE', 'ZEREGA AVENUE']</t>
         </is>
@@ -931,11 +977,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -987,12 +1033,18 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
+        <v>2856</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>3587</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>298</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['# 11', '# LEFTSIDE', '#01889', '#01890', '#1', '#1020 QUEENS CENTER MALL LEVEL 1', '#106', '#113', '#2359', '#2848', '#2849', '#3', '#3 (AKA 734 AMSTERDAM AVENUE)', '#3691', '#42', '#609', '#68', '#A', '#A1', '#B', '#MW12B', '1', '1 FLOOR', '1/FL', '1224-1226', '15-33 PARK ROW', '158-160', '1D', '1ST FL', '1ST FLOOR', '1ST LEVEL', '2 FLOOR', '2/FL', '2/FL.', '2076A JEROME AVE', '24', '2855', '2B', '2G', '2ND FLOOR', '3', '3/FL', '302-306 GRAND STREET STORE B', '3738-3742', '3A', '403-405 6 AVENUE', '4E', '4TH FLOOR', '596-598 LENOX AVENUE', '5TH FLOOR', '66 STREET', '695-699 6 AVENUE', '75-06 08', '75-18B BROADWAY', '9', 'A', 'A/K/A 1100 AVE OF THE AMERICAS', 'A/K/A 1546 3 AVENUE', 'A/K/A 163-19-35 JAMAICA AVENUE', 'A/K/A 2177 EAST 21 STREET', 'A/K/A 3371-3373 DECATUR AVENUE', 'A/K/A 456 FULTON STREET', 'A/K/A 59-77 DIVISION ST UNIT 108', 'A/K/A 601 WEST 176 STREET', 'A/K/A 8TH AVENUE', 'A04', 'A1', 'AKA (277-279 GRAND ST)', 'AKA 2121-2123 86 ST.', 'AKA 221 SHERMAN AVE', 'AKA 492 BROADWAY', 'AKA MARTIN L. KING JR. BLVD', 'AKA/2519-2525 CRESTON AVENUE', 'AMTRACK CONCOURSE', 'APT', 'APT #2F', 'APT 1R', 'APT B104', 'APT# 1C', 'APT# N3', 'AT PORT AUTHORITY BUS TERMINAL', 'ATLANTIC TERMINAL MALL', 'B', 'BASEMENT', 'BEST BUY MOBILE #2100', 'BET.BDWAY.&amp; BENNETT', 'BLDG. A', 'BOOTH #1-A', 'BOOTH MW1', 'BOOTH# 125', 'BOOTH# 235', 'BRUCKNER PLAZA', 'BTH B', 'BTH#B', 'CONCOURSE SPACE MA', 'CU# 8', 'CU9', 'ELECTCHESTER SHOPPING CENTER/14', 'F16', 'F20', 'FIRST FLOOR', 'FLOOR', 'FRONT SECTION', 'GROUND', 'GROUND FLOOR', 'GROUND FLOOR/BSMT.', 'INSIDE MALL PIER#17', 'K', 'K1', 'K205', 'KIOSK #6518', 'KIOSK #TMP 9 CONCOURSE LEVEL', 'LEFT CORNER', 'LEFT UNIT', 'MAIN CONC.', 'MNAHATTAN MALL', 'MOBILE ZONE   ( UNIT P)', 'MOBILE ZONES', 'NUMBER A', 'PIER 17 PAVILION #2120', 'QUEENS CENTER MALL', 'RADIO SHACK #2837', 'RADIO SHACK #2838', 'RADIO SHACK 2853', 'REAR LOBBY', 'REAR STORE', 'ROOM', 'ROOM # 204', 'ROOM A101', 'ROOM# 117 FIRST FLOOR', 'ROOM# 407', 'RT 25A', 'SHOPPING CENTER', 'SP# 13-55', 'SPACE #T-109', 'SPACE 1130', 'SPACE 227', 'SPACE 2710', 'SPACE A. (IN MINI MALL)', 'SPACE B1C', 'SPACE D105', 'SPACE#  K-101', 'SPACE# 5512', 'SPACE# K-304', 'SPACE# K-4', 'SPACE#1', 'SPC K-002', 'SPC K-12', 'SPC K-304', 'SPC K-7', 'SPC. 2600', 'SPOT#E1', 'STE 4', 'STE A', 'STE E1', 'STORE', 'STORE  1', 'STORE  4', 'STORE # 2745', 'STORE # 4', 'STORE #01-2864', 'STORE #01-2865', 'STORE #02947', 'STORE #1', 'STORE #1363', 'STORE #1507 (THE HUB)', 'STORE #205 CORNER OF FLATBUSH-U', 'STORE #2603', 'STORE #2606', 'STORE #2610', 'STORE #2616', 'STORE #2618', 'STORE #2623', 'STORE #2624', 'STORE #2631', 'STORE #2647', 'STORE #2649', 'STORE #2664', 'STORE #2673', 'STORE #2676', 'STORE #2693', 'STORE #2747', 'STORE #2751', 'STORE #2761', 'STORE #2762', 'STORE #2764', 'STORE #2773', 'STORE #2804', 'STORE #2809', 'STORE #2820', 'STORE #2822', 'STORE #2823', 'STORE #3', 'STORE #4', 'STORE #469', 'STORE #483', 'STORE #5', 'STORE #5943', 'STORE #6-117', 'STORE #6311', 'STORE #7', 'STORE #8', 'STORE #9', 'STORE #A2', 'STORE #C', 'STORE 1', 'STORE 102', 'STORE 1115', 'STORE 1418', 'STORE 2', 'STORE 2612', 'STORE 2619', 'STORE 2657', 'STORE 2661', 'STORE 2667', 'STORE 2678', 'STORE 2683', 'STORE 2684', 'STORE 2686', 'STORE 2694', 'STORE 2703', 'STORE 2767', 'STORE 2781', 'STORE 2818', 'STORE 3', 'STORE 3697', 'STORE 4', 'STORE 4A', 'STORE 5', 'STORE 537', 'STORE 5496', 'STORE 5504', 'STORE 6', 'STORE A', 'STORE A1', 'STORE A2', 'STORE B', 'STORE C', 'STORE FRONT', 'STORE L', 'STORE# 01-2882', 'STORE# 01-2884', 'STORE# 01-2885', 'STORE# 1', 'STORE# 1448', 'STORE# 1531', 'STORE# 2', 'STORE# 4', 'STORE# 5970', 'STORE# 8', 'STORE# A1', 'STORE# B-1', 'STORE# B5', 'STORE#1798', 'STORE#4-112,G/LEVEL-THE SHOP @ A', 'SUITE # 109', 'SUITE #109', 'SUITE #C7', 'SUITE #G', 'SUITE 1', 'SUITE 1-R', 'SUITE 101', 'SUITE 103', 'SUITE 105', 'SUITE 106', 'SUITE 108', 'SUITE 1105', 'SUITE 1140', 'SUITE 302', 'SUITE 7', 'SUITE A', 'SUITE B', 'SUITE B100', 'SUITE B106A', 'SUITE C-5', 'SUITE CU-5', 'SUITE# A', 'SUITE#121', 'SUITE#2', 'SUITE#6', 'SUTE# B1', 'UNIT # 2', 'UNIT #28', 'UNIT #B', 'UNIT 104', 'UNIT 16', 'UNIT A', 'UNIT B', 'UNIT C', 'UNIT G', 'UNIT G6U', 'UNIT# 55', 'UNIT# C', 'UNIT# CS3', 'UNITS 111 &amp; 112', 'UPPER LEVEL EAST', 'UPPER SOUTH STORE', 'WEST STORE']</t>
         </is>
@@ -1005,11 +1057,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1065,12 +1117,18 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>887</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>25631</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>91</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['ASTORIA', 'BAYSIDE', 'BELLE HARBOR', 'BELLEROSE', 'BKLYN', 'BRONX', 'BROOKLYN', 'BROOKLYUN', 'BROOKYN', 'BROOLYN', 'BROXN', 'COLLEGE POINT', 'CORONA', 'DOUGLASTON', 'EAST ELMHURST', 'EAST ELNHURST', 'ELMHURST', 'ELNHURST', 'FAR ROCKAWAY', 'FLORAL PARK', 'FLUSHING', 'FOREST HILLS', 'FRESH MEADOOWS', 'FRESH MEADOWS', 'GLENDALE', 'HOLLIS', 'HOWARD BEACH', 'JACKSON HEIGHTS', 'JACKSON HGHTS', 'JACKSON HGTS', 'JACKSON HTS', 'JAMAICA', 'JAMAICA AVENUE', 'JAMAICIA', 'JAMIACA', 'KEW GARDENS', 'LAURELTON', 'LIC', 'LITTLE NECK', 'LONG IS. CITY', 'LONG ISLAND CIT', 'LONG ISLAND CIY', 'LONG ISLAND CTY', 'LONG ISLND CITY', 'LONG ISND CITY', 'MANHATTAN', 'MASPETH', 'MIDDLE VILLAGE', 'NEW HYDE PARK', 'NEW YORK', 'NEW YORK CITY', 'NEW YORY', 'NY', 'NY NY', 'OZON PARK', 'OZONE PARK', 'QUEENS', 'QUEENS VILLAGE', 'QUUENS', 'REGO PARK', 'RICHMOND HILL', 'RICHMOND HILLS', 'RICMOND HILL', 'RIDGEWOOD', 'RIDGWOOD', 'ROCKAWAY PARK', 'ROSEDALE', 'S OZONE PARK', 'S RICHMOMD HILL', 'S RICHMOND', 'S RICHMOND HILL', 'S. OZONE PARK', 'SAINT ALBANS', 'SO OZONE PARK', 'SO RICHMOND HIL', 'SO.OZONE PARK', 'SOUTH OZONE PK', 'SOUTH RICHMOND', 'SPRINGFIELD GDN', 'SPRINGFIELD GND', 'ST ALBANS', 'ST. ALBANS', 'STATEN ISLAND', 'SUNNY SIDE', 'SUNNYSIDE', 'TORIA', 'VALLEY STREAM', 'WHITESTONE', 'WILLIASMBURG', 'WOODHAVEN', 'WOODSIDE']</t>
         </is>
@@ -1083,11 +1141,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1143,12 +1201,18 @@
         </is>
       </c>
       <c r="T10" t="n">
+        <v>3211</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>6422</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['NY']</t>
         </is>
@@ -1161,39 +1225,39 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>3213</v>
       </c>
       <c r="E11" t="n">
-        <v>3213</v>
+        <v>3199</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>148737740</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>46495.07346045639</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11201</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2018968.265988209</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4076232859067.437</v>
       </c>
       <c r="K11" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>-1</v>
+        <v>114203020</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1221,12 +1285,18 @@
         </is>
       </c>
       <c r="T11" t="n">
+        <v>92</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>15996</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>175</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>['10001', '10002', '10003', '10004', '10005', '10006', '10007', '10009', '10010', '10011', '10012', '10013', '10014', '10016', '10017', '10018', '10019', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '10040', '10065', '10075', '10128', '10168', '10281', '10301', '10302', '10303', '10304', '10305', '10306', '10307', '10308', '10309', '10310', '10312', '10314', '10431', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '10458', '10459', '10460', '10461', '10462', '10463', '10465', '10466', '10467', '10468', '10469', '10470', '10472', '10473', '10474', '10475', '11004', '11040', '11042', '11101', '11102', '11103', '11104', '11105', '11106', '11201', '11203', '11204', '11205', '11206', '11207', '11208', '11209', '11210', '11211', '11212', '11213', '11214', '11215', '11216', '11217', '11218', '11219', '11220', '11221', '11222', '11223', '11224', '11225', '11226', '11228', '11229', '11230', '11231', '11232', '11233', '11234', '11235', '11236', '11237', '11238', '11239', '11354', '11355', '11356', '11357', '11358', '11360', '11361', '11362', '11364', '11365', '11366', '11367', '11368', '11369', '11370', '11372', '11373', '11374', '11375', '11377', '11378', '11379', '11385', '11412', '11413', '11414', '11415', '11416', '11417', '11418', '11419', '11420', '114203020', '11421', '11422', '11423', '11426', '11427', '11428', '11429', '11432', '11433', '11434', '11435', '11691', '11693', '11694', '13', '21673', '76051']</t>
         </is>
@@ -1239,39 +1309,39 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>3213</v>
       </c>
       <c r="E12" t="n">
-        <v>3213</v>
+        <v>3205</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>19195103221912</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5989111769.707333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7183834030</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2337874560.45413</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.465657460418592e+18</v>
       </c>
       <c r="K12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-1</v>
+        <v>9999999999</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1299,12 +1369,18 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>52</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>32029</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>2782</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['0', '2013214279', '2017097556', '2027445916', '2053966779', '2122044343', '2122061010', '2122066888', '2122067575', '2122069973', '2122078038', '2122078422', '2122130080', '2122131099', '2122131241', '2122133113', '2122134990', '2122136843', '2122139154', '2122190318', '2122190833', '2122191300', '2122191778', '2122191811', '2122191881', '2122192110', '2122192259', '2122192330', '2122193985', '2122199439', '2122208510', '2122216888', '2122217215', '2122220088', '2122222090', '2122222292', '2122223660', '2122224266', '2122225080', '2122228002', '2122228905', '2122232714', '2122260288', '2122261111', '2122261228', '2122262388', '2122262669', '2122263110', '2122263126', '2122266812', '2122266857', '2122266882', '2122268718', '2122269838', '2122270770', '2122271945', '2122276010', '2122277738', '2122282306', '2122282948', '2122285800', '2122286810', '2122287030', '2122287177', '2122291664', '2122301366', '2122331211', '2122332838', '2122332888', '2122335460', '2122336200', '2122345501', '2122345722', '2122345788', '2122347577', '2122347775', '2122347776', '2122388802', '2122389000', '2122389004', '2122392660', '2122396988', '2122422567', '2122423837', '2122442397', '2122442681', '2122445152', '2122445909', '2122446460', '2122453019', '2122454200', '2122459387', '2122468225', '2122469734', '2122475078', '2122477682', '2122494104', '2122520905', '2122529779', '2122531820', '2122544460', '2122544602', '2122546461', '2122554731', '2122555655', '2122559444', '2122582488', '2122606000', '2122606017', '2122608237', '2122608616', '2122653900', '2122654550', '2122673245', '2122678600', '2122680481', '2122683939', '2122684040', '2122690111', '2122749953', '2122780111', '2122800297', '2122800350', '2122800805', '2122801600', '2122810444', '2122813000', '2122818017', '2122818450', '2122836517', '2122862700', '2122891700', '2122892181', '2122892800', '2123020954', '2123021111', '2123022299', '2123030000', '2123040364', '2123041177', '2123041358', '2123041851', '2123042073', '2123042310', '2123042969', '2123043900', '2123044902', '2123045158', '2123076260', '2123079376', '2123080335', '2123089068', '2123150392', '2123151688', '2123152141', '2123153155', '2123153933', '2123163333', '2123193685', '2123270494', '2123333150', '2123333669', '2123335570', '2123340378', '2123345356', '2123349864', '2123356604', '2123361440', '2123430412', '2123430696', '2123431188', '2123433111', '2123438808', '2123447676', '2123469624', '2123469662', '2123484442', '2123486340', '2123488800', '2123490089', '2123493510', '2123508890', '2123522500', '2123540014', '2123541341', '2123543131', '2123545290', '2123552220', '2123552555', '2123552929', '2123606844', '2123626063', '2123665253', '2123669226', '2123669870', '2123672021', '2123684866', '2123685353', '2123700651', '2123710111', '2123741008', '2123758777', '2123813100', '2123880200', '2123880591', '2123903116', '2123911054', '2123914120', '2123972300', '2123982474', '2123983236', '2123987205', '2124063768', '2124068988', '2124100055', '2124101023', '2124149494', '2124149697', '2124201828', '2124210543', '2124212404', '2124219000', '2124231844', '2124239115', '2124239750', '2124250571', '2124260198', '2124260439', '2124266997', '2124273894', '2124276317', '2124277301', '2124291900', '2124311592', '2124311818', '2124312409', '2124317765', '2124317985', '2124318280', '2124318462', '2124474400', '2124509602', '2124591156', '2124592500', '2124639999', '2124735665', '2124736571', '2124754777', '2124776225', '2124777040', '2124811787', '2124812120', '2124819139', '2124867090', '2124919897', '2124943748', '2124962900', '2125051111', '2125053796', '2125055400', '2125106160', '2125130664', '2125148412', '2125175300', '2125175777', '2125230954', '2125283800', '2125290660', '2125322718', '2125322895', '2125323311', '2125340202', '2125343188', '2125346062', '2125356604', '2125430700', '2125431011', '2125432490', '2125432600', '2125434306', '2125447676', '2125449300', '2125615919', '2125631651', '2125640054', '2125641600', '2125642432', '2125644293', '2125644410', '2125647792', '2125648580', '2125675033', '2125675600', '2125676010', '2125676397', '2125677600', '2125680075', '2125680555', '2125681051', '2125682445', '2125682561', '2125682886', '2125683300', '2125683866', '2125684714', '2125686100', '2125686400', '2125689226', '2125691515', '2125693100', '2125694659', '2125695038', '2125696479', '2125698196', '2125712400', '2125713314', '2125714143', '2125715077', '2125717300', '2125729888', '2125736827', '2125755280', '2125755453', '2125792724', '2125794688', '2125795200', '2125800400', '2125800510', '2125800605', '2125804381', '2125805550', '2125811425', '2125813333', '2125814800', '2125820525', '2125839100', '2125860967', '2125861474', '2125863909', '2125864979', '2125875967', '2125933326', '2125941400', '2125945886', '2125946565', '2125950925', '2125974914', '2125984050', '2126064700', '2126080899', '2126082066', '2126082323', '2126082766', '2126084818', '2126086273', '2126142522', '2126146910', '2126190700', '2126191000', '2126191888', '2126207766', '2126250160', '2126250180', '2126250828', '2126251282', '2126251398', '2126251535', '2126253171', '2126253833', '2126258321', '2126290079', '2126332290', '2126344444', '2126399333', '2126433100', '2126433700', '2126436644', '2126437010', '2126439655', '2126442118', '2126450008', '2126451501', '2126477062', '2126635678', '2126654164', '2126657031', '2126661730', '2126731090', '2126733670', '2126740032', '2126745377', '2126750306', '2126751130', '2126751900', '2126752580', '2126755698', '2126774673', '2126778808', '2126793388', '2126795538', '2126796668', '2126800112', '2126823636', '2126832979', '2126838009', '2126839121', '2126840440', '2126842515', '2126845555', '2126857820', '2126858101', '2126861196', '2126866988', '2126868644', '2126868890', '2126874800', '2126878910', '2126894200', '2126897171', '2126906001', '2126950175', '2126951461', '2126956006', '2126956334', '2126964200', '2126964443', '2126971591', '2127028933', '2127122300', '2127128040', '2127129617', '2127143080', '2127214112', '2127220712', '2127224013', '2127251011', '2127253200', '2127257520', '2127304727', '2127321398', '2127322355', '2127326128', '2127340459', '2127347550', '2127362007', '2127366606', '2127369595', '2127400020', '2127401111', '2127402211', '2127402700', '2127406404', '2127408700', '2127410401', '2127412990', '2127419595', '2127420910', '2127448811', '2127483388', '2127492565', '2127497434', '2127508409', '2127508989', '2127517515', '2127535128', '2127539640', '2127550628', '2127577565', '2127580644', '2127603330', '2127642449', '2127642465', '2127642980', '2127643453', '2127647107', '2127653857', '2127672722', '2127729500', '2127770075', '2127771730', '2127772724', '2127773093', '2127777433', '2127791565', '2127799683', '2127807420', '2127812067', '2127815680', '2127816057', '2127846229', '2127859521', '2127873744', '2127914000', '2127944800', '2127951410', '2127952152', '2127954383', '2127959700', '2127996500', '2128080001', '2128085280', '2128106432', '2128190070', '2128244714', '2128253886', '2128262020', '2128265048', '2128283900', '2128313775', '2128319583', '2128338800', '2128383564', '2128400066', '2128402199', '2128406669', '2128428499', '2128430146', '2128566100', '2128602216', '2128603364', '2128608646', '2128611984', '2128620785', '2128621111', '2128627929', '2128629015', '2128642763', '2128644292', '2128645747', '2128646900', '2128651781', '2128658600', '2128664071', '2128670606', '2128670781', '2128677631', '2128678620', '2128679486', '2128683338', '2128683799', '2128694010', '2128751860', '2128761517', '2128761616', '2128765393', '2128772200', '2128777722', '2128778760', '2128797678', '2128882105', '2128899668', '212898888', '2129041790', '2129200558', '2129201949', '2129211984', '2129212111', '2129218123', '2129231126', '2129231603', '2129232833', '2129233333', '2129237770', '2129240200', '2129248600', '2129250595', '2129252889', '2129254402', '2129255578', '2129256188', '2129256575', '2129256956', '2129260020', '2129269100', '2129269200', '2129270467', '2129270493', '2129271111', '2129271140', '2129272700', '2129273222', '2129273800', '2129277438', '2129279100', '2129279212', '2129280018', '2129281375', '2129281860', '2129282460', '2129283151', '2129286109', '2129286480', '2129286778', '2129288677', '2129289500', '2129291600', '2129293645', '2129296323', '2129296898', '2129328923', '2129410001', '2129417070', '2129417301', '2129420777', '2129421515', '2129429553', '2129490300', '2129492164', '2129496935', '2129567642', '2129622082', '2129622217', '2129623655', '2129651005', '2129658898', '2129659279', '2129660081', '2129661002', '2129661368', '2129661909', '2129662726', '2129662828', '2129663567', '2129665122', '2129665538', '2129666266', '2129666366', '2129666888', '2129666918', '2129668870', '2129672004', '2129673601', '2129677171', '2129679070', '2129719110', '2129729888', '2129742070', '2129742323', '2129747575', '2129771261', '2129774570', '2129861116', '2129870047', '2129872222', '2129872700', '2129875712', '2129876459', '2129876610', '2129950085', '2129960690', '2129961500', '2129961600', '2129965155', '2129965581', '2129969096', '2129969477', '2129974446', '2129984666', '2129999999', '3057697014', '3472000551', '3472025221', '3472027648', '3472045626', '3472088901', '3472134737', '3472136130', '3472194188', '3472234108', '3472236617', '3472341558', '3472389596', '3472389866', '3472423130', '3472423895', '3472429775', '3472452190', '3472472665', '3472700038', '3472701780', '3472714834', '3472715271', '3472717055', '3472753146', '3472804903', '3472815271', '3472917796', '3472938556', '3472940719', '3472950380', '3472950942', '3472952636', '3472952679', '3472953122', '3472953345', '3472970697', '3472976201', '3472977802', '3472978750', '3473018411', '3473028517', '3473124134', '3473126402', '3473127459', '3473216511', '3473232630', '3473265597', '3473467262', '3473468347', '3473469532', '3473654153', '3473658256', '3473746534', '3473948565', '3473980344', '3474001276', '3474001744', '3474014651', '3474154617', '3474181577', '3474251682', '3474264865', '3474319175', '3474322021', '3474350074', '3474513350', '3474613041', '3474619283', '3474622704', '3474629492', '3474925044', '3474925843', '3474927945', '3474944570', '3474975584', '3474975706', '3474981255', '3474999413', '3475102538', '3475151616', '3475296140', '3475338775', '3475339944', '3475359031', '3475385872', '3475484723', '3475562242', '3475653632', '3475690907', '3475708163', '3475751245', '3475777048', '3475851300', '3475876211', '3475901378', '3475901946', '3475906441', '3475910918', '3475913401', '3475975230', '3475975747', '3475977342', '3475979642', '3476017151', '3476137024', '3476158932', '3476210731', '3476226344', '3476242464', '3476275473', '3476570121', '3476632997', '3476634366', '3476639452', '3476913252', '3476977720', '3477025943', '3477060323', '3477138050', '3477213798', '3477264815', '3477305486', '3477414383', '3477418888', '3477506087', '3477506361', '3477559944', '3477575623', '3477587454', '3477720259', '3477768254', '3477771153', '3477823332', '3477872083', '3478205555', '3478371936', '3478386601', '3478438427', '3478455151', '3478622971', '3478867888', '3478917343', '3479015375', '3479607295', '3479649422', '3479680968', '3479684345', '3479832310', '3479924389', '3479939222', '4089744876', '4153834000', '4253834000', '4253834840', '5162213527', '5162952589', '5162974300', '5163260500', '5163714040', '5164177707', '5164336667', '5164396916', '5164969494', '5165031549', '5165130408', '5165211699', '5165543455', '5166160280', '5166441940', '5167765678', '5168017900', '5168139500', '5168139584', '5168255330', '5168306689', '5168327070', '5168594716', '5169027333', '5169029893', '5169326400', '5169845200', '5404326166', '6077222280', '6122914851', '6122914863', '6308607447', '6313980825', '6314312246', '6318431670', '6318433300', '6402516881', '6462010999', '6462033364', '6462269551', '6462270585', '6462282491', '6462284738', '6462300177', '6462337497', '6462340383', '6462355405', '6462398657', '6462398761', '6462421103', '6462518990', '6462553666', '6462564180', '6462593690', '6462609081', '6462662740', '6462677014', '6462714621', '6462759346', '6462835756', '6462874299', '6462890101', '6462960750', '6462962915', '6462966458', '6463023332', '6463033332', '6463057927', '6463147558', '6463225461', '6463304668', '6463306943', '6463356297', '6463358457', '6463393389', '6463399100', '6463532137', '6463622268', '6463661080', '6463668190', '6463705263', '6463775969', '6463935288', '6463953384', '6464020043', '6464020554', '6464028126', '6464076064', '6464209995', '6464239964', '6464312326', '6464315478', '6464362686', '6464571920', '6464590800', '6464640916', '6464670707', '6464684125', '6464730459', '6464863347', '6465084014', '6465086133', '6465102712', '6465245572', '6465288543', '6465331125', '6465423091', '6465495825', '6465752719', '6465784945', '6466021483', '6466101047', '6466131188', '6466131319', '6466138185', '6466138288', '6466138883', '6466197583', '6466410782', '6466412187', '6466419501', '6466421489', '6466433716', '6466434560', '6466512541', '6466546660', '6466624020', '6466741652', '6466788888', '6466885248', '6467144456', '6467217915', '6467353300', '6467394624', '6467555899', '6467730961', '6468244777', '6468427544', '6468439797', '6468612166', '6468797241', '6468813939', '6469382304', '6469387135', '6784788118', '7', '7034338683', '7087690754', '718050533', '7181234567', '7182001998', '7182009958', '7182040333', '7182041313', '7182042459', '7182042981', '7182045102', '7182051011', '7182051839', '7182052133', '7182052199', '7182052300', '7182052316', '7182052727', '7182053620', '7182053631', '7182055324', '7182057722', '7182057755', '7182058200', '7182058739', '7182059100', '7182060019', '7182060100', '7182060328', '7182061046', '7182061055', '7182061234', '7182062640', '7182063336', '7182063654', '7182063811', '7182064345', '7182064555', '7182068417', '7182069400', '7182091800', '7182101492', '7182171800', '7182173600', '7182177799', '7182187648', '7182187903', '7182201155', '7182202559', '7182203360', '7182204414', '7182208431', '7182208626', '7182208948', '7182209000', '7182209600', '7182211500', '7182215586', '7182218353', '7182219108', '7182220080', '7182221106', '7182225732', '7182228828', '7182230553', '7182241200', '7182244344', '7182253300', '7182277333', '7182290168', '7182292000', '7182292280', '7182293500', '7182298080', '7182300031', '7182300225', '7182300700', '7182301245', '7182307682', '7182310055', '7182311473', '7182312115', '7182312317', '7182312596', '7182314406', '7182317196', '7182323310', '7182325371', '7182325800', '7182326600', '7182328060', '7182328484', '7182328818', '7182329280', '7182331338', '7182334405', '7182343450', '7182343460', '7182344111', '7182353814', '7182355334', '7182356831', '7182360035', '7182361080', '7182362665', '7182363507', '7182363632', '7182365417', '7182367832', '7182370990', '7182372155', '7182372500', '7182380300', '7182383214', '7182388026', '7182389639', '7182396300', '7182410447', '7182472412', '7182491201', '7182513608', '7182515021', '7182520207', '7182522566', '7182523863', '7182524022', '7182525435', '7182528876', '7182536116', '7182537100', '7182540312', '7182563976', '7182565221', '7182567669', '7182567878', '7182571385', '7182571527', '7182574122', '7182574534', '7182574900', '7182579534', '7182580004', '7182581200', '7182584388', '7182588298', '7182593538', '7182594593', '7182597400', '7182598006', '7182598700', '7182608888', '7182609400', '7182614888', '7182615718', '7182620642', '7182628300', '7182628788', '7182628831', '7182631900', '7182632029', '7182632300', '7182635552', '7182638466', '7182655002', '7182656950', '7182664245', '7182666047', '7182676677', '7182676734', '7182678874', '7182683660', '7182684017', '7182687601', '7182689070', '7182711106', '7182711322', '7182714218', '7182715915', '7182716212', '7182727228', '7182729572', '7182737743', '7182737792', '7182742266', '7182747444', '7182751062', '7182752425', '7182763212', '7182763900', '7182764348', '7182767776', '7182771980', '7182772377', '7182776600', '7182777373', '7182777580', '7182781283', '7182783200', '7182784278', '7182785804', '7182788100', '7182790237', '7182791700', '7182810920', '7182812893', '7182814620', '7182821557', '7182821800', '7182822249', '7182822706', '7182823175', '7182824073', '7182824615', '7182824910', '7182826200', '7182843719', '7182845185', '7182847200', '7182858773', '7182864980', '7182868581', '7182870249', '7182871675', '7182871702', '7182872274', '7182873941', '7182879400', '7182880682', '7182889008', '7182897000', '7182911000', '7182911522', '7182911599', '7182914000', '7182914821', '7182915820', '7182920213', '7182920780', '7182922020', '7182923556', '7182924489', '7182927555', '7182928654', '7182928666', '7182929227', '7182929702', '7182930567', '7182932007', '7182932556', '7182932828', '7182933330', '7182934774', '7182935449', '7182938213', '7182939113', '7182940962', '7182941881', '7182944400', '7182944596', '7182950186', '7182950200', '7182950354', '7182951836', '7182953592', '7182958680', '7182965500', '7182968040', '7182968303', '7182972121', '7182973999', '7182979500', '7182979589', '7182986894', '7182990199', '7182991111', '7182991740', '7182992222', '7182995300', '7182998384', '7183008710', '7183011872', '7183016394', '7183016812', '7183016888', '7183020046', '7183022944', '7183023130', '7183023132', '7183026514', '7183026600', '7183026661', '7183029399', '7183049797', '7183054408', '7183130577', '7183130979', '7183172468', '7183189410', '7183190655', '7183199676', '7183201200', '7183201632', '7183203980', '7183207484', '7183210300', '7183211020', '7183211860', '7183213320', '7183218000', '7183218368', '7183219969', '7183221522', '7183222400', '7183223953', '7183224383', '7183227171', '7183227400', '7183228061', '7183228900', '7183231515', '7183240791', '7183244936', '7183245252', '7183246100', '7183248100', '7183248981', '7183263133', '7183263927', '7183264360', '7183267907', '7183268888', '7183274550', '7183275050', '7183281011', '7183281317', '7183282656', '7183286230', '7183286336', '7183322887', '7183323322', '7183324422', '7183324671', '7183324994', '7183327667', '7183330206', '7183330680', '7183332684', '7183350286', '7183354500', '7183356978', '7183361077', '7183361155', '7183362640', '7183363883', '7183366803', '7183367325', '7183380022', '7183381220', '7183383022', '7183385225', '7183386021', '7183389272', '7183389838', '7183390099', '7183395553', '7183396655', '7183397890', '7183398686', '7183399010', '7183411200', '7183420090', '7183420221', '7183420310', '7183423489', '7183424047', '7183426956', '7183427756', '7183430300', '7183430918', '7183433888', '7183438300', '7183452673', '7183458048', '7183468060', '7183473630', '7183480066', '7183481974', '7183484603', '7183484941', '7183487977', '7183489477', '7183489647', '7183490029', '7183491238', '7183492034', '7183496889', '7183498088', '7183510099', '7183511900', '7183513643', '7183513680', '7183514411', '7183518531', '7183520372', '7183524410', '7183530911', '7183531369', '7183532255', '7183532966', '7183533606', '7183534298', '7183535255', '7183535683', '7183536240', '7183536516', '7183536517', '7183536556', '7183536699', '7183537104', '7183570894', '7183575415', '7183580089', '7183580560', '7183580710', '7183581608', '7183584800', '7183585588', '7183586066', '7183586555', '7183588818', '7183590191', '7183592700', '7183594500', '7183611815', '7183614721', '7183617770', '7183629644', '7183632476', '7183633500', '7183635362', '7183635444', '7183645070', '7183645630', '7183650033', '7183651414', '7183652957', '7183653510', '7183662040', '7183662236', '7183662891', '7183663060', '7183664404', '7183665635', '7183667313', '7183669200', '7183674097', '7183675555', '7183683000', '7183689328', '7183690070', '7183693030', '7183693290', '7183694847', '7183694875', '7183696969', '7183697080', '7183697645', '7183701100', '7183701230', '7183701992', '7183702700', '7183703151', '7183704980', '7183709706', '7183709848', '7183722088', '7183726922', '7183727468', '7183731642', '7183731681', '7183731740', '7183733405', '7183733475', '7183737677', '7183751000', '7183751048', '7183751453', '7183755282', '7183759180', '7183764814', '7183768336', '7183774577', '7183778192', '7183778198', '7183812522', '7183814149', '7183814802', '7183817333', '7183817477', '7183818188', '7183820988', '7183823370', '7183827800', '7183834030', '7183837110', '7183837803', '7183838288', '7183847110', '7183853505', '7183854037', '7183861200', '7183862500', '7183867648', '7183868050', '7183871942', '7183872744', '7183875030', '7183877777', '7183878500', '7183878660', '7183878920', '7183880100', '7183881100', '7183881915', '7183883447', '7183886365', '7183887708', '7183895152', '7183896180', '7183897371', '7183897995', '7183898900', '7183903116', '7183912996', '7183932690', '7183939252', '7183964367', '7183964404', '7183968600', '7183972859', '7183983825', '7183985928', '7183986015', '7183986799', '7183989353', '7183993537', '7183996500', '7184010100', '7184012830', '7184013585', '7184014007', '7184014144', '7184014449', '7184022929', '7184023398', '7184024404', '7184024616', '7184026145', '7184039632', '7184090312', '7184091147', '7184094634', '7184099260', '7184100516', '7184104949', '7184108200', '7184137800', '7184151440', '7184153116', '7184153297', '7184156686', '7184157756', '7184173458', '7184173480', '7184175000', '7184176463', '7184177419', '7184181280', '7184181840', '7184183900', '7184185123', '7184187948', '7184188043', '7184188484', '7184191712', '7184206555', '7184212230', '7184212560', '7184220400', '7184224700', '7184229181', '7184242081', '7184243975', '7184244676', '7184245355', '7184247350', '7184247788', '7184247999', '7184249609', '7184261911', '7184262222', '7184262612', '7184276065', '7184286800', '7184290052', '7184292064', '7184293900', '7184297000', '7184297500', '7184298884', '7184300050', '7184311866', '7184318657', '7184330005', '7184333900', '7184342222', '7184342786', '7184343111', '7184343315', '7184343700', '7184348400', '7184352800', '7184354950', '7184356608', '7184358828', '7184358888', '7184363064', '7184364700', '7184373500', '7184374670', '7184382300', '7184390755', '7184393109', '7184394669', '7184395300', '7184395966', '7184396913', '7184404356', '7184410001', '7184411335', '7184411770', '7184412230', '7184412343', '7184413033', '7184413115', '7184415005', '7184416242', '7184417398', '7184417474', '7184418263', '7184422229', '7184428042', '7184430803', '7184433695', '7184434540', '7184435400', '7184445555', '7184453001', '7184453777', '7184454772', '7184455796', '7184467576', '7184476791', '7184480004', '7184480021', '718448005', '7184481515', '7184481993', '7184484263', '7184485048', '7184485870', '7184503248', '7184503460', '7184506864', '7184521807', '7184522616', '7184523339', '7184531485', '7184531700', '7184532200', '7184536599', '7184536866', '7184546277', '7184550436', '7184552699', '7184555580', '7184571657', '7184574242', '7184574848', '7184577400', '7184580007', '7184580832', '7184590100', '7184591295', '7184592500', '7184594795', '7184600337', '7184601472', '7184602258', '7184606000', '7184608986', '7184612810', '7184613600', '7184617308', '7184618080', '7184629335', '7184630800', '7184635333', '7184654700', '7184662650', '7184665920', '7184667090', '7184667835', '7184671271', '7184693290', '7184698268', '7184713211', '7184715899', '7184721280', '7184740611', '7184741160', '7184742825', '7184760329', '7184761000', '7184761371', '7184766559', '7184769070', '7184769696', '7184774180', '7184779688', '7184780413', '7184781200', '7184781303', '7184782171', '7184787918', '7184788111', '7184821220', '7184828929', '7184838002', '7184838377', '7184838996', '7184839744', '7184842125', '7184842332', '7184843778', '7184843895', '7184844330', '7184847746', '7184847920', '7184848154', '7184848500', '7184852334', '7184856230', '7184856635', '7184857150', '7184857994', '7184859522', '7184859531', '7184863468', '7184866132', '7184867420', '7184868300', '7184868505', '7184872888', '7184880641', '7184885500', '7184902929', '7184914060', '7184914500', '7184916600', '7184916680', '7184919600', '7184921382', '7184922222', '7184924404', '7184925800', '7184926668', '7184926735', '7184928614', '7184934726', '7184943200', '7184963542', '7184970008', '7184974001', '7184978087', '7184985910', '7184990190', '7184991800', '7184994978', '7184998000', '7184999080', '7184999726', '7185013138', '7185050155', '7185051066', '7185051216', '7185051600', '7185055555', '7185055700', '7185058820', '7185075100', '7185075209', '7185075303', '7185133280', '7185134808', '7185154196', '7185158991', '7185172277', '7185198515', '7185199100', '7185224369', '7185225554', '7185226555', '7185231576', '7185235300', '7185235316', '7185237545', '7185251616', '7185260251', '7185260363', '7185260500', '7185263900', '7185267023', '7185267778', '7185269193', '7185277400', '7185288800', '7185290803', '7185291200', '7185298530', '7185306937', '7185311300', '7185312107', '7185322588', '7185324369', '7185330303', '7185330888', '7185331108', '7185331993', '7185336333', '7185337171', '7185339555', '7185364011', '7185364393', '7185377099', '7185387275', '7185390999', '7185393999', '7185395800', '7185396127', '7185398686', '7185412843', '7185420070', '7185420700', '7185438686', '7185442310', '7185445684', '7185449800', '7185470211', '7185472539', '7185473500', '7185475471', '7185476350', '7185478877', '7185480534', '7185480633', '7185491500', '7185522134', '7185543338', '7185569708', '7185585300', '7185585577', '7185588666', '7185620583', '7185623866', '7185626560', '7185627000', '7185627089', '7185628488', '7185629659', '7185631181', '7185632609', '7185638019', '7185651212', '7185651505', '7185652626', '7185653140', '7185655102', '7185655504', '7185656063', '7185659836', '7185670222', '7185672190', '7185674309', '7185677660', '7185677820', '7185678007', '7185678540', '7185678577', '7185678880', '7185685059', '7185708166', '7185731100', '7185735100', '7185735307', '7185736720', '7185737456', '7185743300', '7185743402', '7185755555', '7185786415', '7185786418', '7185830734', '7185833716', '7185838396', '7185838805', '7185840903', '7185841240', '7185842600', '7185853761', '7185855473', '7185856511', '7185856555', '7185857020', '7185858777', '7185893029', '7185895972', '7185897460', '7185900510', '7185911700', '7185911789', '7185912779', '7185919700', '7185921133', '7185927264', '7185927477', '7185927963', '7185960300', '7185961312', '7185967200', '7185972898', '7185975500', '7185975990', '7185977492', '7185993628', '7185998906', '7186000097', '7186000170', '7186008099', '7186016057', '7186021069', '7186021210', '7186028800', '7186044574', '7186056800', '7186061865', '7186069544', '7186090091', '7186090600', '7186096242', '7186152959', '7186159015', '7186159085', '7186161515', '7186161575', '7186162300', '7186170471', '7186171372', '7186174417', '7186180032', '7186180035', '7186185028', '7186187040', '7186187628', '7186200034', '7186204505', '7186208999', '7186221697', '7186225770', '7186232151', '7186238180', '7186242012', '7186244700', '7186260006', '7186261790', '7186261981', '7186262457', '7186268811', '7186270092', '7186270291', '7186270292', '7186271900', '7186273140', '7186273977', '7186277827', '7186280982', '7186283663', '7186286800', '7186289031', '7186290815', '7186312220', '7186315100', '7186331161', '7186332200', '7186333465', '7186334000', '7186335401', '7186337704', '7186338208', '7186340657', '7186360007', '7186360404', '7186360656', '7186363811', '7186364367', '7186366000', '7186368100', '7186383040', '7186386522', '7186390314', '7186392314', '7186392881', '7186393500', '7186394992', '7186399686', '7186410641', '7186412120', '7186412212', '7186413949', '7186415455', '7186417100', '7186418646', '7186422200', '7186430034', '7186430414', '7186432832', '7186433827', '7186439220', '7186450990', '7186453719', '7186456222', '7186459131', '7186461800', '7186464110', '7186475555', '7186480081', '7186510487', '7186510568', '7186511117', '7186514197', '7186516541', '7186517730', '7186518250', '7186518837', '7186520977', '7186520994', '7186522774', '7186525200', '7186525900', '7186527200', '7186535300', '7186543063', '7186549682', '7186572696', '7186574219', '7186577704', '7186578899', '7186579404', '7186580569', '7186584667', '7186588100', '7186590050', '7186594646', '7186610847', '7186611866', '7186613555', '7186626298', '7186634470', '7186650890', '7186655558', '7186656830', '7186660287', '7186660666', '7186662980', '7186666660', '7186668274', '7186669908', '7186676677', '7186716099', '7186720801', '7186724645', '7186726272', '7186760265', '7186761010', '7186765650', '7186766264', '7186769447', '7186769709', '7186771185', '7186771718', '7186779449', '7186805454', '7186806130', '7186807199', '7186812525', '7186818396', '7186843110', '7186845612', '7186846024', '7186852356', '7186860336', '7186860909', '7186861010', '7186866200', '7186866522', '7186866840', '7186868383', '7186879876', '7186907732', '7186922828', '7186927247', '7186927297', '7186931717', '7186933003', '7186934263', '7186934500', '7186967737', '7186970008', '7186979888', '7186985806', '7186986951', '7186994327', '7186995452', '7186999200', '7187010191', '7187010341', '7187013882', '7187015004', '7187015111', '7187030979', '7187033653', '7187034536', '7187050772', '7187066020', '7187066373', '7187070033', '7187070609', '7187072314', '7187084665', '7187085443', '7187086035', '7187086339', '7187086957', '7187087047', '7187087083', '7187122100', '7187124900', '7187147064', '7187151639', '7187151886', '7187161246', '7187205840', '7187206562', '7187212122', '7187212161', '7187214040', '7187222939', '7187227365', '7187235700', '7187237100', '7187241990', '7187250327', '7187251335', '7187271178', '7187282292', '7187285334', '7187286110', '7187295550', '7187295720', '7187302628', '7187310011', '7187316210', '7187319731', '7187331100', '7187337006', '7187353727', '7187371111', '7187371467', '7187382152', '7187382600', '7187384012', '7187391602', '7187393498', '7187394219', '7187400442', '7187404030', '7187412793', '7187420791', '7187422393', '7187429591', '7187430907', '7187433047', '7187433200', '7187438238', '7187438303', '7187461210', '7187463695', '7187464647', '7187481021', '7187481220', '7187481683', '7187483070', '7187521140', '7187532255', '7187537487', '7187547000', '7187558188', '7187560925', '7187563070', '7187563898', '7187564369', '7187568233', '7187569840', '7187581000', '7187581180', '7187581600', '7187586933', '7187600255', '7187609305', '7187613032', '7187614590', '7187615310', '7187620192', '7187620732', '7187623600', '7187623979', '7187626000', '7187628639', '7187628866', '7187635733', '7187637300', '7187637779', '7187640015', '7187644466', '7187651037', '7187667117', '7187669487', '7187677500', '7187687070', '7187689200', '7187690418', '7187694040', '7187696485', '7187696595', '7187696826', '7187696999', '7187697073', '7187710920', '7187712012', '7187713887', '7187717111', '7187730138', '7187737701', '7187741990', '7187745501', '7187751965', '7187760566', '7187760800', '7187771300', '7187773997', '7187775538', '7187776504', '7187778641', '7187782999', '7187784900', '7187785659', '7187790603', '7187792206', '7187792266', '7187793881', '7187794163', '7187794575', '7187794788', '7187794888', '7187797733', '7187798080', '7187798436', '7187799580', '7187816825', '7187820151', '7187821212', '7187828570', '7187828583', '7187828585', '7187840098', '7187848000', '7187860808', '7187864647', '7187864827', '7187865319', '7187870001', '7187874888', '7187879667', '7187884031', '7187884500', '7187886400', '7187892931', '7187916348', '7187917618', '7187922530', '7187927272', '7187927777', '7187935048', '7187943739', '7187945222', '7187960166', '7187960700', '7187964900', '7187968282', '7187971790', '7187985478', '7187989555', '7188011309', '7188030303', '7188033088', '7188033700', '7188033988', '7188038100', '7188038200', '7188039280', '7188039562', '7188053300', '7188054137', '7188055550', '7188057548', '7188057770', '7188058892', '7188078524', '7188083555', '7188108818', '7188151466', '7188154305', '7188155599', '7188157188', '7188157771', '7188164111', '7188165780', '7188190398', '7188190430', '7188200100', '7188211111', '7188211960', '7188216888', '7188220014', '7188225522', '7188225560', '7188232800', '7188233200', '7188235394', '7188241600', '7188242400', '7188246200', '7188248094', '7188253248', '7188261111', '7188266066', '7188268900', '7188270311', '7188271400', '7188272303', '7188274218', '7188274440', '7188281259', '7188287700', '7188288878', '7188289700', '7188292099', '7188293561', '7188293655', '7188297510', '7188301777', '7188303760',</t>
         </is>
@@ -1317,11 +1393,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1379,12 +1455,18 @@
         </is>
       </c>
       <c r="T13" t="n">
+        <v>33</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>225083</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>1251</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['1 AVENUE\nMANHATTAN, NY 10128\n(40.7822690581095, -73.9512209586388)', '1 AVENUE\nNEW YORK, NY 10003\n(40.7230936685816, -73.9883989313301)', '1 AVENUE\nNEW YORK, NY 10022\n(40.7588057463651, -73.9680023077056)', '1 AVENUE\nNEW YORK, NY 10028\n(40.7761536683103, -73.9525789349031)', '10 AVENUE\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '10 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '10 AVENUE\nNEW YORK, NY 10034\n(40.8668053288637, -73.9224066808201)', '101 AVENUE\nJAMAICA, NY 11419\n(40.688730573842, -73.8227707931939)', '101 AVENUE\nOZON PARK, NY 11416\n(40.6842969162375, -73.8502900472905)', '101 AVENUE\nOZONE PARK, NY 11416\n(40.6842969162375, -73.8502900472905)', '101 AVENUE\nQUEENS, NY 11416\n(40.6842969162375, -73.8502900472905)', '101 AVENUE\nRICHMOND HILL, NY 11419\n(40.688730573842, -73.8227707931939)', '101 AVENUE\nS RICHMOND, NY 11419\n(40.688730573842, -73.8227707931939)', '103 STREET\nCORONA, NY 11368\n(40.7487243464166, -73.8534106947322)', '108 STREET\nCORONA, NY 11368\n(40.7487243464166, -73.8534106947322)', '108 STREET\nFOREST HILLS, NY 11375\n(40.7199280550384, -73.8421871558065)', '10TH AVE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '11 AVENUE\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '11 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '113 STREET\nS RICHMOND HILL, NY 11419\n(40.688730573842, -73.8227707931939)', '12TH ROAD\nWHITESTONE, NY 11357\n(40.7863609733428, -73.8111425593551)', '13 AVENUE\nBROOKLYN, NY 11218\n(40.6437105130552, -73.9782275991788)', '13 AVENUE\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '13 AVENUE\nBROOKLYN, NY 11228\n(40.6168567572603, -74.012797537985)', '13TH AVE\nBROOKLYN, NY 11218\n(40.6437105130552, -73.9782275991788)', '13TH AVE\nBROOKLYN, NY 11219\n(40.6279723775425, -73.9994515990702)', '14 AVENUE\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '14 AVENUE\nCOLLEGE POINT, NY 11356\n(40.7860641970731, -73.8424119863138)', '14 AVENUE\nWHITESTONE, NY 11357\n(40.7863609733428, -73.8111425593551)', '148 STREET\nJAMAICA, NY 11435\n(40.7018426890292, -73.8099644474967)', '15 AVENUE\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '15 AVENUE\nCOLLEGE POINT, NY 11356\n(40.7860641970731, -73.8424119863138)', '15 STREET\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '150 STREET\nFLUSHING, NY 11354\n(40.767520176829, -73.8270335796128)', '150 STREET\nJAMAICA, NY 11435\n(40.7018426890292, -73.8099644474967)', '153 AVENUE\nHOWARD BEACH, NY 11414\n(40.6571194045121, -73.8449750540973)', '154 STREET\nWHITESTONE, NY 11357\n(40.7863609733428, -73.8111425593551)', '16 AVENUE\nBROOKLYN, NY 11204\n(40.618502516574, -73.9869060567615)', '162 STREET\nFLUSHING, NY 11358\n(40.7612878751659, -73.7945140950333)', '165 STREET\nJAMAICA, NY 11432\n(40.7131921330389, -73.7928233696182)', '165 STREET\nJAMAICIA, NY 11432\n(40.7131921330389, -73.7928233696182)', '168 STREET\nJAMAICA, NY 11432\n(40.7131921330389, -73.7928233696182)', '168TH ST\nJAMAICA, NY 11432\n(40.7063932584975, -73.7924996136877)', '18 AVENUE\nBROOKLYN, NY 11204\n(40.618502516574, -73.9869060567615)', '18 AVENUE\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '18 AVENUE\nBROOKLYN, NY 11214\n(40.6040594047834, -74.0010254126215)', '18 AVENUE\nBROOKLYN, NY 11218\n(40.6437105130552, -73.9782275991788)', '188 STREET\nBRONX, NY 10468\n(40.866661437339, -73.9007150334734)', '188 STREET\nFRESH MEADOWS, NY 11365\n(40.7391645532451, -73.7940104746969)', '190 STREET\nQUEENS, NY 11365\n(40.7391645532451, -73.7940104746969)', '1ST AVE\nNEW YORK, NY 10022\n(40.7598579531393, -73.961814972144)', '2 AVENUE\nNEW YORK, NY 10010\n(40.7387688515523, -73.9829400466123)', '2 AVENUE\nNEW YORK, NY 10016\n(40.7449022277921, -73.9780927008744)', '2 AVENUE\nNEW YORK, NY 10017\n(40.7522496887715, -73.9731014636117)', '2 AVENUE\nNEW YORK, NY 10021\n(40.7692918412267, -73.9585144602964)', '2 AVENUE\nNEW YORK, NY 10028\n(40.7761536683103, -73.9525789349031)', '2 AVENUE\nNEW YORK, NY 10029\n(40.7912532851822, -73.9433249112216)', '2 AVENUE\nNEW YORK, NY 10065\n(40.7643185904047, -73.9624624840051)', '20 AVENUE\nBROOKLYN, NY 11204\n(40.618502516574, -73.9869060567615)', '20 AVENUE\nBROOKLYN, NY 11214\n(40.6040594047834, -74.0010254126215)', '20 AVENUE\nCOLLEGE POINT, NY 11356\n(40.7860641970731, -73.8424119863138)', '20 AVENUE\nQUEENS, NY 11356\n(40.7860641970731, -73.8424119863138)', '21 ST\nLONG ISLND CITY, NY 11106\n(40.7616835768588, -73.9316337248407)', '21 STREET\nLIC, NY 11102\n(40.7706408242706, -73.9260849079199)', '21 STREET\nLONG ISLND CITY, NY 11101\n(40.7434723057655, -73.9360493960045)', '21 STREET\nQUEENS, NY 11102\n(40.7706408242706, -73.9260849079199)', '21ST STREET\nASTORIA, NY 11106\n(40.7616835768588, -73.9316337248407)', '23 AVENUE\nASTORIA, NY 11105\n(40.780164644561, -73.9096093283432)', '230 STREET\nLAURELTON, NY 11413\n(40.6498348960748, -73.749691885093)', '26 AVENUE\nBAYSIDE, NY 11360\n(40.7803984682886, -73.7795493764658)', '2ND AVENUE\nNEW YORK, NY 10021\n(40.7692918412267, -73.9585144602964)', '3 AVENUE\nBRONX, NY 10451\n(40.8127740613434, -73.9204011926947)', '3 AVENUE\nBRONX, NY 10455\n(40.8139881460829, -73.9052026503996)', '3 AVENUE\nBRONX, NY 10456\n(40.820742054523, -73.9081434334354)', '3 AVENUE\nBRONX, NY 10458\n(40.8650516509065, -73.8847520674533)', '3 AVENUE\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '3 AVENUE\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '3 AVENUE\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '3 AVENUE\nNEW YORK, NY 10003\n(40.7230936685816, -73.9883989313301)', '3 AVENUE\nNEW YORK, NY 10016\n(40.7449022277921, -73.9780927008744)', '3 AVENUE\nNEW YORK, NY 10017\n(40.7522496887715, -73.9731014636117)', '3 AVENUE\nNEW YORK, NY 10021\n(40.7692918412267, -73.9585144602964)', '3 AVENUE\nNEW YORK, NY 10022\n(40.7588057463651, -73.9680023077056)', '3 AVENUE\nNEW YORK, NY 10028\n(40.7761536683103, -73.9525789349031)', '3 AVENUE\nNEW YORK, NY 10029\n(40.7912532851822, -73.9433249112216)', '3 AVENUE\nNEW YORK, NY 10035\n(40.7922875055159, -73.9247718977571)', '30 AVENUE\nASTORIA, NY 11102\n(40.7706408242706, -73.9260849079199)', '30 AVENUE\nASTORIA, NY 11103\n(40.7543990684215, -73.9120554842629)', '30 AVENUE\nQUEENS, NY 11103\n(40.7543990684215, -73.9120554842629)', '30 AVENUE\nTORIA, NY 11103\n(40.7543990684215, -73.9120554842629)', '31 AVENUE\nFLUSHING, NY 11354\n(40.767520176829, -73.8270335796128)', '31 AVENUE\nJACKSON HGTS, NY 11370\n(40.7593813124638, -73.8918477182644)', '31 AVENUE\nLONG IS. CITY, NY 11103\n(40.7543990684215, -73.9120554842629)', '31 AVENUE\nWOODSIDE, NY 11377\n(40.7455587328735, -73.9063987486985)', '31 STREET\nASTORIA, NY 11102\n(40.7706408242706, -73.9260849079199)', '31 STREET\nASTORIA, NY 11105\n(40.780164644561, -73.9096093283432)', '31 STREET\nLIC, NY 11106\n(40.7616835768588, -73.9316337248407)', '31 STREET\nQUEENS, NY 11105\n(40.780164644561, -73.9096093283432)', '35 AVENUE\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '36 AVENUE\nQUEENS, NY 11106\n(40.7616835768588, -73.9316337248407)', '36 STREET\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '36TH AVE\nASTORIA, NY 11106\n(40.7620702853314, -73.9425245146155)', '37 AVENUE\nCORONA, NY 11368\n(40.7487243464166, -73.8534106947322)', '37 AVENUE\nFLUSHING, NY 11354\n(40.767520176829, -73.8270335796128)', '37 AVENUE\nJACKSON HEIGHTS, NY\n(40.7519798921627, -73.8828275183106)', '37 AVENUE\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '37 AVENUE\nQUEENS, NY 11354\n(40.767520176829, -73.8270335796128)', '37 ROAD\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '37TH AVENUE\nJACKSON HEIGHTS, NY 11372\n(40.7485175023498, -73.8959666131586)', '37TH ROAD\nJACKSON HEIGHTS, NY 11372\n(40.7473483837118, -73.8905976606437)', '38 STREET\nASTORIA, NY 11103\n(40.7543990684215, -73.9120554842629)', '39 AVENUE\nCORONA, NY 11368\n(40.7487243464166, -73.8534106947322)', '39 AVENUE\nQUEENS, NY 11354\n(40.767520176829, -73.8270335796128)', '39 AVENUE\nQUUENS, NY 11354\n(40.767520176829, -73.8270335796128)', '39 STREET\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '39TH AVE\nFLUSHING, NY 11354\n(40.7589946039912, -73.8345249321169)', '3RD AVE\nNEW YORK, NY 10035\n(40.806901488492, -73.934007934998)', '3RD AVENUE\nBRONX, NY 10455\n(40.818439790128, -73.914546606284)', '3RD AVENUE\nNEW YORK, NY 10003\n(40.7299914685463, -73.9895860364088)', '3RD AVENUE\nNEW YORK, NY 10021\n(40.7692918412267, -73.9585144602964)', '3RD AVENUE\nNEW YORK, NY 10022\n(40.7588057463651, -73.9680023077056)', '3RD AVENUE\nNEW YORK, NY 10029\n(40.7896794716309, -73.9461128095124)', '4 AVENUE\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '4 AVENUE\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '4 AVENUE\nBROOKLYN, NY 11217\n(40.6825792111616, -73.9809885178087)', '4 AVENUE\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '40 ROAD\nELMHURST, NY 11373\n(40.7387688515523, -73.8778812471494)', '40 ROAD\nFLUSHING, NY 11355\n(40.7509546650493, -73.8227348203127)', '40TH AVENUE\nLONG ISLND CITY, NY 11101\n(40.7434723057655, -73.9360493960045)', '40TH ROAD\nFLUSHING, NY 11354\n(40.7571240141702, -73.8339313795776)', '41 AVENUE\nFLUSHING, NY 11355\n(40.7509546650493, -73.8227348203127)', '41 ROAD\nFLUSHING, NY 11355\n(40.7509546650493, -73.8227348203127)', '41ST AVENUE\nFLUSHING, NY 11355\n(40.7563146243439, -73.8336795694094)', '41ST STREET\nBROOKLYN, NY 11232\n(40.6527397062294, -74.0093711210534)', '45 AVENUE\nFLUSHING, NY 11355\n(40.7509546650493, -73.8227348203127)', '45 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '48 AVENUE\nSUNNYSIDE, NY 11377\n(40.7455587328735, -73.9063987486985)', '48 STREET\nLONG ISLND CITY, NY 11101\n(40.7434723057655, -73.9360493960045)', '48 STREET\nQUEENS, NY 11101\n(40.7434723057655, -73.9360493960045)', '48TH AVE\nLONG ISLND CITY, NY 11101\n(40.7436521701713, -73.9512299518591)', '49 STREET\nSUNNYSIDE, NY 11104\n(40.7461342989722, -73.9185845621955)', '4TH AVENUE\nBROOKLYN, NY 11209\n(40.6147703301524, -74.03198007687)', '5 AVE\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '5 AVENUE\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '5 AVENUE\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '5 AVENUE\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '5 AVENUE\nNEW YORK CITY, NY 10001\n(40.749686620988, -73.9961510872227)', '5 AVENUE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '5 AVENUE\nNEW YORK, NY 10010\n(40.7387688515523, -73.9829400466123)', '5 AVENUE\nNEW YORK, NY 10016\n(40.7449022277921, -73.9780927008744)', '5 AVENUE\nNEW YORK, NY 10017\n(40.7522496887715, -73.9731014636117)', '5 AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '5 AVENUE\nNEW YORK, NY 10022\n(40.7588057463651, -73.9680023077056)', '5 AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '51 STREET\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '51 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '54 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '55 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '57 AVENUE\nCORONA, NY 11368\n(40.7487243464166, -73.8534106947322)', '59TH AVENUE\nELMHURST, NY 11373\n(40.7387688515523, -73.8778812471494)', '5TH AVE\nBROOKLYN, NY 11220\n(40.6367227808876, -74.0190208464278)', '5TH AVENUE\nBROOKLYN, NY 11215\n(40.6639002926131, -73.9907821347077)', '5TH AVENUE\nBROOKLYN, NY 11220\n(40.6367227808876, -74.0190208464278)', '5TH AVENUE\nNEW YORK, NY 10010\n(40.7417276210286, -73.989379192342)', '5TH AVENUE\nNEW YORK, NY 10016\n(40.7449022277921, -73.9780927008744)', '5TH AVENUE\nNEW YORK, NY 10017\n(40.7522496887715, -73.9731014636117)', '5TH AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '6 AVENUE\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '6 AVENUE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '6 AVENUE\nNEW YORK, NY 10010\n(40.7387688515523, -73.9829400466123)', '6 AVENUE\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', '6 AVENUE\nNEW YORK, NY 10014\n(40.7345060651334, -74.0071318092004)', '6 AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '6 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '6 AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '60 STREET\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', '60 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '61 STREET\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '61 STREET\nWOODSIDE, NY 11377\n(40.7455587328735, -73.9063987486985)', '63 DRIVE\nREGO PARK, NY 11374\n(40.7259984787362, -73.8624578743469)', '65 STREET\nBROOKLYN, NY 11204\n(40.618502516574, -73.9869060567615)', '68 STREET\nBROOKLYN, NY 11204\n(40.618502516574, -73.9869060567615)', '69 STREET\nWOODSIDE, NY 11377\n(40.7455587328735, -73.9063987486985)', '6TH AVE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '6TH AVE\nNEW YORK, NY 10010\n(40.7387688515523, -73.9829400466123)', '7 AVENUE\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '7 AVENUE\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '7 AVENUE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '7 AVENUE\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', '7 AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '7 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '7 AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '7 AVENUE\nNEW YORK, NY 10039\n(40.8269024104237, -73.9389092400577)', '7 AVENUE\nNEW YORK, NY 11215\n(40.6665353061589, -73.9802780534055)', '7 AVENUE SOUTH\nNEW YORK, NY 10014\n(40.7345060651334, -74.0071318092004)', '70 STREET\nWOODSIDE, NY 11377\n(40.7455587328735, -73.9063987486985)', '71 AVENUE\nFOREST HILLS, NY 11375\n(40.7199280550384, -73.8421871558065)', '71 AVENUE\nQUEENS, NY 11375\n(40.7199280550384, -73.8421871558065)', '71ST AVENUE\nFOREST HILLS, NY 11375\n(40.7079221059473, -73.8510994371169)', '73 STREET\nQUEENS, NY 11372\n(40.7518000277568, -73.882962416615)', '74 STREET\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '74 STREET\nQUEENS, NY 11372\n(40.7518000277568, -73.882962416615)', '75 STREET\nELMHURST, NY 11373\n(40.7387688515523, -73.8778812471494)', '77 STREET\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '77 STREET\nOZONE PARK, NY 11416\n(40.6842969162375, -73.8502900472905)', '77TH ST\nBROOKLYN, NY 11214\n(40.6141677843927, -74.0003868939807)', '7TH AVENUE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '7TH AVENUE\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', '7TH AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '8 AVENUE\nBROOKLYN, NY 11220\n(40.6399963130742, -74.0183553481261)', '8 AVENUE\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '8 AVENUE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '8 AVENUE\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', '8 AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '8 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '8 AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '8 AVENUE\nNEW YORK, NY 10039\n(40.8269024104237, -73.9389092400577)', '82 ND STREET\nJACKSON HEIGHTS, NY 11372\n(40.7476451599815, -73.8839426776269)', '82 STREET\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '82 STREET\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '82 STREET\nQUEENS, NY 11372\n(40.7518000277568, -73.882962416615)', '82ND STREET\nJACKSON HEIGHTS, NY 11372\n(40.7476451599815, -73.8839426776269)', '84 DRIVE\nJAMAICA, NY 11435\n(40.7018426890292, -73.8099644474967)', '86 ST\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '86 STREET\nBROOKLYN, NY 11209\n(40.6207238419863, -74.0291112395965)', '86 STREET\nBROOKLYN, NY 11214\n(40.6040594047834, -74.0010254126215)', '86 STREET\nBROOKLYN, NY 11223\n(40.5956327573689, -73.9740727314033)', '86TH ST\nBROOKLYN, NY 11214\n(40.6066134793466, -74.0016099719405)', '87 STREET\nEAST ELMHURST, NY 11369\n(40.7643635565061, -73.8712352573529)', '8TH  AVENUE\nBROOKLYN, NY 11220\n(40.6345374283564, -74.0104772871494)', '8TH AVE\nBROOKLYN, NY 11232\n(40.6551588824883, -74.0028690227816)', '8TH AVE\nNEW YORK, NY 10001\n(40.7496506481068, -73.9952967312948)', '8TH AVE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '8TH AVE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '8TH AVENUE\nBROOKLYN, NY 11220\n(40.6345374283564, -74.0104772871494)', '8TH AVENUE\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', '8TH AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '8TH AVENUE\nNEW YORK, NY 10030\n(40.8179901291133, -73.9422727044473)', '8TH AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '8TH STREET\nNEW YORK, NY\n(40.6175582284432, -74.1897301540295)', '9 AVE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '9 AVENUE\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', '9 AVENUE\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', '9 AVENUE\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', '9 STREET\nBROOKLYN, NY 11215\n(40.6665353061589, -73.9802780534055)', '91 STREET\nJACKSON HEIGHTS, NY 11372\n(40.7518000277568, -73.882962416615)', '91TH ST\nEAST ELMHURST, NY 11369\n(40.7643635565061, -73.8712352573529)', '94 STREET\nQUEENS, NY 11417\n(40.6760411400086, -73.8467467184951)', '96 STREET\nWOODHAVEN, NY 11421\n(40.6915094789126, -73.8567561726812)', '9TH AVE\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', '9TH ST\nBROOKLYN, NY 11215\n(40.6703484315631, -73.988731680481)', 'ADAM CLAYTON POWELL BOULEVARD\nNEW YORK, NY 10030\n(40.8191232748702, -73.9410136536063)', 'ADAM CLAYTON POWELL JR BLVD\nNEW YORK, NY 10039\n(40.8278287121138, -73.9350241688912)', 'AKRON ST\nSTATEN ISLAND, NY 10314\n(40.6119554522007, -74.1594409880827)', 'ALBION AVENUE\nELNHURST, NY 11373\n(40.7387688515523, -73.8778812471494)', 'ALLEN STREET\nNEW YORK, NY 10002\n(40.7229407838366, -73.9886327550577)', 'ALLEN STREET\nNY, NY 10002\n(40.7157462076022, -73.9854851279552)', 'ALLERTON AVE\nBRONX, NY 10467\n(40.8655372848024, -73.8624129082455)', 'ALLERTON AVENUE\nBRONX, NY 10467\n(40.8655372848024, -73.8624129082455)', 'AMBOY ROAD\nSTATEN ISLAND, NY 10307\n(40.5163125543846, -74.2328796249953)', 'AMSTERDAM  AVENUE\nNEW YORK, NY 10032\n(40.8303108409147, -73.9439454434218)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10023\n(40.7704519666445, -73.9876435008255)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10024\n(40.7853177597888, -73.9717165076866)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10025\n(40.801775352925, -73.9647737416204)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10027\n(40.8133586206624, -73.9562841416638)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10031\n(40.8239796138284, -73.9485679586524)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10032\n(40.8303108409147, -73.9439454434218)', 'AMSTERDAM AVENUE\nNEW YORK, NY 10033\n(40.8481084238746, -73.9308962807767)', 'AMTRAK PENN STATION\nNEW YORK, NY\n(40.7560538209554, -73.9869510228629)', 'ARCHER AVENUE\nJAMAICA, NY 11433\n(40.7032905974964, -73.7960159628223)', 'ARTHUR AVENUE\nBRONX, NY 10458\n(40.8584686136521, -73.885111796265)', 'ASTORIA BOULEVARD\nASTORIA, NY 11102\n(40.7700652581719, -73.9181438944012)', 'ASTORIA BOULEVARD\nEAST ELMHURST, NY 11369\n(40.7582931328084, -73.8555870540431)', 'ASTORIA BOULEVARD\nELMHURST, NY 11369\n(40.7582931328084, -73.8555870540431)', 'ASTORIA BOULEVARD\nQUEENS, NY 11370\n(40.7662521327676, -73.8901479996291)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11201\n(40.6916713568778, -73.9996944160181)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11207\n(40.6755824857736, -73.9011736877083)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11208\n(40.6802229874448, -73.8754081115688)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11213\n(40.677740858644, -73.9362112739698)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11217\n(40.6835414857329, -73.976240097494)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11233\n(40.6773631433916, -73.9299340062053)', 'ATLANTIC AVENUE\nBROOKLYN, NY 11238\n(40.6819137128599, -73.968568880584)', 'ATLANTIC AVENUE\nOZONE PARK, NY 11416\n(40.6887755399435, -73.8463240371413)', 'ATLANTIC AVENUE\nQUEENS, NY 11416\n(40.6887755399435, -73.8463240371413)', 'ATLANTIC AVENUE\nRICHMOND HILL, NY 11418\n(40.6972471534595, -73.8138854915445)', 'ATLANTIC AVENUE\nRICHMOND HILL, NY 11419\n(40.6971572212565, -73.813840525443)', 'ATLANTIC AVENUE\nRICHMOND HILLS, NY 11418\n(40.6972471534595, -73.8138854915445)', 'ATLANTIC AVENUE\nS RICHMOND HILL, NY 11419\n(40.688730573842, -73.8227707931939)', 'ATLANTIC AVENUE\nWOODHAVEN, NY 11421\n(40.6882539331665, -73.848770193061)', 'AUDUBON AVENUE\nNEW YORK, NY 10033\n(40.84950237302, -73.936921738373)', 'AUSTIN STREET\nFOREST HILLS, NY 11375\n(40.7141184347291, -73.8349026473692)', 'AUSTIN STREET\nQUEENS, NY 11375\n(40.7199280550384, -73.8421871558065)', 'AVE J\nBROOKLYN, NY 11238\n(40.6771652925452, -73.9644140128087)', 'AVE OF THE AMERICAS\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', 'AVENUE A\nNEW YORK, NY 10009\n(40.7304771024421, -73.9803140262867)', 'AVENUE B\nNEW YORK, NY 10009\n(40.7295058346505, -73.9779847822308)', 'AVENUE D\nBROOKLYN, NY 11203\n(40.6423795164519, -73.9254463892791)', 'AVENUE J\nBROOKLYN, NY 11230\n(40.6235926792598, -73.9758174161402)', 'AVENUE M\nBROOKLYN, NY 11230\n(40.6164250826863, -73.9744594398759)', 'AVENUE N\nBROOKLYN, NY 11234\n(40.5940319641567, -73.9108413995233)', 'AVENUE OF AMERICAS\nNEW YORK, NY 10011\n(40.7423751328898, -74.0015380261782)', 'AVENUE OF AMERICAS\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', 'AVENUE OF THE AMERICAS\nMANHATTAN, NY 10001\n(40.749686620988, -73.9961510872227)', 'AVENUE OF THE AMERICAS\nMANHATTAN, NY 10011\n(40.7423751328898, -74.0015380261782)', 'AVENUE OF THE AMERICAS\nNEW YORK, NY 10011\n(40.731700180402, -74.000917493978)', 'AVENUE OF THE AMERICAS\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', 'AVENUE OF THE AMERICAS\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', 'AVENUE P\nBROOKLYN, NY 11223\n(40.6088168183184, -73.9730115314088)', 'AVENUE U\nBROOKLYN, NY 11223\n(40.5978360963406, -73.9654662195829)', 'AVENUE U\nBROOKLYN, NY 11229\n(40.5993829302311, -73.9514008230447)', 'AVENUE U\nBROOKLYN, NY 11234\n(40.6130346386358, -73.9175053757604)', 'AVENUE X\nBROOKLYN, NY 11223\n(40.5890497201144, -73.9837764160995)', 'AVENUE Z\nBROOKLYN, NY 11235\n(40.5866665167367, -73.9661497043252)', 'AVERY AVENUE\nFLUSHING, NY 11355\n(40.7523845870759, -73.832411525348)', 'B CROSSBAY BOULEVARD\nHOWARD BEACH, NY 11414\n(40.6571194045121, -73.8449750540973)', 'BAINBRIDGE AVENUE\nBRONX, NY 10467\n(40.8871749728273, -73.878052118335)', 'BARRETT AVENUE\nSTATEN ISLAND, NY 10302\n(40.631362821593, -74.1378932322606)', 'BARTOW AVENUE\nBRONX, NY 10475\n(40.868963701734, -73.8232564270897)', 'BATH AVE\nBROOKLYN, NY 11228\n(40.6168567572603, -74.012797537985)', 'BATH AVENUE\nBROOKLYN, NY 11214\n(40.590173872651, -73.984037219488)', 'BAXTER AVENUE\nELMHURST, NY 11373\n(40.7387688515523, -73.8778812471494)', 'BAY   31 STREET\nBROOKLYN, NY 11214\n(40.6040594047834, -74.0010254126215)', 'BAY 25TH ST\nBROOKLYN, NY 11214\n(40.6041493369863, -73.9975360431478)', 'BAY 25TH STREET\nBROOKLYN, NY 11214\n(40.6041493369863, -73.9975360431478)', 'BAY PARKWAY\nBROOKLYN, NY 11204\n(40.620867733511, -73.9753048025835)', 'BAY PARKWAY\nBROOKLYN, NY 11214\n(40.5962982556705, -73.9997573685602)', 'BAY PKWY\nBROOKLYN, NY 11204\n(40.620867733511, -73.9753048025835)', 'BAY PLAZA\nBRONX, NY 10475\n(40.8685050474991, -73.8240208508146)', 'BAY STREET\nSTATEN ISLAND, NY\n(40.7135068957492, -73.2389219385521)', 'BAY STREET\nSTATEN ISLAND, NY 10301\n(40.6419118689967, -74.0755432359693)', 'BAY STREET\nSTATEN ISLAND, NY 10304\n(40.620867733511, -74.0712894427707)', 'BAY STREET\nSTATEN ISLAND, NY 10305\n(40.6135742318534, -74.0657945851717)', 'BAYARD STREET\nBROOKLYN, NY 11222\n(40.7207644245257, -73.945024629857)', 'BAYARD STREET\nNEW YORK, NY 10013\n(40.7215288482506, -74.0047935719243)', 'BAYCHESTER AVENUE\nBRONX, NY 10475\n(40.8812484406542, -73.8387247659937)', 'BEACH   20 STREET\nFAR ROCKAWAY, NY 11691\n(40.5951381302527, -73.7539726579525)', 'BEACH   21 STREET\nFAR ROCKAWAY, NY 11691\n(40.6014243912376, -73.7635234579037)', 'BEACH  116 STREET\nFAR ROCKAWAY, NY 11694\n(40.5766210896695, -73.8507756811863)', 'BEACH  116 STREET\nROCKAWAY PARK, NY 11694\n(40.5815943404915, -73.8381671863356)', 'BEACH  129 STREET\nBELLE HARBOR, NY 11694\n(40.5766210896695, -73.8507756811863)', 'BEACH CHANNEL DRIVE\nFAR ROCKAWAY, NY 11691\n(40.5962353031285, -73.7675704070355)', 'BEACH CHANNEL DRIVE\nQUEENS, NY 11691\n(40.6014243912376, -73.7635234579037)', 'BEAVER STREET\nNEW YORK, NY 10004\n(40.6896298958713, -74.0192097040539)', 'BEDFORD AVENUE\nBROOKLYN, NY 11211\n(40.7031017398702, -73.959944382323)', 'BEDFORD AVENUE\nBROOKLYN, NY 11216\n(40.6787121264356, -73.9529926230366)', 'BEDFORD AVENUE\nBROOKLYN, NY 11226\n(40.6459498249082, -73.9587123111429)', 'BEEKMAN STREET\nNEW YORK, NY 10038\n(40.7096667906841, -74.0048295448054)', 'BELL BOULEVARD\nBAYSIDE, NY 11360\n(40.7882045835029, -73.7896307764142)', 'BELL BOULEVARD\nBAYSIDE, NY 11361\n(40.7557840243466, -73.7671387324614)', 'BELL BOULEVARD\nQUEENS, NY 11361\n(40.7642646310829, -73.7705291765119)', 'BLEECKER STREET\nNEW YORK, NY 10014\n(40.7345060651334, -74.0071318092004)', 'BOSTON POST ROAD\nBRONX, NY 10475\n(40.8872199389288, -73.8249381592846)', 'BOSTON ROAD\nBRONX, NY 10460\n(40.8376043425723, -73.8874500335412)', 'BOSTON ROAD\nBRONX, NY 10466\n(40.8840363389451, -73.8340842643225)', 'BOSTON ROAD\nBRONX, NY 10467\n(40.8567329221356, -73.8691848031261)', 'BOSTON ROAD\nBRONX, NY 10469\n(40.8695212813922, -73.8575835489481)', 'BOWERY\nNEW YORK, NY 10002\n(40.7155393635354, -73.9964388702721)', 'BOWERY\nNEW YORK, NY 10013\n(40.7162498279386, -73.9961331007821)', 'BOWERY STREET\nNEW YORK, NY 10002\n(40.7155393635354, -73.9964388702721)', 'BOWERY STREET\nNEW YORK, NY 10013\n(40.7162498279386, -73.9961331007821)', 'BRADDOCK AVENUE\nBELLEROSE, NY 11426\n(40.7262952550059, -73.7269030648706)', 'BRIGHTON    4 STREET\nBROOKLYN, NY 11235\n(40.5771426964465, -73.9632628806112)', 'BRIGHTON    5 STREET\nBROOKLYN, NY 11235\n(40.5773585337335, -73.9623545653616)', 'BRIGHTON BEACH AVENUE\nBROOKLYN, NY 11235\n(40.576270354078, -73.9685598873638)', 'BRITTON AVENUE\nELMHURST, NY 11372\n(40.7518000277568, -73.882962416615)', 'BROAD STREET\nSTATEN ISLAND, NY 10304\n(40.6245999199326, -74.0797790427273)', 'BROADWAY\nASTORIA, NY 11103\n(40.7543990684215, -73.9120554842629)', 'BROADWAY\nASTORIA, NY 11106\n(40.7619893463488, -73.9254014231776)', 'BROADWAY\nBRONX, NY 10463\n(40.8854482745311, -73.9004092639834)', 'BROADWAY\nBROOKLYN, NY 11206\n(40.7053860178247, -73.9502227111863)', 'BROADWAY\nBROOKLYN, NY 11207\n(40.6768865027161, -73.9000315487311)', 'BROADWAY\nBROOKLYN, NY 11211\n(40.7082098889966, -73.9573273552178)', 'BROADWAY\nBROOKLYN, NY 11221\n(40.6889733907899, -73.9210936706573)', 'BROADWAY\nELMHURST, NY 11373\n(40.7462422176158, -73.890390816577)', 'BROADWAY\nJACKSON HEIGHTS, NY 11372\n(40.7468267769348, -73.8917667792818)', 'BROADWAY\nLONG ISLND CITY, NY 11103\n(40.7543990684215, -73.9120554842629)', 'BROADWAY\nMANHATTAN, NY 10003\n(40.7230936685816, -73.9883989313301)', 'BROADWAY\nMANHATTAN, NY 10004\n(40.6896298958713, -74.0192097040539)', 'BROADWAY\nMANHATTAN, NY 10010\n(40.7387688515523, -73.9829400466123)', 'BROADWAY\nNEW YORK, NY\n(40.8736671559473, -73.9111561622335)', 'BROADWAY\nNEW YORK, NY 10001\n(40.749686620988, -73.9961510872227)', 'BROADWAY\nNEW YORK, NY 10003\n(40.7230936685816, -73.9883989313301)', 'BROADWAY\nNEW YORK, NY 10006\n(40.7081739161155, -74.013319144762)', 'BROADWAY\nNEW YORK, NY 10007\n(40.7098286686494, -74.0098927278304)', 'BROADWAY\nNEW YORK, NY 10010\n(40.7387688515523, -73.9829400466123)', 'BROADWAY\nNEW YORK, NY 10012\n(40.7254498922983, -73.9967626262026)', 'BROADWAY\nNEW YORK, NY 10013\n(40.7162768075995, -74.0044967956546)', 'BROADWAY\nNEW YORK, NY 10018\n(40.7555771802799, -73.99392076859)', 'BROADWAY\nNEW YORK, NY 10019\n(40.7663420649706, -73.9887856398027)', 'BROADWAY\nNEW YORK, NY 10023\n(40.7677719869972, -73.9823105211917)', 'BROADWAY\nNEW YORK, NY 10024\n(40.7831234140373, -73.9803140262867)', 'BROADWAY\nNEW YORK, NY 10025\n(40.7950664105865, -73.9716535551445)', 'BROADWAY\nNEW YORK, NY 10027\n(40.8157957833618, -73.9584155348733)', 'BROADWAY\nNEW YORK, NY 10031\n(40.8264887222902, -73.9505464671169)', 'BROADWAY\nNEW YORK, NY 10032\n(40.8418671289912, -73.9393499078521)', 'BROADWAY\nNEW YORK, NY 10033\n(40.8487829153965, -73.9372454943035)', 'BROADWAY\nNEW YORK, NY 10034\n(40.87313655595, -73.9115968300279)', 'BROADWAY\nNEW YORK, NY 10036\n(40.7593273531421, -73.9898738194582)', 'BROADWAY\nNEW YORK, NY 10038\n(40.7046485737606, -74.0032467380339)', 'BROADWAY\nNEW YORK, NY 10040\n(40.8626054949869, -73.9299519926459)', 'BROADWAY\nNEW YORK, NY 11206\n(40.7053860178247, -73.9502227111863)', 'BROADWAY\nNEW YORK, NY 11373\n(40.7462422176158, -73.890390816577)', 'BROADWAY\nNEW YORK, NY 11414\n(40.6571194045121, -73.8449750540973)', 'BROADWAY\nNEW YORY, NY 10001\n(40.749686620988, -73.9961510872227)', 'BROADWAY\nQUEENS, NY 11103\n(40.7543990684215, -73.9120554842629)', 'BROADWAY\nQUEENS, NY 11372\n(40.7518000277568, -73.882962416615)', 'BROADWAY\nQUEENS, NY 11373\n(40.7387688515523, -73.8778812471494)', 'BROADWAY\nWOODSIDE, NY 11373\n(40.7387688515523, -73.8778812471494)', 'BROADWAY\nWOODSIDE, NY 11377\n(40.7467997972739, -73.89171281996)', 'BRONX BOULEVARD\nBRONX, NY 10466\n(40.8946483388908, -73.8613607014712)', 'BRONX RIVER AVENUE\nBRONX, NY 10472\n(40.8228464680715, -73.8826746335656)', 'BRONXDALE AVENUE\nBRONX, NY 10462\n(40.8504466611507, -73.8658932844988)', 'BROOK AVENUE\nBRONX, NY 10454\n(40.8055255257872, -73.9207069621847)', 'BROOME STREET\nNEW YORK, NY 10002\n(40.7152605737064, -73.980754694081)', 'BRUCKNER BOULEVARD\nBRONX, NY 10455\n(40.8091318071247, -73.903925613118)', 'BRUCKNER BOULEVARD\nBRONX, NY 10473\n(40.8283593121111, -73.8456315591787)', 'BURKE AVENUE\nBRONX, NY 10467\n(40.8714458305349, -73.8671613285602)', 'BURNSIDE AVENUE\nBRONX, NY 10463\n(40.8524251696152, -73.903619843628)', 'CANAL\nNEW YORK, NY 10013\n(40.7215288482506, -74.0047935719243)', 'CANAL STREET\nNEW YORK, NY 10002\n(40.7162048618371, -73.9961241075618)', 'CANAL STREET\nNEW YORK, NY 10013\n(40.716753448275, -73.9973921516231)', 'CASTLE HILL AVE\nBRONX, NY 10462\n(40.8305446646423, -73.8507756811863)', 'CASTLE HILL AVE\nBRONX, NY 10472\n(40.8298072205783, -73.8505418574587)', 'CASTLE HILL AVENUE\nBRONX, NY 10462\n(40.8305446646423, -73.8507756811863)', 'CASTLETON AVENUE\nSTATEN ISLAND, NY 10310\n(40.6346723266608, -74.105553612087)', 'CATHERINE STREET\nNEW YORK, NY 10038\n(40.7140285025262, -73.9975450363681)', 'CENTRE STREET\nNEW YORK, NY 10013\n(40.7215288482506, -74.0047935719243)', 'CHAMBERS STREET\nNEW YORK, NY 10007\n(40.7171941160693, -74.0128964634083)', 'CHATHAM SQUARE\nNEW YORK, NY 10038\n(40.7140285025262, -73.9976259753507)', 'CHRYSTIE STREET\nNEW YORK, NY 10002\n(40.7199910075805, -73.992967487239)', 'CHURCH AVE\nBROOKLYN, NY\n(40.6752317501822, -73.9710420161646)', 'CHURCH AVE\nBROOKLYN, NY 11217\n(40.6825792111616, -73.9809885178087)', 'CHURCH AVE\nBROOKLYN, NY 11218\n(40.6463814994823, -73.9708531585385)', 'CHURCH AVE\nBROOKLYN, NY 11226\n(40.6493672486196, -73.9632808670518)', 'CHURCH AVENUE\nBROOKLYN, NY 11203\n(40.65245192318, -73.9227574164115)', 'CHURCH AVENUE\nBROOKLYN, NY 11212\n(40.6541786214763, -73.9177931588098)', 'CHURCH AVENUE\nBROOKLYN, NY 11218\n(40.6463814994823, -73.9708531585385)', 'CHURCH AVENUE\nBROOKLYN, NY 11219\n(40.6322711368426, -73.9967716194229)', 'CHURCH AVENUE\nBROOKLYN, NY 11226\n(40.6493672486196, -73.9632808670518)', 'CHURCH STREET\nNEW YORK, NY 10007\n(40.7132191126998, -74.0081480430935)', 'CHURCH STREET\nNEW YORK, NY 10013\n(40.7215288482506, -74.0047935719243)', 'CLARKSON AVENUE\nBROOKLYN, NY 11226\n(40.6459498249082, -73.9587123111429)', 'CLEVELAND STREET\nBROOKLYN, NY 11208\n(40.6796654077867, -73.8855524640593)', 'CLINTON STREET\nBROOKLYN, NY 11231\n(40.6761130857709, -74.0011153448244)', 'CLINTON STREET\nNEW YORK, NY 10002\n(40.7159530516689, -73.9867171991353)', 'CLOVE ROAD\nSTATEN ISLAND, NY 10305\n(40.5988163573526, -74.0815956732264)', '</t>
         </is>
